--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_593.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_593.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
   <si>
     <t>STR#</t>
   </si>
@@ -61,6 +61,15 @@
   </si>
   <si>
     <t>https://www.tripadvisor.com/Hotel_Review-g32735-d78315-Reviews-Quality_Inn_Suites_Montebello-Montebello_California.html</t>
+  </si>
+  <si>
+    <t>102</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>139</t>
   </si>
   <si>
     <t>https://www.orbitz.com/Los-Angeles-Hotels-Quality-Inn-Suites-Montebello-Los-Angeles.h4756.Hotel-Information</t>
@@ -532,11 +541,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +573,79 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="J1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="K1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="L1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="N1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="O1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="P1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="Q1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="R1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="S1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="T1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="U1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="V1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="W1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="X1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="Y1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_593.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_593.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="484">
   <si>
     <t>STR#</t>
   </si>
@@ -148,6 +148,1380 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>07/08/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32735-d78315-r561043655-Quality_Inn_Suites_Montebello-Montebello_California.html</t>
+  </si>
+  <si>
+    <t>32735</t>
+  </si>
+  <si>
+    <t>78315</t>
+  </si>
+  <si>
+    <t>561043655</t>
+  </si>
+  <si>
+    <t>02/17/2018</t>
+  </si>
+  <si>
+    <t>Absolutely Terrible</t>
+  </si>
+  <si>
+    <t>Worst 5 days of my life. The pillows aren’t full sized and are like little throw pillows. The bathrooms are the size of a small couch. It is so small you don’t have room to do anything. There is flooding in multiple rooms and downstairs in the lobby. We have received 2 blood stained towels. We have also seen multiple cockroaches. They don’t even have fruit downstairs for breakfast. Don’t waste your time. Stay somewhere else.</t>
+  </si>
+  <si>
+    <t>February 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32735-d78315-r550329962-Quality_Inn_Suites_Montebello-Montebello_California.html</t>
+  </si>
+  <si>
+    <t>550329962</t>
+  </si>
+  <si>
+    <t>12/30/2017</t>
+  </si>
+  <si>
+    <t>Couldn't find the Quality in the inn!</t>
+  </si>
+  <si>
+    <t>Don't ever stay here!Our experience was terrible from the moment we stepped through the doors. We had to wait forever for someone to check us in because the person that was working the front desk was incredibly disorganized and couldn't solve anyone's problems. In addition, she even gave us the wrong room! We had asked for a room with two queen beds and received one with one bed. We had to go back to the front desk to solve our problem because the phone line in our room was also dead. It took an even longer wait and if we hadn't solved the problem ourselves by switching rooms with another family, I'm sure the attendant wouldn't have done anything. She was terribly unmotivated and looked like she didn't want to be here. The room is also not the greatest. The curtains are ripped, the wallpaper is peeling and has black stains on it, and the room smells old and stuffy.If you're looking for a place to stay, check this one off your list.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2017</t>
+  </si>
+  <si>
+    <t>Don't ever stay here!Our experience was terrible from the moment we stepped through the doors. We had to wait forever for someone to check us in because the person that was working the front desk was incredibly disorganized and couldn't solve anyone's problems. In addition, she even gave us the wrong room! We had asked for a room with two queen beds and received one with one bed. We had to go back to the front desk to solve our problem because the phone line in our room was also dead. It took an even longer wait and if we hadn't solved the problem ourselves by switching rooms with another family, I'm sure the attendant wouldn't have done anything. She was terribly unmotivated and looked like she didn't want to be here. The room is also not the greatest. The curtains are ripped, the wallpaper is peeling and has black stains on it, and the room smells old and stuffy.If you're looking for a place to stay, check this one off your list.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32735-d78315-r528692743-Quality_Inn_Suites_Montebello-Montebello_California.html</t>
+  </si>
+  <si>
+    <t>528692743</t>
+  </si>
+  <si>
+    <t>10/01/2017</t>
+  </si>
+  <si>
+    <t>Quality Inn? Needs renaming to No Quality</t>
+  </si>
+  <si>
+    <t>Unfortunately, we stayed here 28th -30st July 2017. The room was disgusting with peeling wallpaper, mould and broken electrical sockets (See photos)The place needs a complete remodel as it is way past its sell by date. £277 dollars for two nights...disgusting!Just dont stay here!MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t>Management response:Responded October 4, 2017</t>
+  </si>
+  <si>
+    <t>Responded October 4, 2017</t>
+  </si>
+  <si>
+    <t>Unfortunately, we stayed here 28th -30st July 2017. The room was disgusting with peeling wallpaper, mould and broken electrical sockets (See photos)The place needs a complete remodel as it is way past its sell by date. £277 dollars for two nights...disgusting!Just dont stay here!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32735-d78315-r507261019-Quality_Inn_Suites_Montebello-Montebello_California.html</t>
+  </si>
+  <si>
+    <t>507261019</t>
+  </si>
+  <si>
+    <t>07/30/2017</t>
+  </si>
+  <si>
+    <t>Wonderful stay; as advertised, quality affordable accommodation</t>
+  </si>
+  <si>
+    <t>This was my first trip to Los Angeles and I wasn't looking for something high end or fancy; that is for my yearly jaunt to Australia.....   :-P    so I asked my travel agent to just find me something nice.  
+I could not be happier with the hotel.  The location didn't much matter to me because I didn't know where I was anyway.  I had a rented car with my GPS to take me to where I needed to go.  
+The first thing I noticed, and I don't know whether this is by accident or design, is that the sliding door starts to open well in advance and so is wide open when you pass through.  Subconsciously it says 'welcome.'  
+Check is was seamless, the desk staff was friendly and helpful with my requests about what is close by, which is to say 'where is there a close by gas station to get smokes?'  .....  The rest of the staff was also friendly and it is clear that they care about their guests and presenting the best possible stay.  The morning breakfast girl greets everyone with a warm Good Morning and big smile, the cleaning staff is similarly good with handing out extra coffee packets and of course making the room up everyday for my afternoon return.
+My room was nice, cozy and most important, clean and comfortable.  The carpet on the floor was clean, no worries about getting your bare...This was my first trip to Los Angeles and I wasn't looking for something high end or fancy; that is for my yearly jaunt to Australia.....   :-P    so I asked my travel agent to just find me something nice.  I could not be happier with the hotel.  The location didn't much matter to me because I didn't know where I was anyway.  I had a rented car with my GPS to take me to where I needed to go.  The first thing I noticed, and I don't know whether this is by accident or design, is that the sliding door starts to open well in advance and so is wide open when you pass through.  Subconsciously it says 'welcome.'  Check is was seamless, the desk staff was friendly and helpful with my requests about what is close by, which is to say 'where is there a close by gas station to get smokes?'  .....  The rest of the staff was also friendly and it is clear that they care about their guests and presenting the best possible stay.  The morning breakfast girl greets everyone with a warm Good Morning and big smile, the cleaning staff is similarly good with handing out extra coffee packets and of course making the room up everyday for my afternoon return.My room was nice, cozy and most important, clean and comfortable.  The carpet on the floor was clean, no worries about getting your bare feet dirty, the bathroom and shower was clean, fresh towels every day, and the air conditioner is a Space Shuttle model that blasts the room cold in no time, after which it was easy to fine tune to sleeping comfort, which brings us to The Bed.....I have stayed in the 5 star Sofitel in Brisbane and this mattress easily matches that one for comfort.  Sparkling clean sheets and blankets, fluffy pillows just as advertised;  I slept like a baby.  I have no problem returning to this hotel if I return to LA and have no hesitation in recommending it to anyone.MoreShow less</t>
+  </si>
+  <si>
+    <t>This was my first trip to Los Angeles and I wasn't looking for something high end or fancy; that is for my yearly jaunt to Australia.....   :-P    so I asked my travel agent to just find me something nice.  
+I could not be happier with the hotel.  The location didn't much matter to me because I didn't know where I was anyway.  I had a rented car with my GPS to take me to where I needed to go.  
+The first thing I noticed, and I don't know whether this is by accident or design, is that the sliding door starts to open well in advance and so is wide open when you pass through.  Subconsciously it says 'welcome.'  
+Check is was seamless, the desk staff was friendly and helpful with my requests about what is close by, which is to say 'where is there a close by gas station to get smokes?'  .....  The rest of the staff was also friendly and it is clear that they care about their guests and presenting the best possible stay.  The morning breakfast girl greets everyone with a warm Good Morning and big smile, the cleaning staff is similarly good with handing out extra coffee packets and of course making the room up everyday for my afternoon return.
+My room was nice, cozy and most important, clean and comfortable.  The carpet on the floor was clean, no worries about getting your bare...This was my first trip to Los Angeles and I wasn't looking for something high end or fancy; that is for my yearly jaunt to Australia.....   :-P    so I asked my travel agent to just find me something nice.  I could not be happier with the hotel.  The location didn't much matter to me because I didn't know where I was anyway.  I had a rented car with my GPS to take me to where I needed to go.  The first thing I noticed, and I don't know whether this is by accident or design, is that the sliding door starts to open well in advance and so is wide open when you pass through.  Subconsciously it says 'welcome.'  Check is was seamless, the desk staff was friendly and helpful with my requests about what is close by, which is to say 'where is there a close by gas station to get smokes?'  .....  The rest of the staff was also friendly and it is clear that they care about their guests and presenting the best possible stay.  The morning breakfast girl greets everyone with a warm Good Morning and big smile, the cleaning staff is similarly good with handing out extra coffee packets and of course making the room up everyday for my afternoon return.My room was nice, cozy and most important, clean and comfortable.  The carpet on the floor was clean, no worries about getting your bare feet dirty, the bathroom and shower was clean, fresh towels every day, and the air conditioner is a Space Shuttle model that blasts the room cold in no time, after which it was easy to fine tune to sleeping comfort, which brings us to The Bed.....I have stayed in the 5 star Sofitel in Brisbane and this mattress easily matches that one for comfort.  Sparkling clean sheets and blankets, fluffy pillows just as advertised;  I slept like a baby.  I have no problem returning to this hotel if I return to LA and have no hesitation in recommending it to anyone.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32735-d78315-r499528895-Quality_Inn_Suites_Montebello-Montebello_California.html</t>
+  </si>
+  <si>
+    <t>499528895</t>
+  </si>
+  <si>
+    <t>07/07/2017</t>
+  </si>
+  <si>
+    <t>Not the best quality</t>
+  </si>
+  <si>
+    <t>The floor was rather dirty.  There were dead bugs on the carpet.  Thank goodness I got there before my daughter flew in, and was able to pick them up with kleenex.  The air conditioner didn't work very well.  I had to call for someone to fix it, but by the time we got back from the airport...it wasn't cooling again.  The breakfast was pretty good, but overall...I wasn't too impressed with the quality of the hotel.  The walls were thin, and you could hear people up early in the morning.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32735-d78315-r491860610-Quality_Inn_Suites_Montebello-Montebello_California.html</t>
+  </si>
+  <si>
+    <t>491860610</t>
+  </si>
+  <si>
+    <t>06/09/2017</t>
+  </si>
+  <si>
+    <t>Adequate.</t>
+  </si>
+  <si>
+    <t>Has everything you need here except for an in-room safe. Finding a parking space at night can be an issue especially late. Request were honored since following advice from previous reviews. Breakfast is limited but can be good when fresh. Hash browns have an L.A. touch to them which I enjoyed. We encountered international tourist here which is also very L.A. Chains close by are a Starbucks, Denny's, and Jack in the Box.</t>
+  </si>
+  <si>
+    <t>May 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32735-d78315-r472777909-Quality_Inn_Suites_Montebello-Montebello_California.html</t>
+  </si>
+  <si>
+    <t>472777909</t>
+  </si>
+  <si>
+    <t>04/04/2017</t>
+  </si>
+  <si>
+    <t>Great spot</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lady at front desk was very helpful and has great customer service, great breakfast and room is very clean I would stay here again forsure. And also got a nice bar and pool thank you very much for the great customer service </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32735-d78315-r470680584-Quality_Inn_Suites_Montebello-Montebello_California.html</t>
+  </si>
+  <si>
+    <t>470680584</t>
+  </si>
+  <si>
+    <t>03/27/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Good place to stay </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Clean, comfortable, affordable place. Great breakfast to start your day. Close by is a buffet called Zen buffet 13-15$ with great variety of food for everyone to choose. I definitely recommend this hotel and will stay again when back to California. They have lots of parking and parking patrol and security checking on the cars. The only downside is the location, you will need to drive to shop or restaurants or attractions. </t>
+  </si>
+  <si>
+    <t>March 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32735-d78315-r465565833-Quality_Inn_Suites_Montebello-Montebello_California.html</t>
+  </si>
+  <si>
+    <t>465565833</t>
+  </si>
+  <si>
+    <t>03/08/2017</t>
+  </si>
+  <si>
+    <t>One stay in LA</t>
+  </si>
+  <si>
+    <t>First time staying at a Quality Inn &amp; Suites, and our experience was good. Breakfast was very tasteful, area was not so great. We were blocks away from Compton and the ghetto areas.I was afraid we were going to get robbed at some point. We just stayed for one night to go to a basketball game at the staples center. Traffic sucks but that's LA for you. To get to anywhere was one hour or more. Very nice hotel inside, and out. Rooms are very spacious. But our refrigerator smelt like marijuana? Affordable price with AAA.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32735-d78315-r453381970-Quality_Inn_Suites_Montebello-Montebello_California.html</t>
+  </si>
+  <si>
+    <t>453381970</t>
+  </si>
+  <si>
+    <t>01/19/2017</t>
+  </si>
+  <si>
+    <t>Terrible!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This property is bad. Room is okay but a lot of foreign people is bussed in daily and they r very rude. I work graveyard shift and they had remodeling going on above my room and to top it off I had to call front desk for a domestic physical abuse across from my room. </t>
+  </si>
+  <si>
+    <t>January 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32735-d78315-r442711349-Quality_Inn_Suites_Montebello-Montebello_California.html</t>
+  </si>
+  <si>
+    <t>442711349</t>
+  </si>
+  <si>
+    <t>12/07/2016</t>
+  </si>
+  <si>
+    <t>NICE ROOM AND VERY COZZY</t>
+  </si>
+  <si>
+    <t>My room was great it was very clean the rest room was big and nice the tv worked great and it had a nice cold refrigerator that worked well and a nice microwave the bed was nice and new with nice pillows the manager was very nice and this hotel had great breakfast in the morning I will come back and visit this hotel again it was really nice and cozzyMoreShow less</t>
+  </si>
+  <si>
+    <t>December 2016</t>
+  </si>
+  <si>
+    <t>Jeanette P, Front Office Manager at Quality Inn &amp; Suites Montebello, responded to this reviewResponded December 9, 2016</t>
+  </si>
+  <si>
+    <t>Responded December 9, 2016</t>
+  </si>
+  <si>
+    <t>My room was great it was very clean the rest room was big and nice the tv worked great and it had a nice cold refrigerator that worked well and a nice microwave the bed was nice and new with nice pillows the manager was very nice and this hotel had great breakfast in the morning I will come back and visit this hotel again it was really nice and cozzyMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32735-d78315-r434271286-Quality_Inn_Suites_Montebello-Montebello_California.html</t>
+  </si>
+  <si>
+    <t>434271286</t>
+  </si>
+  <si>
+    <t>11/03/2016</t>
+  </si>
+  <si>
+    <t>AAA+++ Hotel in Montebello</t>
+  </si>
+  <si>
+    <t>Would highly recommend staying here. Everything is well appointed and location is convenient to everything.  Front desk personnel are friendly and helpful and rooms are super comfortable.  Would stay again for sure.</t>
+  </si>
+  <si>
+    <t>November 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32735-d78315-r424770456-Quality_Inn_Suites_Montebello-Montebello_California.html</t>
+  </si>
+  <si>
+    <t>424770456</t>
+  </si>
+  <si>
+    <t>10/03/2016</t>
+  </si>
+  <si>
+    <t>Dissatisfied Customers</t>
+  </si>
+  <si>
+    <t>This motel was not an enjoyable experience at all. Very outdated, smelly, dirty carpets, dirty bed sheets. Room phone didn't work, blow dryer was broken &amp; had to get it replaced. The bath drain was very slow. The first and last time staying here!MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2016</t>
+  </si>
+  <si>
+    <t>Jeanette P, Front Office Manager at Quality Inn &amp; Suites Montebello, responded to this reviewResponded October 7, 2016</t>
+  </si>
+  <si>
+    <t>Responded October 7, 2016</t>
+  </si>
+  <si>
+    <t>This motel was not an enjoyable experience at all. Very outdated, smelly, dirty carpets, dirty bed sheets. Room phone didn't work, blow dryer was broken &amp; had to get it replaced. The bath drain was very slow. The first and last time staying here!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32735-d78315-r393981340-Quality_Inn_Suites_Montebello-Montebello_California.html</t>
+  </si>
+  <si>
+    <t>393981340</t>
+  </si>
+  <si>
+    <t>07/18/2016</t>
+  </si>
+  <si>
+    <t>Nice hotel and good breakfast</t>
+  </si>
+  <si>
+    <t>For us it was a good location, close to a major highway (I 5). Nice and clean hotel. Friendly staff. The staff at the front desk was helpfull. Nice breakfast. Very good bed. Quiet room. Interesting decoration.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>For us it was a good location, close to a major highway (I 5). Nice and clean hotel. Friendly staff. The staff at the front desk was helpfull. Nice breakfast. Very good bed. Quiet room. Interesting decoration.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32735-d78315-r372222879-Quality_Inn_Suites_Montebello-Montebello_California.html</t>
+  </si>
+  <si>
+    <t>372222879</t>
+  </si>
+  <si>
+    <t>05/11/2016</t>
+  </si>
+  <si>
+    <t>Decent hotel</t>
+  </si>
+  <si>
+    <t>Location was ok, near highway, starbucks, walmart etc. Hotel was pretty old looking. Rooms was also, looked like i came to visit grandma. Walls was awful (look pic). Internet connection was good and breakfast was ok. So decent place to stay few days!</t>
+  </si>
+  <si>
+    <t>May 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32735-d78315-r362126098-Quality_Inn_Suites_Montebello-Montebello_California.html</t>
+  </si>
+  <si>
+    <t>362126098</t>
+  </si>
+  <si>
+    <t>04/06/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A hidden gem in the heart of Montebello </t>
+  </si>
+  <si>
+    <t>I could go on about how comfortable the bed was or how good the breakfast was,  but the real reason to stay here is the staff. Christina and Juan were especially fantastic and very helpful with anything and everything.  Both were friendly,  kind and absolutely delightful. Housekeeping was exceptional- the room I stayed in had much more room than I ever needed and was well kept and made up.  I'm pretty sure all of them made it a point to say hello or good morning whenever I passed them in the hallway.  I was visiting LA for a wedding, and as exciting as that was,  all of the staff made coming back even more special. When I visit again in August,  I'm definitely staying here again. MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>I could go on about how comfortable the bed was or how good the breakfast was,  but the real reason to stay here is the staff. Christina and Juan were especially fantastic and very helpful with anything and everything.  Both were friendly,  kind and absolutely delightful. Housekeeping was exceptional- the room I stayed in had much more room than I ever needed and was well kept and made up.  I'm pretty sure all of them made it a point to say hello or good morning whenever I passed them in the hallway.  I was visiting LA for a wedding, and as exciting as that was,  all of the staff made coming back even more special. When I visit again in August,  I'm definitely staying here again. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32735-d78315-r360161820-Quality_Inn_Suites_Montebello-Montebello_California.html</t>
+  </si>
+  <si>
+    <t>360161820</t>
+  </si>
+  <si>
+    <t>03/30/2016</t>
+  </si>
+  <si>
+    <t>I will not be staying here again</t>
+  </si>
+  <si>
+    <t>Although the rooms were clean enough, the staff and the hotel itself left alot to be desired. It was loud, the staff I came in contact with were rude, our Door lock was missing. We were in the 2nd floor, there was a live band that was playing down in the bar until way after midnight. When we commented about it to the staff, we got a very snarky remark that it Saint Patrick's Day what did we expect. There were drunk people roaming the Halls trying to open the doors. All in all it was an extremely unpleasant experience.</t>
+  </si>
+  <si>
+    <t>March 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32735-d78315-r343680030-Quality_Inn_Suites_Montebello-Montebello_California.html</t>
+  </si>
+  <si>
+    <t>343680030</t>
+  </si>
+  <si>
+    <t>01/29/2016</t>
+  </si>
+  <si>
+    <t>Poor Customer Service!</t>
+  </si>
+  <si>
+    <t>I checked in to this piece of a hotel and they couldnt find my name in the system, and the front desk ask me what was my confirmation number and i didnt have a chance to write it because i was in the middle of traffic on the freeway and i was using my bluetooth headset.  By the way, the front desk starts to lecture me like she was my mom that she was telling me that im supposed to pull over and write the confirmation number down while im in the middle of LA ... Anyways i just needed the room not a frickin lecturing, poor service, you just loss a customer.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2016</t>
+  </si>
+  <si>
+    <t>I checked in to this piece of a hotel and they couldnt find my name in the system, and the front desk ask me what was my confirmation number and i didnt have a chance to write it because i was in the middle of traffic on the freeway and i was using my bluetooth headset.  By the way, the front desk starts to lecture me like she was my mom that she was telling me that im supposed to pull over and write the confirmation number down while im in the middle of LA ... Anyways i just needed the room not a frickin lecturing, poor service, you just loss a customer.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32735-d78315-r336257543-Quality_Inn_Suites_Montebello-Montebello_California.html</t>
+  </si>
+  <si>
+    <t>336257543</t>
+  </si>
+  <si>
+    <t>12/31/2015</t>
+  </si>
+  <si>
+    <t>Not worth it, will be willing to pay more if they will fix their problems</t>
+  </si>
+  <si>
+    <t>to start with the parking is problematic if you go out to the near attractions and come back late, there won't be any parking left, it should have enough for the type of business and the side of the hotel, also the key cards won't work from the first date, kept replaced them for the days we were there, also the property don't have accurate hot water for their guesses, come on, you're in the business to provided service, that's what customers are paying for, and finally the breakfast since a scene from a zombie movie, every body is desperate to eat, the place is not organize at all, 1 toaster for about 100 people, it's a joke, first impression makes the difference, will never stay here again, even if the pay me for it, oh forgot, person at front desk, very rude she should be in a different type of business, not customer service, and be very careful if you're allergic to mold, cause there is plenty around the rooms.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2015</t>
+  </si>
+  <si>
+    <t>to start with the parking is problematic if you go out to the near attractions and come back late, there won't be any parking left, it should have enough for the type of business and the side of the hotel, also the key cards won't work from the first date, kept replaced them for the days we were there, also the property don't have accurate hot water for their guesses, come on, you're in the business to provided service, that's what customers are paying for, and finally the breakfast since a scene from a zombie movie, every body is desperate to eat, the place is not organize at all, 1 toaster for about 100 people, it's a joke, first impression makes the difference, will never stay here again, even if the pay me for it, oh forgot, person at front desk, very rude she should be in a different type of business, not customer service, and be very careful if you're allergic to mold, cause there is plenty around the rooms.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32735-d78315-r333131848-Quality_Inn_Suites_Montebello-Montebello_California.html</t>
+  </si>
+  <si>
+    <t>333131848</t>
+  </si>
+  <si>
+    <t>12/15/2015</t>
+  </si>
+  <si>
+    <t>Not worth the Price</t>
+  </si>
+  <si>
+    <t>For the price I was charged for the rooms this place was very dirty, noisy, free Wi-Fi didn't even work to connect, plus room phone didn't even work.  I let the person at front desk know that our room phone needed to be fixed before we left to Disneyland and when we got back from the park the phone was still not working.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32735-d78315-r330567125-Quality_Inn_Suites_Montebello-Montebello_California.html</t>
+  </si>
+  <si>
+    <t>330567125</t>
+  </si>
+  <si>
+    <t>12/03/2015</t>
+  </si>
+  <si>
+    <t>Wanted yo give 3, but sticking on to 2</t>
+  </si>
+  <si>
+    <t>I stayed in this hotel for 3 days for my LA and Disney visit, since this place was equidistant from Disney and LA downtown.
+The rooms were clean and the toilet was in good condition (initially). 
+Why I am giving 2...
+First, I was given a WiFi password and it wasn't working. I went to the reception and checked. The answer I got was, it is same for the whole guests and it should work. I am an engineer and I knew that the password is the problem. I went twice and the response was same. Since I had a nasty drive from LV I went to bed. Next day morning I was desperate for internet and decided to call the 1-800 number in the welcome note after having one more check at frontdesk. A polite guy picked and confirmed that he is from techsupport and said he can see the req is rejected due to password. Live in the call he ringed front desk and the lady right away told that the password is not xxxxx7 and is xxxxx8. !!!!!!!!! No more quotes on their service. (This is the same person I went that morning)
+Breakfast was below average and it was fine.
+Next was the toilet. On 3rd day morning the toilet started overflowing. We only had few hours left to start back and we decided to give up. We managed somehow and got out of the hotel....I stayed in this hotel for 3 days for my LA and Disney visit, since this place was equidistant from Disney and LA downtown.The rooms were clean and the toilet was in good condition (initially). Why I am giving 2...First, I was given a WiFi password and it wasn't working. I went to the reception and checked. The answer I got was, it is same for the whole guests and it should work. I am an engineer and I knew that the password is the problem. I went twice and the response was same. Since I had a nasty drive from LV I went to bed. Next day morning I was desperate for internet and decided to call the 1-800 number in the welcome note after having one more check at frontdesk. A polite guy picked and confirmed that he is from techsupport and said he can see the req is rejected due to password. Live in the call he ringed front desk and the lady right away told that the password is not xxxxx7 and is xxxxx8. !!!!!!!!! No more quotes on their service. (This is the same person I went that morning)Breakfast was below average and it was fine.Next was the toilet. On 3rd day morning the toilet started overflowing. We only had few hours left to start back and we decided to give up. We managed somehow and got out of the hotel. The bill was close to 100$ per day and not sure if in montebello area for this cost the service is this way. Again on the 3rd day, WiFi password won't work. Enough said, I had a mixed experience. I will come back only if this is the only option near LA area at this cost. Otherwise, will look for another place to stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>I stayed in this hotel for 3 days for my LA and Disney visit, since this place was equidistant from Disney and LA downtown.
+The rooms were clean and the toilet was in good condition (initially). 
+Why I am giving 2...
+First, I was given a WiFi password and it wasn't working. I went to the reception and checked. The answer I got was, it is same for the whole guests and it should work. I am an engineer and I knew that the password is the problem. I went twice and the response was same. Since I had a nasty drive from LV I went to bed. Next day morning I was desperate for internet and decided to call the 1-800 number in the welcome note after having one more check at frontdesk. A polite guy picked and confirmed that he is from techsupport and said he can see the req is rejected due to password. Live in the call he ringed front desk and the lady right away told that the password is not xxxxx7 and is xxxxx8. !!!!!!!!! No more quotes on their service. (This is the same person I went that morning)
+Breakfast was below average and it was fine.
+Next was the toilet. On 3rd day morning the toilet started overflowing. We only had few hours left to start back and we decided to give up. We managed somehow and got out of the hotel....I stayed in this hotel for 3 days for my LA and Disney visit, since this place was equidistant from Disney and LA downtown.The rooms were clean and the toilet was in good condition (initially). Why I am giving 2...First, I was given a WiFi password and it wasn't working. I went to the reception and checked. The answer I got was, it is same for the whole guests and it should work. I am an engineer and I knew that the password is the problem. I went twice and the response was same. Since I had a nasty drive from LV I went to bed. Next day morning I was desperate for internet and decided to call the 1-800 number in the welcome note after having one more check at frontdesk. A polite guy picked and confirmed that he is from techsupport and said he can see the req is rejected due to password. Live in the call he ringed front desk and the lady right away told that the password is not xxxxx7 and is xxxxx8. !!!!!!!!! No more quotes on their service. (This is the same person I went that morning)Breakfast was below average and it was fine.Next was the toilet. On 3rd day morning the toilet started overflowing. We only had few hours left to start back and we decided to give up. We managed somehow and got out of the hotel. The bill was close to 100$ per day and not sure if in montebello area for this cost the service is this way. Again on the 3rd day, WiFi password won't work. Enough said, I had a mixed experience. I will come back only if this is the only option near LA area at this cost. Otherwise, will look for another place to stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32735-d78315-r319418076-Quality_Inn_Suites_Montebello-Montebello_California.html</t>
+  </si>
+  <si>
+    <t>319418076</t>
+  </si>
+  <si>
+    <t>10/16/2015</t>
+  </si>
+  <si>
+    <t>Great stay, will stay again!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">My fiancé and I loved our visit. Our check-in was smooth, the room was spacious, and the staff were nothing but helpful and pleasant. The hot continental breakfast was such a nice perk for me, I don't remember the last place I stayed that offered me any sort of breakfast! The pool area was very cool to hang out in, and so relaxing. Overall, no complaints and many compliments! Thanks everyone! </t>
+  </si>
+  <si>
+    <t>October 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32735-d78315-r311339182-Quality_Inn_Suites_Montebello-Montebello_California.html</t>
+  </si>
+  <si>
+    <t>311339182</t>
+  </si>
+  <si>
+    <t>09/17/2015</t>
+  </si>
+  <si>
+    <t>Great hotel</t>
+  </si>
+  <si>
+    <t>Been staying at this hotel for many nights. Front desk is friendly and helpful, most of the housekeepers are great, bartenders are super friendly. The rooms are big. Love the fridge and microwave. A plus. All the extras in the room are handy. Just wish all the rooms had that comfortable chair and foot stool that room 512 has. So relaxing. Pool is a great size. Business center has been so helpful to us. Want to thank Nadia Wu for all her help. She is a great asset to the company. Always has a smile and very helpful. Would recommend this hotel to everyone. And i plan on going back very soon. Thank you everyone there at the Quality Inn in Montebello for making our stay enjoyable.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2015</t>
+  </si>
+  <si>
+    <t>Been staying at this hotel for many nights. Front desk is friendly and helpful, most of the housekeepers are great, bartenders are super friendly. The rooms are big. Love the fridge and microwave. A plus. All the extras in the room are handy. Just wish all the rooms had that comfortable chair and foot stool that room 512 has. So relaxing. Pool is a great size. Business center has been so helpful to us. Want to thank Nadia Wu for all her help. She is a great asset to the company. Always has a smile and very helpful. Would recommend this hotel to everyone. And i plan on going back very soon. Thank you everyone there at the Quality Inn in Montebello for making our stay enjoyable.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32735-d78315-r310021340-Quality_Inn_Suites_Montebello-Montebello_California.html</t>
+  </si>
+  <si>
+    <t>310021340</t>
+  </si>
+  <si>
+    <t>09/13/2015</t>
+  </si>
+  <si>
+    <t>Pleased</t>
+  </si>
+  <si>
+    <t>Room was clean and comfortable. Staff was a bit curt but not unfriendly. Breakfast was actually pretty good. There is a bar and restaurant in the lobby which was pretty good. Decor could use some updating. It has a bit of an older feel to it but I would definitely stay here again.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32735-d78315-r293509475-Quality_Inn_Suites_Montebello-Montebello_California.html</t>
+  </si>
+  <si>
+    <t>293509475</t>
+  </si>
+  <si>
+    <t>07/28/2015</t>
+  </si>
+  <si>
+    <t>"This place sucks"</t>
+  </si>
+  <si>
+    <t>Not impressed at all, I would expect more from a hotel from this company. The only thing great is that we got a room at the last minute. I don't recommend at all. I wouldn't come back for dirty walls and nasty curtains. If you're looking for a place to hit the hay for the night it's your decision. Not worth the trip or money.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2015</t>
+  </si>
+  <si>
+    <t>Quality_Montebello, Manager at Quality Inn &amp; Suites Montebello, responded to this reviewResponded August 12, 2015</t>
+  </si>
+  <si>
+    <t>Responded August 12, 2015</t>
+  </si>
+  <si>
+    <t>Not impressed at all, I would expect more from a hotel from this company. The only thing great is that we got a room at the last minute. I don't recommend at all. I wouldn't come back for dirty walls and nasty curtains. If you're looking for a place to hit the hay for the night it's your decision. Not worth the trip or money.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32735-d78315-r259686101-Quality_Inn_Suites_Montebello-Montebello_California.html</t>
+  </si>
+  <si>
+    <t>259686101</t>
+  </si>
+  <si>
+    <t>03/15/2015</t>
+  </si>
+  <si>
+    <t>OK Place</t>
+  </si>
+  <si>
+    <t>My wife and I were here in March 2015 to visit relatives and to see a bit of LA. This property sits just off a major freeway. It seemed to be a bit old, but it it was clean and fairly well maintained. It was quiet, surprising as it was right on the freeway. They had a decent breakfast buffet (free). There were a few problems such as the phone not working and the computer in the business center being down, but who uses hotel phones in the age of cell phones and who does not travel without their own computer. My computer didn't work nearly as well as at home, so there may be some issues with their system. When I come back to this area, I'll probably stay somewhere nearer the center of Montebello, as this property seemed to be in an industrial area.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2015</t>
+  </si>
+  <si>
+    <t>My wife and I were here in March 2015 to visit relatives and to see a bit of LA. This property sits just off a major freeway. It seemed to be a bit old, but it it was clean and fairly well maintained. It was quiet, surprising as it was right on the freeway. They had a decent breakfast buffet (free). There were a few problems such as the phone not working and the computer in the business center being down, but who uses hotel phones in the age of cell phones and who does not travel without their own computer. My computer didn't work nearly as well as at home, so there may be some issues with their system. When I come back to this area, I'll probably stay somewhere nearer the center of Montebello, as this property seemed to be in an industrial area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32735-d78315-r252680063-Quality_Inn_Suites_Montebello-Montebello_California.html</t>
+  </si>
+  <si>
+    <t>252680063</t>
+  </si>
+  <si>
+    <t>02/04/2015</t>
+  </si>
+  <si>
+    <t>IT WORKED FOR WHAT WE PAYED FOR</t>
+  </si>
+  <si>
+    <t>I booked a room at this hotel for my 21st birthday. We only needed a room to sleep and get ready because the rest of the day we were out and about....we checked in 11/14 at about 3am...the young man at the counter was very generous and pleasent..we did ask for a room on the first floor and we were able to be put in that....we only paid $55 for two nights...it was a descent hotel not as nice as the pictures seem....the only negativity I have is the day of check out we had our do not disturb sign on the door and we had someone knocking at 8:30 am at 9:15 and at 10am not a big deal but they should really be considerate of their guest. I knew when check out was...but other then that it was a descent stay...MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2014</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>I booked a room at this hotel for my 21st birthday. We only needed a room to sleep and get ready because the rest of the day we were out and about....we checked in 11/14 at about 3am...the young man at the counter was very generous and pleasent..we did ask for a room on the first floor and we were able to be put in that....we only paid $55 for two nights...it was a descent hotel not as nice as the pictures seem....the only negativity I have is the day of check out we had our do not disturb sign on the door and we had someone knocking at 8:30 am at 9:15 and at 10am not a big deal but they should really be considerate of their guest. I knew when check out was...but other then that it was a descent stay...More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32735-d78315-r233263302-Quality_Inn_Suites_Montebello-Montebello_California.html</t>
+  </si>
+  <si>
+    <t>233263302</t>
+  </si>
+  <si>
+    <t>10/08/2014</t>
+  </si>
+  <si>
+    <t>I won't be back.</t>
+  </si>
+  <si>
+    <t>I stayed here for a night with an external tour company. First off, the check-in process was lengthy and there was only one person doing it. So as soon as some of us walked in, we were stuck there for at least 15-20 minutes. The room was outdated and the bathroom was small but sufficient. Although the beds were comfy, the entire room was shabby looking and you could hear the karaoke night going on downstairs very clearly until about 1am in the morning. For a person who was on a tour and had to wake up early the next day, it was not ideal. Breakfast that was provided was limited. As for location, I didn't walk out of the hotel, so I have no idea what that would've been like.If I had to choose whether or not to stay at this place again, I wouldn't.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2014</t>
+  </si>
+  <si>
+    <t>I stayed here for a night with an external tour company. First off, the check-in process was lengthy and there was only one person doing it. So as soon as some of us walked in, we were stuck there for at least 15-20 minutes. The room was outdated and the bathroom was small but sufficient. Although the beds were comfy, the entire room was shabby looking and you could hear the karaoke night going on downstairs very clearly until about 1am in the morning. For a person who was on a tour and had to wake up early the next day, it was not ideal. Breakfast that was provided was limited. As for location, I didn't walk out of the hotel, so I have no idea what that would've been like.If I had to choose whether or not to stay at this place again, I wouldn't.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32735-d78315-r228726782-Quality_Inn_Suites_Montebello-Montebello_California.html</t>
+  </si>
+  <si>
+    <t>228726782</t>
+  </si>
+  <si>
+    <t>09/13/2014</t>
+  </si>
+  <si>
+    <t>Quality? Not so much!</t>
+  </si>
+  <si>
+    <t>I paid $114 a night for a nonsmoking room. I didn't expect much, but this room smells horrible!! There are 3 ashtrays in the room, so it is definitely a smoking room. We called down to the front desk to tell them that we wanted to switch to a nonsmoking room as originally requested but were told that the hotel was fully booked for the night and we could change tomorrow. Also, there was dust on the lamp and an unused hand towel with black marks already on it and the carpet was wet under the a/c unit. The only good things I can tell so far is it is close to the freeway, the front desk person was friendly, and we got free breakfast coupons for the morning (I guess we will see if it's any good). So far, it's a nightmare. Don't do it!!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>I paid $114 a night for a nonsmoking room. I didn't expect much, but this room smells horrible!! There are 3 ashtrays in the room, so it is definitely a smoking room. We called down to the front desk to tell them that we wanted to switch to a nonsmoking room as originally requested but were told that the hotel was fully booked for the night and we could change tomorrow. Also, there was dust on the lamp and an unused hand towel with black marks already on it and the carpet was wet under the a/c unit. The only good things I can tell so far is it is close to the freeway, the front desk person was friendly, and we got free breakfast coupons for the morning (I guess we will see if it's any good). So far, it's a nightmare. Don't do it!!!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32735-d78315-r227960400-Quality_Inn_Suites_Montebello-Montebello_California.html</t>
+  </si>
+  <si>
+    <t>227960400</t>
+  </si>
+  <si>
+    <t>09/09/2014</t>
+  </si>
+  <si>
+    <t>Ample Parking Space!!!</t>
+  </si>
+  <si>
+    <t>This hotel was clean and have ample parking spaces.  They were having Karaoke when we arrived at 1am.  The room also included breakfast and was staffed with friendly people.  The bathroom was clean and well kept.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32735-d78315-r216314044-Quality_Inn_Suites_Montebello-Montebello_California.html</t>
+  </si>
+  <si>
+    <t>216314044</t>
+  </si>
+  <si>
+    <t>07/19/2014</t>
+  </si>
+  <si>
+    <t>Some good, outweighed by bad</t>
+  </si>
+  <si>
+    <t>Property is situated along I-5 In industrial area SE of Los Angeles. Inexpensive. Interior corridors, elevators, public areas somewhat dilapidated. Close to downtown LA (20 min if no traffic, 40 min in typical traffic). Near Commerce Casino poker room, TEAC/TASCAM. Not much other civilization in immediate vicinity (24H Norm's restaurant 2.5 mi away in Downey). Nonsmoking floor/rooms available. Comfortable bedding, awesome shower pressure. Microwave, mini-fridge, coffeemaker, iron/ironing board, desk. Excellent pool (9 feet deep) 8A-10P.. Guest laundry 24H. Eventually you'll find a working ice machine. Good free breakfast buffet w/ bacon, eggs, French toast, hash browns, OJ, milk, coffee, toast, cupcakes 7A-9A. Restaurant, limited menu and hours (lunch and dinner). HDTV, basic cable, most local TV stations, plus Showtime. Meeting rooms. Free parking. Staff fluent in Chinese. "Free internet" would not load web pages in under 20 minutes, would not run standard speed test so I give it 0kb up/0kb down. You won't get any work done. Lobby computer terminal with inkjet printer, untried. Karaoke bar with pool table, CAUTION, don't stay here on weekend nights as entire building reverberates with party noise until 1 AM (you won't get any sleep either). But for the internet and weekend noise issues I would rate this property two circles higher.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2014</t>
+  </si>
+  <si>
+    <t>Property is situated along I-5 In industrial area SE of Los Angeles. Inexpensive. Interior corridors, elevators, public areas somewhat dilapidated. Close to downtown LA (20 min if no traffic, 40 min in typical traffic). Near Commerce Casino poker room, TEAC/TASCAM. Not much other civilization in immediate vicinity (24H Norm's restaurant 2.5 mi away in Downey). Nonsmoking floor/rooms available. Comfortable bedding, awesome shower pressure. Microwave, mini-fridge, coffeemaker, iron/ironing board, desk. Excellent pool (9 feet deep) 8A-10P.. Guest laundry 24H. Eventually you'll find a working ice machine. Good free breakfast buffet w/ bacon, eggs, French toast, hash browns, OJ, milk, coffee, toast, cupcakes 7A-9A. Restaurant, limited menu and hours (lunch and dinner). HDTV, basic cable, most local TV stations, plus Showtime. Meeting rooms. Free parking. Staff fluent in Chinese. "Free internet" would not load web pages in under 20 minutes, would not run standard speed test so I give it 0kb up/0kb down. You won't get any work done. Lobby computer terminal with inkjet printer, untried. Karaoke bar with pool table, CAUTION, don't stay here on weekend nights as entire building reverberates with party noise until 1 AM (you won't get any sleep either). But for the internet and weekend noise issues I would rate this property two circles higher.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32735-d78315-r211915015-Quality_Inn_Suites_Montebello-Montebello_California.html</t>
+  </si>
+  <si>
+    <t>211915015</t>
+  </si>
+  <si>
+    <t>06/24/2014</t>
+  </si>
+  <si>
+    <t>Good hotel for the price.</t>
+  </si>
+  <si>
+    <t>I was pleasantly surprised.  I was not expecting anything special from reviews.  Upon arrival and asking to see a room first before booking.  It was very nice. Granted carpet can be updated.  Rooms where nice, with flat screen T.V. and fridge, microwave,  coffee pot. Bed was very comfortable.  We had 2 queen beds (more like double s) and added a roll a way for $10. We had 3 adults and 1 child.  A/C worked great.  Outlet in restroom did not work. But, the room was clean and comfortable. The front desk was very friendly.  It was very busy, we wanted 3 nights and only had availability for 1. A bus of tourists had arrived and a wedding party was coming in the next day. We got a room on the 3rd floor, as I had read the bar and conference room can get loud.  I did not hear bar but could hear the freeway.  Ask for room facing pool or the back. Pool was nice but not heated.  Bar had happy hour and was nice and open. Continental breakfast was good and lots of seating. WiFi worked good. As mentioned before,  carpet needs updating.  But, I will definitely stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2014</t>
+  </si>
+  <si>
+    <t>I was pleasantly surprised.  I was not expecting anything special from reviews.  Upon arrival and asking to see a room first before booking.  It was very nice. Granted carpet can be updated.  Rooms where nice, with flat screen T.V. and fridge, microwave,  coffee pot. Bed was very comfortable.  We had 2 queen beds (more like double s) and added a roll a way for $10. We had 3 adults and 1 child.  A/C worked great.  Outlet in restroom did not work. But, the room was clean and comfortable. The front desk was very friendly.  It was very busy, we wanted 3 nights and only had availability for 1. A bus of tourists had arrived and a wedding party was coming in the next day. We got a room on the 3rd floor, as I had read the bar and conference room can get loud.  I did not hear bar but could hear the freeway.  Ask for room facing pool or the back. Pool was nice but not heated.  Bar had happy hour and was nice and open. Continental breakfast was good and lots of seating. WiFi worked good. As mentioned before,  carpet needs updating.  But, I will definitely stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32735-d78315-r207665836-Quality_Inn_Suites_Montebello-Montebello_California.html</t>
+  </si>
+  <si>
+    <t>207665836</t>
+  </si>
+  <si>
+    <t>05/28/2014</t>
+  </si>
+  <si>
+    <t>Not My Idea of an Inexpensive Hotel</t>
+  </si>
+  <si>
+    <t>I would not recommend this hotel to anyone!  It was booked for me by someone else when I was on business in the area for several days.  It is not well kept or maintained.  The check-in procedure was tedious and when I went to my room, it was obviously a room where people had smoked. In fact, the whole floor smelled like smoke as I exited the elevator.  II returned to the desk and told them I needed a non-smoking room.  I was told that was what had been booked for me.  However, they did find me a non-smoking room.  It was on a different floor where no smoking is allowed.  It was dark and did not feel clean.  Parking was a challenge each night as I returned to the hotel, as they small dining room/bar was turned into an entertainment mecca for locals and they took all the parking spaces until the wee hours of the morning.  Breakfast was modest, but tasty.  Not too many choices, but adequate.  I would give this hotel 2 stars at the most.  They do not cater to the business customer, preferring to make sure they accommodate the customer that comes for the entertainment and drinks at night!MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2014</t>
+  </si>
+  <si>
+    <t>I would not recommend this hotel to anyone!  It was booked for me by someone else when I was on business in the area for several days.  It is not well kept or maintained.  The check-in procedure was tedious and when I went to my room, it was obviously a room where people had smoked. In fact, the whole floor smelled like smoke as I exited the elevator.  II returned to the desk and told them I needed a non-smoking room.  I was told that was what had been booked for me.  However, they did find me a non-smoking room.  It was on a different floor where no smoking is allowed.  It was dark and did not feel clean.  Parking was a challenge each night as I returned to the hotel, as they small dining room/bar was turned into an entertainment mecca for locals and they took all the parking spaces until the wee hours of the morning.  Breakfast was modest, but tasty.  Not too many choices, but adequate.  I would give this hotel 2 stars at the most.  They do not cater to the business customer, preferring to make sure they accommodate the customer that comes for the entertainment and drinks at night!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32735-d78315-r184648271-Quality_Inn_Suites_Montebello-Montebello_California.html</t>
+  </si>
+  <si>
+    <t>184648271</t>
+  </si>
+  <si>
+    <t>11/13/2013</t>
+  </si>
+  <si>
+    <t>Unprofessional, inconsiderate &amp; loud</t>
+  </si>
+  <si>
+    <t>We arrived tired staff was complacent, went up to room it was overlooking roof and on top of bar.  We asked to stay on opposite side away from potential noise of bar. They put on other side of hallway, the receptionist had no clue of where rooms were attached to what numbers, asked her to get map of floors and rooms, they did not have. Was loud at night wife could not sleep till past two.Had a fitness room used first night, other 4 nights it was blocked off with caution tape and no employee had a clue as to why and when it could be used again. It was closed rest of our five day stay.  Our shower did not work first morning they did fix next day. Maid service was good and clean. Overall very poor experience, our worst stay in hotel ever.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2013</t>
+  </si>
+  <si>
+    <t>Quality_Montebello, Manager at Quality Inn &amp; Suites Montebello, responded to this reviewResponded November 18, 2013</t>
+  </si>
+  <si>
+    <t>Responded November 18, 2013</t>
+  </si>
+  <si>
+    <t>We arrived tired staff was complacent, went up to room it was overlooking roof and on top of bar.  We asked to stay on opposite side away from potential noise of bar. They put on other side of hallway, the receptionist had no clue of where rooms were attached to what numbers, asked her to get map of floors and rooms, they did not have. Was loud at night wife could not sleep till past two.Had a fitness room used first night, other 4 nights it was blocked off with caution tape and no employee had a clue as to why and when it could be used again. It was closed rest of our five day stay.  Our shower did not work first morning they did fix next day. Maid service was good and clean. Overall very poor experience, our worst stay in hotel ever.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32735-d78315-r181443254-Quality_Inn_Suites_Montebello-Montebello_California.html</t>
+  </si>
+  <si>
+    <t>181443254</t>
+  </si>
+  <si>
+    <t>10/18/2013</t>
+  </si>
+  <si>
+    <t>Clean. Mostly helpful staff.</t>
+  </si>
+  <si>
+    <t>Was a clean spacious place to stay. A bit out of the way and a long drive to get anywhere. The hotel offers a shuttle to a nearby walmart which was helpful when jet lagged. Overall friendly staff. Only issues were ; hot water didn't work on last day there. And when I rang reception for assistance when my nearly 2 year old locked himself in the bathroom they did not assist at all. She said that maintenance wouldn't be available to unlock the door for at least 30minutes. Panicked, I asked for just anyone to come up and help. Of which they did not. I ended up emptying out my luggage and using bits and pieces to flick the lock. And my son was fine, happily playing with toiletries. Another issue was that reception also do not pass on messages. But otherwise, the rest of the staff were fantastic and extremely helpful. MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2013</t>
+  </si>
+  <si>
+    <t>Quality_Montebello, Manager at Quality Inn &amp; Suites Montebello, responded to this reviewResponded November 1, 2013</t>
+  </si>
+  <si>
+    <t>Responded November 1, 2013</t>
+  </si>
+  <si>
+    <t>Was a clean spacious place to stay. A bit out of the way and a long drive to get anywhere. The hotel offers a shuttle to a nearby walmart which was helpful when jet lagged. Overall friendly staff. Only issues were ; hot water didn't work on last day there. And when I rang reception for assistance when my nearly 2 year old locked himself in the bathroom they did not assist at all. She said that maintenance wouldn't be available to unlock the door for at least 30minutes. Panicked, I asked for just anyone to come up and help. Of which they did not. I ended up emptying out my luggage and using bits and pieces to flick the lock. And my son was fine, happily playing with toiletries. Another issue was that reception also do not pass on messages. But otherwise, the rest of the staff were fantastic and extremely helpful. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32735-d78315-r180035476-Quality_Inn_Suites_Montebello-Montebello_California.html</t>
+  </si>
+  <si>
+    <t>180035476</t>
+  </si>
+  <si>
+    <t>10/07/2013</t>
+  </si>
+  <si>
+    <t>Don't stay here !!!!</t>
+  </si>
+  <si>
+    <t>When we first drove in the buildings exterior seemed fine . When I walked in the building it was another story . The man that checked us in at 6 pm greated us professionally . I heard loud music blaring and I asked what that was and he told me it was a party ( he either said hispanic or latino ) sponsored party from a local radio station . The noise and people were very disturbing . When we went to our room the people from the party were hanging around the elevator and we all felt very unsafe , there foul language and body language were less than desirable . We were booked for 2 nights but chose the leave at 7 am the next am . We put in one hell of a loud restless night . 
+Our room overlooked the pool where the party was and the pool at first didn't look like it had any water in it , it did have water but it was very dirty it gave the appearance of being dirty . The people at the party were dancing practically having sex with their clothes on . Later that night when we got back from dinner we decided to have a drink at the bar since there was only about a dz ppl in there we thought it would be ok . When we were sitting at a table a drunk...When we first drove in the buildings exterior seemed fine . When I walked in the building it was another story . The man that checked us in at 6 pm greated us professionally . I heard loud music blaring and I asked what that was and he told me it was a party ( he either said hispanic or latino ) sponsored party from a local radio station . The noise and people were very disturbing . When we went to our room the people from the party were hanging around the elevator and we all felt very unsafe , there foul language and body language were less than desirable . We were booked for 2 nights but chose the leave at 7 am the next am . We put in one hell of a loud restless night . Our room overlooked the pool where the party was and the pool at first didn't look like it had any water in it , it did have water but it was very dirty it gave the appearance of being dirty . The people at the party were dancing practically having sex with their clothes on . Later that night when we got back from dinner we decided to have a drink at the bar since there was only about a dz ppl in there we thought it would be ok . When we were sitting at a table a drunk woman came to our table and said "if you are looking for Americans you are in the wrong place" ... The rooms were very dated , carpet looked like a murder has been committed on it and the sofa bed was so discusting I didn't even want to put my suitcase on it . I must give credit where credit is due the bathroom even though very small was clean and had been recently updated .MoreShow less</t>
+  </si>
+  <si>
+    <t>Quality_Montebello, Manager at Quality Inn &amp; Suites Montebello, responded to this reviewResponded October 9, 2013</t>
+  </si>
+  <si>
+    <t>Responded October 9, 2013</t>
+  </si>
+  <si>
+    <t>When we first drove in the buildings exterior seemed fine . When I walked in the building it was another story . The man that checked us in at 6 pm greated us professionally . I heard loud music blaring and I asked what that was and he told me it was a party ( he either said hispanic or latino ) sponsored party from a local radio station . The noise and people were very disturbing . When we went to our room the people from the party were hanging around the elevator and we all felt very unsafe , there foul language and body language were less than desirable . We were booked for 2 nights but chose the leave at 7 am the next am . We put in one hell of a loud restless night . 
+Our room overlooked the pool where the party was and the pool at first didn't look like it had any water in it , it did have water but it was very dirty it gave the appearance of being dirty . The people at the party were dancing practically having sex with their clothes on . Later that night when we got back from dinner we decided to have a drink at the bar since there was only about a dz ppl in there we thought it would be ok . When we were sitting at a table a drunk...When we first drove in the buildings exterior seemed fine . When I walked in the building it was another story . The man that checked us in at 6 pm greated us professionally . I heard loud music blaring and I asked what that was and he told me it was a party ( he either said hispanic or latino ) sponsored party from a local radio station . The noise and people were very disturbing . When we went to our room the people from the party were hanging around the elevator and we all felt very unsafe , there foul language and body language were less than desirable . We were booked for 2 nights but chose the leave at 7 am the next am . We put in one hell of a loud restless night . Our room overlooked the pool where the party was and the pool at first didn't look like it had any water in it , it did have water but it was very dirty it gave the appearance of being dirty . The people at the party were dancing practically having sex with their clothes on . Later that night when we got back from dinner we decided to have a drink at the bar since there was only about a dz ppl in there we thought it would be ok . When we were sitting at a table a drunk woman came to our table and said "if you are looking for Americans you are in the wrong place" ... The rooms were very dated , carpet looked like a murder has been committed on it and the sofa bed was so discusting I didn't even want to put my suitcase on it . I must give credit where credit is due the bathroom even though very small was clean and had been recently updated .More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32735-d78315-r173952499-Quality_Inn_Suites_Montebello-Montebello_California.html</t>
+  </si>
+  <si>
+    <t>173952499</t>
+  </si>
+  <si>
+    <t>08/25/2013</t>
+  </si>
+  <si>
+    <t>Convenient location with large vehicle/ truck parking!</t>
+  </si>
+  <si>
+    <t>Situated just off I-5 south Slauson Ave. Exit this hotel location is very convenient with Starbucks across the street ( for strong coffee lovers such as myself ), Denny's for breakfast lovers within walking distance and only 2mi. From my delivery point. Nice clean roons, powerhouse shower ( a must for me ), hot Breakfast though I'd rather eat at Denny's and get the good exercise. Value, paid $79.99 for a Saturday stay over.  Not bad for L.A. standards.  Sum up.  Great locations,  clean comfortable beds and room, powerhouse shower and Micro- fridge equipped.  Would recommend to anyone.  JBGMoreShow less</t>
+  </si>
+  <si>
+    <t>Quality_Montebello, Manager at Quality Inn &amp; Suites Montebello, responded to this reviewResponded August 28, 2013</t>
+  </si>
+  <si>
+    <t>Responded August 28, 2013</t>
+  </si>
+  <si>
+    <t>Situated just off I-5 south Slauson Ave. Exit this hotel location is very convenient with Starbucks across the street ( for strong coffee lovers such as myself ), Denny's for breakfast lovers within walking distance and only 2mi. From my delivery point. Nice clean roons, powerhouse shower ( a must for me ), hot Breakfast though I'd rather eat at Denny's and get the good exercise. Value, paid $79.99 for a Saturday stay over.  Not bad for L.A. standards.  Sum up.  Great locations,  clean comfortable beds and room, powerhouse shower and Micro- fridge equipped.  Would recommend to anyone.  JBGMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32735-d78315-r171927377-Quality_Inn_Suites_Montebello-Montebello_California.html</t>
+  </si>
+  <si>
+    <t>171927377</t>
+  </si>
+  <si>
+    <t>08/12/2013</t>
+  </si>
+  <si>
+    <t>Never Again!</t>
+  </si>
+  <si>
+    <t>I had to move from my room since there was NO power at 1:42am.  The other room I was moved into had no power in the bathroom, so we had to bathe in the dark!  The next day I couldn't get into my room as they keys did not work and I was told that I am not assigned to any room!  I had to argue and explain over and over again what happened before I got helped.  So my personal belongings were in the room and it was not assigned - thankfully all our things were still there!  The power finally came on, after a simple circuit breaker switch - which took them a day and a half to figure out.  The maid either never cleaned my room, or didn't give us clean towels on a daily basis and we were there for 10 days!  The maid had the nerve to throw out my personal soap, medicated body wash, face wash and shower cap.  I asked for a clean comforter since I accidentally spilled my drink and was told there were none at the moment.  So that means either they never clean the sheets or comforters and keep the same ones on (which I believe) or they are not cleaning them as often as they should - disgusting!  The refrigerator in my room had a nasty smell and after looking under the fridge I found chicken bones and old...I had to move from my room since there was NO power at 1:42am.  The other room I was moved into had no power in the bathroom, so we had to bathe in the dark!  The next day I couldn't get into my room as they keys did not work and I was told that I am not assigned to any room!  I had to argue and explain over and over again what happened before I got helped.  So my personal belongings were in the room and it was not assigned - thankfully all our things were still there!  The power finally came on, after a simple circuit breaker switch - which took them a day and a half to figure out.  The maid either never cleaned my room, or didn't give us clean towels on a daily basis and we were there for 10 days!  The maid had the nerve to throw out my personal soap, medicated body wash, face wash and shower cap.  I asked for a clean comforter since I accidentally spilled my drink and was told there were none at the moment.  So that means either they never clean the sheets or comforters and keep the same ones on (which I believe) or they are not cleaning them as often as they should - disgusting!  The refrigerator in my room had a nasty smell and after looking under the fridge I found chicken bones and old wings!  Every day I had an issue and it was so horrible and I wish I could have left BUT I was on vacation and it was fully paid for so I was stuck!  Internet sucked, breakfast was free but cold and drinks watered down.  No safe in the room so I felt weird to leave my personal belongings there.  Customer service was just SOOOO bad, and not helpful at all. Then there was a pool party and hotel guests were invited but it looked more like a gang banger get together than an actual pool party.  Everyday there was something going on and it was never good as much as I tried to stay positive, but it didn't work.  NEVER AGAIN!MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2013</t>
+  </si>
+  <si>
+    <t>Quality_Montebello, Manager at Quality Inn &amp; Suites Montebello, responded to this reviewResponded August 21, 2013</t>
+  </si>
+  <si>
+    <t>Responded August 21, 2013</t>
+  </si>
+  <si>
+    <t>I had to move from my room since there was NO power at 1:42am.  The other room I was moved into had no power in the bathroom, so we had to bathe in the dark!  The next day I couldn't get into my room as they keys did not work and I was told that I am not assigned to any room!  I had to argue and explain over and over again what happened before I got helped.  So my personal belongings were in the room and it was not assigned - thankfully all our things were still there!  The power finally came on, after a simple circuit breaker switch - which took them a day and a half to figure out.  The maid either never cleaned my room, or didn't give us clean towels on a daily basis and we were there for 10 days!  The maid had the nerve to throw out my personal soap, medicated body wash, face wash and shower cap.  I asked for a clean comforter since I accidentally spilled my drink and was told there were none at the moment.  So that means either they never clean the sheets or comforters and keep the same ones on (which I believe) or they are not cleaning them as often as they should - disgusting!  The refrigerator in my room had a nasty smell and after looking under the fridge I found chicken bones and old...I had to move from my room since there was NO power at 1:42am.  The other room I was moved into had no power in the bathroom, so we had to bathe in the dark!  The next day I couldn't get into my room as they keys did not work and I was told that I am not assigned to any room!  I had to argue and explain over and over again what happened before I got helped.  So my personal belongings were in the room and it was not assigned - thankfully all our things were still there!  The power finally came on, after a simple circuit breaker switch - which took them a day and a half to figure out.  The maid either never cleaned my room, or didn't give us clean towels on a daily basis and we were there for 10 days!  The maid had the nerve to throw out my personal soap, medicated body wash, face wash and shower cap.  I asked for a clean comforter since I accidentally spilled my drink and was told there were none at the moment.  So that means either they never clean the sheets or comforters and keep the same ones on (which I believe) or they are not cleaning them as often as they should - disgusting!  The refrigerator in my room had a nasty smell and after looking under the fridge I found chicken bones and old wings!  Every day I had an issue and it was so horrible and I wish I could have left BUT I was on vacation and it was fully paid for so I was stuck!  Internet sucked, breakfast was free but cold and drinks watered down.  No safe in the room so I felt weird to leave my personal belongings there.  Customer service was just SOOOO bad, and not helpful at all. Then there was a pool party and hotel guests were invited but it looked more like a gang banger get together than an actual pool party.  Everyday there was something going on and it was never good as much as I tried to stay positive, but it didn't work.  NEVER AGAIN!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32735-d78315-r171785737-Quality_Inn_Suites_Montebello-Montebello_California.html</t>
+  </si>
+  <si>
+    <t>171785737</t>
+  </si>
+  <si>
+    <t>08/11/2013</t>
+  </si>
+  <si>
+    <t>Was very easy and delighful</t>
+  </si>
+  <si>
+    <t>We go to Los Angeles every 4 months, we usually stay in Bell Gardens at the comfort suites but they were booked for this stay so we stayed at this one. It was not an easy stay at first due to the fact that their boilers went out so there was no hot water for our first two days. The staff was exceptional during this, they were as accommodating as could be in this situation, offered very good discounts or cancellations without charge. They also made extras out of the kitchen for breakfasts such as triangle sandwiches. By the end of the second day everything was up and running and it was spectacular, so much so that we canceled our stay at another hotel and extended it here. Breakfast was more than expected with Bacon, sausage, frenchtoast and many many more selections. The frontdesk clerks were extremely friendly and so was their manager. I applaud the way they handled their little "crisis" and made sure the manager knew that one desk clerk in particular deserved an extra pat on the back. This has now become our LA Hotel, it is very convenient for us and we are going back on the 21st.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2013</t>
+  </si>
+  <si>
+    <t>We go to Los Angeles every 4 months, we usually stay in Bell Gardens at the comfort suites but they were booked for this stay so we stayed at this one. It was not an easy stay at first due to the fact that their boilers went out so there was no hot water for our first two days. The staff was exceptional during this, they were as accommodating as could be in this situation, offered very good discounts or cancellations without charge. They also made extras out of the kitchen for breakfasts such as triangle sandwiches. By the end of the second day everything was up and running and it was spectacular, so much so that we canceled our stay at another hotel and extended it here. Breakfast was more than expected with Bacon, sausage, frenchtoast and many many more selections. The frontdesk clerks were extremely friendly and so was their manager. I applaud the way they handled their little "crisis" and made sure the manager knew that one desk clerk in particular deserved an extra pat on the back. This has now become our LA Hotel, it is very convenient for us and we are going back on the 21st.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32735-d78315-r162678908-Quality_Inn_Suites_Montebello-Montebello_California.html</t>
+  </si>
+  <si>
+    <t>162678908</t>
+  </si>
+  <si>
+    <t>06/01/2013</t>
+  </si>
+  <si>
+    <t>Noisy with a dodgy location</t>
+  </si>
+  <si>
+    <t>I ended up at the Quality Inn as the accommodation formed part of a tour package.
+Location is poor, with the hotel situated in the down town part of Los Angeles, some 20 km from tourist attractions.
+Transportation by cab will cost you an arm and a leg should you want to get to a better part of town. I did not feel comfortable walking the streets of Montebello at night while looking for a dinner restaurant. There is a diner some 200m from the hotel which serves half decent food, but other than that, their is little else within walking distance.
+On arrival at the hotel, I was surprised to find a racous corporate function party taking place, the festivities of which had spilled into the lobby. The receptionist required that I shout to make myself heard. I requested to placed in a room as far away from the noise as possible which was done. The partido was over by 9pm as promised.
+Only one of the two elevators were functional, and I found it quicker to use the stairs for the two night stay.
+My room came with a fridge and microwave ( a nice touch I think ), tv, working ac and free wifi ( handy).
+The pillows are great; not those nasty ones which wrap themselves around your head and give you a headache.
+Decor is tired and dated. My bedspread had a tear in it...I ended up at the Quality Inn as the accommodation formed part of a tour package.Location is poor, with the hotel situated in the down town part of Los Angeles, some 20 km from tourist attractions.Transportation by cab will cost you an arm and a leg should you want to get to a better part of town. I did not feel comfortable walking the streets of Montebello at night while looking for a dinner restaurant. There is a diner some 200m from the hotel which serves half decent food, but other than that, their is little else within walking distance.On arrival at the hotel, I was surprised to find a racous corporate function party taking place, the festivities of which had spilled into the lobby. The receptionist required that I shout to make myself heard. I requested to placed in a room as far away from the noise as possible which was done. The partido was over by 9pm as promised.Only one of the two elevators were functional, and I found it quicker to use the stairs for the two night stay.My room came with a fridge and microwave ( a nice touch I think ), tv, working ac and free wifi ( handy).The pillows are great; not those nasty ones which wrap themselves around your head and give you a headache.Decor is tired and dated. My bedspread had a tear in it and the bedroom carpet had a wet and sticky patch on it.Barring these  two items, the general state of the room and bathroom was nice and clean.The bedroom lacked an electronic safe, which in my opinion is mandatory.Breakfasts are served with flimsy plastic knives and forks which makes eating a nightmare.To sum up, if you're a tourist or doing business in the city, give this one a miss. I don't know if I was just plain lucky, but because of the layout of the ground floor ( they tend to have disco's or karaoke most nights), I could easily see how noise may be a problem if you're trying to sleep.Would I visit again? Not if I had any say in the matter.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2013</t>
+  </si>
+  <si>
+    <t>qualityinnsuites, Manager at Quality Inn &amp; Suites Montebello, responded to this reviewResponded June 5, 2013</t>
+  </si>
+  <si>
+    <t>Responded June 5, 2013</t>
+  </si>
+  <si>
+    <t>I ended up at the Quality Inn as the accommodation formed part of a tour package.
+Location is poor, with the hotel situated in the down town part of Los Angeles, some 20 km from tourist attractions.
+Transportation by cab will cost you an arm and a leg should you want to get to a better part of town. I did not feel comfortable walking the streets of Montebello at night while looking for a dinner restaurant. There is a diner some 200m from the hotel which serves half decent food, but other than that, their is little else within walking distance.
+On arrival at the hotel, I was surprised to find a racous corporate function party taking place, the festivities of which had spilled into the lobby. The receptionist required that I shout to make myself heard. I requested to placed in a room as far away from the noise as possible which was done. The partido was over by 9pm as promised.
+Only one of the two elevators were functional, and I found it quicker to use the stairs for the two night stay.
+My room came with a fridge and microwave ( a nice touch I think ), tv, working ac and free wifi ( handy).
+The pillows are great; not those nasty ones which wrap themselves around your head and give you a headache.
+Decor is tired and dated. My bedspread had a tear in it...I ended up at the Quality Inn as the accommodation formed part of a tour package.Location is poor, with the hotel situated in the down town part of Los Angeles, some 20 km from tourist attractions.Transportation by cab will cost you an arm and a leg should you want to get to a better part of town. I did not feel comfortable walking the streets of Montebello at night while looking for a dinner restaurant. There is a diner some 200m from the hotel which serves half decent food, but other than that, their is little else within walking distance.On arrival at the hotel, I was surprised to find a racous corporate function party taking place, the festivities of which had spilled into the lobby. The receptionist required that I shout to make myself heard. I requested to placed in a room as far away from the noise as possible which was done. The partido was over by 9pm as promised.Only one of the two elevators were functional, and I found it quicker to use the stairs for the two night stay.My room came with a fridge and microwave ( a nice touch I think ), tv, working ac and free wifi ( handy).The pillows are great; not those nasty ones which wrap themselves around your head and give you a headache.Decor is tired and dated. My bedspread had a tear in it and the bedroom carpet had a wet and sticky patch on it.Barring these  two items, the general state of the room and bathroom was nice and clean.The bedroom lacked an electronic safe, which in my opinion is mandatory.Breakfasts are served with flimsy plastic knives and forks which makes eating a nightmare.To sum up, if you're a tourist or doing business in the city, give this one a miss. I don't know if I was just plain lucky, but because of the layout of the ground floor ( they tend to have disco's or karaoke most nights), I could easily see how noise may be a problem if you're trying to sleep.Would I visit again? Not if I had any say in the matter.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32735-d78315-r156895158-Quality_Inn_Suites_Montebello-Montebello_California.html</t>
+  </si>
+  <si>
+    <t>156895158</t>
+  </si>
+  <si>
+    <t>04/07/2013</t>
+  </si>
+  <si>
+    <t>If you need sleep, DO NOT STAY HERE!!!!</t>
+  </si>
+  <si>
+    <t>Great low price and convenient to the freeway BUT that's it for me. Stayed for 3 nights on the second floor and could not sleep because of the noise from downstairs. Saturday and Sunday I understand but the bar had Karaoke on a Monday until 2am. Really? On a work day? Very disrespectful to your paying customers who want sleep and get up to work at 4am!!!! Room service didn't have our room clean when we returned at 4pm but the maid was very sweet and left the room spotless once she did. Stay if you like to party, don't stay if you need sleep or are traveling for work. MoreShow less</t>
+  </si>
+  <si>
+    <t>qualityinnsuites, Manager at Quality Inn &amp; Suites Montebello, responded to this reviewResponded April 23, 2013</t>
+  </si>
+  <si>
+    <t>Responded April 23, 2013</t>
+  </si>
+  <si>
+    <t>Great low price and convenient to the freeway BUT that's it for me. Stayed for 3 nights on the second floor and could not sleep because of the noise from downstairs. Saturday and Sunday I understand but the bar had Karaoke on a Monday until 2am. Really? On a work day? Very disrespectful to your paying customers who want sleep and get up to work at 4am!!!! Room service didn't have our room clean when we returned at 4pm but the maid was very sweet and left the room spotless once she did. Stay if you like to party, don't stay if you need sleep or are traveling for work. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32735-d78315-r153061943-Quality_Inn_Suites_Montebello-Montebello_California.html</t>
+  </si>
+  <si>
+    <t>153061943</t>
+  </si>
+  <si>
+    <t>02/25/2013</t>
+  </si>
+  <si>
+    <t>Great place</t>
+  </si>
+  <si>
+    <t>This hotel has been redone  clean. Quiet. Free full breakfast  close to downtown LA  we stay here a lot    Great friendly staff  there's even a little bar cheap drinks great atmosphere always have great time here. Pool looks clean but never used it MoreShow less</t>
+  </si>
+  <si>
+    <t>This hotel has been redone  clean. Quiet. Free full breakfast  close to downtown LA  we stay here a lot    Great friendly staff  there's even a little bar cheap drinks great atmosphere always have great time here. Pool looks clean but never used it More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32735-d78315-r149699549-Quality_Inn_Suites_Montebello-Montebello_California.html</t>
+  </si>
+  <si>
+    <t>149699549</t>
+  </si>
+  <si>
+    <t>01/14/2013</t>
+  </si>
+  <si>
+    <t>Very quite,Very friendly,Very clean</t>
+  </si>
+  <si>
+    <t>12/27/2012My family and I stayed here for one nights,very pleased with customer service,room very nice and clean,very impressed with chinese buffet, food very good only disapointed dinning room(chair,table)very dirty,I will be back and stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2012</t>
+  </si>
+  <si>
+    <t>qualityinnsuites, Director of Sales at Quality Inn &amp; Suites Montebello, responded to this reviewResponded January 25, 2013</t>
+  </si>
+  <si>
+    <t>Responded January 25, 2013</t>
+  </si>
+  <si>
+    <t>12/27/2012My family and I stayed here for one nights,very pleased with customer service,room very nice and clean,very impressed with chinese buffet, food very good only disapointed dinning room(chair,table)very dirty,I will be back and stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32735-d78315-r145991582-Quality_Inn_Suites_Montebello-Montebello_California.html</t>
+  </si>
+  <si>
+    <t>145991582</t>
+  </si>
+  <si>
+    <t>11/22/2012</t>
+  </si>
+  <si>
+    <t>Great Place!</t>
+  </si>
+  <si>
+    <t>I've been staying here off and on for business for over 9 months.  The rooms are clean and the breakfast is convenient.  The only downside is parking in the evenings.  They host plenty of small conferences in the evenings.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2012</t>
+  </si>
+  <si>
+    <t>qualityinnsuites, Manager at Quality Inn &amp; Suites Montebello, responded to this reviewResponded December 12, 2012</t>
+  </si>
+  <si>
+    <t>Responded December 12, 2012</t>
+  </si>
+  <si>
+    <t>I've been staying here off and on for business for over 9 months.  The rooms are clean and the breakfast is convenient.  The only downside is parking in the evenings.  They host plenty of small conferences in the evenings.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32735-d78315-r139283777-Quality_Inn_Suites_Montebello-Montebello_California.html</t>
+  </si>
+  <si>
+    <t>139283777</t>
+  </si>
+  <si>
+    <t>09/03/2012</t>
+  </si>
+  <si>
+    <t>Don't count this place out, is right!</t>
+  </si>
+  <si>
+    <t>While visiting family that live near Downtown Los Angeles we wanted to be close by but, not in Downtown L.A. (trying to avoid the stress of parking in a big city). 
+My family and I, a party of four, stayed here two nights on labor day weekend. We had pre-booked our rooms and check-in was smooth. Didn't  really know what to expect and I went in with a mind set of "expect the worse and HOPE for the best" and on a first impression we were not disappointed.  We were pleased with the rooms, clean with a good view of the pool. The  only disappointment was that the other room that my family occupied had a few little quirks. Their shower head Room# 332 didn't work that well but they got over it and found a way to manage (I'm positive that if they had asked for a different room they could have gotten one with better shower head) also, one of the light switches in their room was loose. Complimentary breakfast is good, NOT just continental and the food area is very nicely decorated. Overall it's a nice, good clean place to stay were you feel safe. It's definitely a GREAT bargain, if you don't need fancy =) Also, on telegraph road where the hotel is located you can drive down to Citadel mall about 7-10minutes. One more thing this hotel is close to getting on and off the...While visiting family that live near Downtown Los Angeles we wanted to be close by but, not in Downtown L.A. (trying to avoid the stress of parking in a big city). My family and I, a party of four, stayed here two nights on labor day weekend. We had pre-booked our rooms and check-in was smooth. Didn't  really know what to expect and I went in with a mind set of "expect the worse and HOPE for the best" and on a first impression we were not disappointed.  We were pleased with the rooms, clean with a good view of the pool. The  only disappointment was that the other room that my family occupied had a few little quirks. Their shower head Room# 332 didn't work that well but they got over it and found a way to manage (I'm positive that if they had asked for a different room they could have gotten one with better shower head) also, one of the light switches in their room was loose. Complimentary breakfast is good, NOT just continental and the food area is very nicely decorated. Overall it's a nice, good clean place to stay were you feel safe. It's definitely a GREAT bargain, if you don't need fancy =) Also, on telegraph road where the hotel is located you can drive down to Citadel mall about 7-10minutes. One more thing this hotel is close to getting on and off the I-5 freeway.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2012</t>
+  </si>
+  <si>
+    <t>qualityinnsuites, Manager at Quality Inn &amp; Suites Montebello, responded to this reviewResponded September 5, 2012</t>
+  </si>
+  <si>
+    <t>Responded September 5, 2012</t>
+  </si>
+  <si>
+    <t>While visiting family that live near Downtown Los Angeles we wanted to be close by but, not in Downtown L.A. (trying to avoid the stress of parking in a big city). 
+My family and I, a party of four, stayed here two nights on labor day weekend. We had pre-booked our rooms and check-in was smooth. Didn't  really know what to expect and I went in with a mind set of "expect the worse and HOPE for the best" and on a first impression we were not disappointed.  We were pleased with the rooms, clean with a good view of the pool. The  only disappointment was that the other room that my family occupied had a few little quirks. Their shower head Room# 332 didn't work that well but they got over it and found a way to manage (I'm positive that if they had asked for a different room they could have gotten one with better shower head) also, one of the light switches in their room was loose. Complimentary breakfast is good, NOT just continental and the food area is very nicely decorated. Overall it's a nice, good clean place to stay were you feel safe. It's definitely a GREAT bargain, if you don't need fancy =) Also, on telegraph road where the hotel is located you can drive down to Citadel mall about 7-10minutes. One more thing this hotel is close to getting on and off the...While visiting family that live near Downtown Los Angeles we wanted to be close by but, not in Downtown L.A. (trying to avoid the stress of parking in a big city). My family and I, a party of four, stayed here two nights on labor day weekend. We had pre-booked our rooms and check-in was smooth. Didn't  really know what to expect and I went in with a mind set of "expect the worse and HOPE for the best" and on a first impression we were not disappointed.  We were pleased with the rooms, clean with a good view of the pool. The  only disappointment was that the other room that my family occupied had a few little quirks. Their shower head Room# 332 didn't work that well but they got over it and found a way to manage (I'm positive that if they had asked for a different room they could have gotten one with better shower head) also, one of the light switches in their room was loose. Complimentary breakfast is good, NOT just continental and the food area is very nicely decorated. Overall it's a nice, good clean place to stay were you feel safe. It's definitely a GREAT bargain, if you don't need fancy =) Also, on telegraph road where the hotel is located you can drive down to Citadel mall about 7-10minutes. One more thing this hotel is close to getting on and off the I-5 freeway.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32735-d78315-r125265652-Quality_Inn_Suites_Montebello-Montebello_California.html</t>
+  </si>
+  <si>
+    <t>125265652</t>
+  </si>
+  <si>
+    <t>02/26/2012</t>
+  </si>
+  <si>
+    <t>Service oriented!</t>
+  </si>
+  <si>
+    <t>I enjoyed my stay here. Rooms were clean and comfortable. Staff was friendly and helpful to my needs. They responded in a timely manner.MoreShow less</t>
+  </si>
+  <si>
+    <t>qualityinnsuites, Manager at Quality Inn &amp; Suites Montebello, responded to this reviewResponded March 1, 2012</t>
+  </si>
+  <si>
+    <t>Responded March 1, 2012</t>
+  </si>
+  <si>
+    <t>I enjoyed my stay here. Rooms were clean and comfortable. Staff was friendly and helpful to my needs. They responded in a timely manner.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32735-d78315-r125264178-Quality_Inn_Suites_Montebello-Montebello_California.html</t>
+  </si>
+  <si>
+    <t>125264178</t>
+  </si>
+  <si>
+    <t>" DON'T COUNT THIS HOTEL OUT"</t>
+  </si>
+  <si>
+    <t>This hotel serves my purpose as we're love to visit the Commerce Casino.The room rate was affordable, it was very comfortable and clean, and the overall service is far better from what I would expect. Keep up the good work! For those Casino players, don't missed on this one.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2012</t>
+  </si>
+  <si>
+    <t>This hotel serves my purpose as we're love to visit the Commerce Casino.The room rate was affordable, it was very comfortable and clean, and the overall service is far better from what I would expect. Keep up the good work! For those Casino players, don't missed on this one.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32735-d78315-r125097710-Quality_Inn_Suites_Montebello-Montebello_California.html</t>
+  </si>
+  <si>
+    <t>125097710</t>
+  </si>
+  <si>
+    <t>02/23/2012</t>
+  </si>
+  <si>
+    <t>Awesome Fun In the Sun</t>
+  </si>
+  <si>
+    <t>I stayed there several time on bussiness and this place always is more than Gracious with their Hospitality ,,,,,their Food is Very Good &amp; Tasty,,,, on friday they have a  Relax &amp; Comfy Bar that i got my groove On To On The Dancefloor &amp; their Beer is Super Cold @ Great Prices,,,,Happy Hour as they call it in Los Angeles....i wouls totally stay there again ....see you soon Quality Inn :)MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2012</t>
+  </si>
+  <si>
+    <t>I stayed there several time on bussiness and this place always is more than Gracious with their Hospitality ,,,,,their Food is Very Good &amp; Tasty,,,, on friday they have a  Relax &amp; Comfy Bar that i got my groove On To On The Dancefloor &amp; their Beer is Super Cold @ Great Prices,,,,Happy Hour as they call it in Los Angeles....i wouls totally stay there again ....see you soon Quality Inn :)More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32735-d78315-r124645648-Quality_Inn_Suites_Montebello-Montebello_California.html</t>
+  </si>
+  <si>
+    <t>124645648</t>
+  </si>
+  <si>
+    <t>02/15/2012</t>
+  </si>
+  <si>
+    <t>Avoid if you really want "Quality"</t>
+  </si>
+  <si>
+    <t>To begin, the room wasn't ready at 5:00 pm when I wanted to check in.  The elevator was scarry and made a very big jolt when it began to move.  When I did get into the room, one of the housekeepers barged in.  I had to yell at them to get out.  The microwave in the room didn't work.  The sheets had holes in them.  The restaurant server didn't care that we were there and we ended up ordering pizza from someone else.Avoid this hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>qualityinnsuites, Manager at Quality Inn &amp; Suites Montebello, responded to this reviewResponded February 20, 2012</t>
+  </si>
+  <si>
+    <t>Responded February 20, 2012</t>
+  </si>
+  <si>
+    <t>To begin, the room wasn't ready at 5:00 pm when I wanted to check in.  The elevator was scarry and made a very big jolt when it began to move.  When I did get into the room, one of the housekeepers barged in.  I had to yell at them to get out.  The microwave in the room didn't work.  The sheets had holes in them.  The restaurant server didn't care that we were there and we ended up ordering pizza from someone else.Avoid this hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32735-d78315-r123762877-Quality_Inn_Suites_Montebello-Montebello_California.html</t>
+  </si>
+  <si>
+    <t>123762877</t>
+  </si>
+  <si>
+    <t>01/28/2012</t>
+  </si>
+  <si>
+    <t>Waiting for a makeover</t>
+  </si>
+  <si>
+    <t>This hotel has one thing going for it... it is right off the 5 freeway.  This hotel is owned by an Asian company and there are bazaars and events happening there that typically would not be at any other Choice hotel property.  The front entrance has a couch in bad need of cleaning or reupholstering.  A very pervasive smell was in the front office that was similar to old food that needed to be thrown away.  It lingered all throughout the lower level.  The carpeting in the hallway was dirty and worn.  The rooms were just average for a Quality Inn.  I went down for breakfast at 6:50 am only to be turned away because the breakfast starts at 7:00 am.  And when I came back from visiting a hospital at 9:55 am that morning they would not serve me because I was too late.   I will never, ever stay at this hotel again.  There are several other hotels within blocks of this hotel - stay at any of those hotels.  They must be nicer and smell better.MoreShow less</t>
+  </si>
+  <si>
+    <t>qualityinnsuites, Manager at Quality Inn &amp; Suites Montebello, responded to this reviewResponded February 10, 2012</t>
+  </si>
+  <si>
+    <t>Responded February 10, 2012</t>
+  </si>
+  <si>
+    <t>This hotel has one thing going for it... it is right off the 5 freeway.  This hotel is owned by an Asian company and there are bazaars and events happening there that typically would not be at any other Choice hotel property.  The front entrance has a couch in bad need of cleaning or reupholstering.  A very pervasive smell was in the front office that was similar to old food that needed to be thrown away.  It lingered all throughout the lower level.  The carpeting in the hallway was dirty and worn.  The rooms were just average for a Quality Inn.  I went down for breakfast at 6:50 am only to be turned away because the breakfast starts at 7:00 am.  And when I came back from visiting a hospital at 9:55 am that morning they would not serve me because I was too late.   I will never, ever stay at this hotel again.  There are several other hotels within blocks of this hotel - stay at any of those hotels.  They must be nicer and smell better.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32735-d78315-r123648885-Quality_Inn_Suites_Montebello-Montebello_California.html</t>
+  </si>
+  <si>
+    <t>123648885</t>
+  </si>
+  <si>
+    <t>01/26/2012</t>
+  </si>
+  <si>
+    <t>Don't Go There!!!!</t>
+  </si>
+  <si>
+    <t>Horrible hotel and the photos are misleading.  I stayed in one of the double "Business Plus" rooms where the table barely accomodated one laptop, the carpet was full of stains and very nasty looking.  Not somewhere you wanted to walk barefoot or allow children to play on.  
+Upon check-in you will be given a slip of paper for the Breakfast which says you are entitled to up to $8.00 of credit towards your breakfast.  This DOES NOT mean you can order from the restraunt menu.  It is only good for the Breakfast Buffet.  The breakfast buffet was anything but.  A Meatless affair  except for the what looked like the leftover spaghetti from the previous days function (for breakfast!) and some other scary looking dish involving tortillia chips the next morning--which also looked like it might be left over from function the night before.  The coffee was so bad it was undrinkable and the juices were watered down.  Most of the food was cold even the things which were supposed to be hot.  The restraunt doesn't open until 7a.m. even during the week. 
+The hallways are dimly lit, as are the rooms, and the their tiny bathrooms.  They are in the middle of remodeling apparently even though their sign out front claims "Newly Remodeled" as the old furniture was being stored on the closed pool patio and the new pieces stacked by one of the entrances downstairs.  
+The bar faces onto...Horrible hotel and the photos are misleading.  I stayed in one of the double "Business Plus" rooms where the table barely accomodated one laptop, the carpet was full of stains and very nasty looking.  Not somewhere you wanted to walk barefoot or allow children to play on.  Upon check-in you will be given a slip of paper for the Breakfast which says you are entitled to up to $8.00 of credit towards your breakfast.  This DOES NOT mean you can order from the restraunt menu.  It is only good for the Breakfast Buffet.  The breakfast buffet was anything but.  A Meatless affair  except for the what looked like the leftover spaghetti from the previous days function (for breakfast!) and some other scary looking dish involving tortillia chips the next morning--which also looked like it might be left over from function the night before.  The coffee was so bad it was undrinkable and the juices were watered down.  Most of the food was cold even the things which were supposed to be hot.  The restraunt doesn't open until 7a.m. even during the week. The hallways are dimly lit, as are the rooms, and the their tiny bathrooms.  They are in the middle of remodeling apparently even though their sign out front claims "Newly Remodeled" as the old furniture was being stored on the closed pool patio and the new pieces stacked by one of the entrances downstairs.  The bar faces onto the front desk, and we were treated to many "gangsta rap" tunes playing loudly featuring prolific use of four-letter words while children played in the front lobby.  The ice machine was broken on our floor and the elevators are exceedingly slow.  Upon close examination, the entire building looks like it was a former cheap motel that has been painted over.  You will be required to post a credit card for "amenities" even though there are no PPV channels, or even Premium movie channels for that matter, on the TV.  Internet and parking is free, so exactly why they require a credit card is beyond me.  If you refuse to give them one or do not have one, you will be turned away by Cynthia Curiel, the front desk manager.Definitely not a place I would recommend for anyone!MoreShow less</t>
+  </si>
+  <si>
+    <t>Horrible hotel and the photos are misleading.  I stayed in one of the double "Business Plus" rooms where the table barely accomodated one laptop, the carpet was full of stains and very nasty looking.  Not somewhere you wanted to walk barefoot or allow children to play on.  
+Upon check-in you will be given a slip of paper for the Breakfast which says you are entitled to up to $8.00 of credit towards your breakfast.  This DOES NOT mean you can order from the restraunt menu.  It is only good for the Breakfast Buffet.  The breakfast buffet was anything but.  A Meatless affair  except for the what looked like the leftover spaghetti from the previous days function (for breakfast!) and some other scary looking dish involving tortillia chips the next morning--which also looked like it might be left over from function the night before.  The coffee was so bad it was undrinkable and the juices were watered down.  Most of the food was cold even the things which were supposed to be hot.  The restraunt doesn't open until 7a.m. even during the week. 
+The hallways are dimly lit, as are the rooms, and the their tiny bathrooms.  They are in the middle of remodeling apparently even though their sign out front claims "Newly Remodeled" as the old furniture was being stored on the closed pool patio and the new pieces stacked by one of the entrances downstairs.  
+The bar faces onto...Horrible hotel and the photos are misleading.  I stayed in one of the double "Business Plus" rooms where the table barely accomodated one laptop, the carpet was full of stains and very nasty looking.  Not somewhere you wanted to walk barefoot or allow children to play on.  Upon check-in you will be given a slip of paper for the Breakfast which says you are entitled to up to $8.00 of credit towards your breakfast.  This DOES NOT mean you can order from the restraunt menu.  It is only good for the Breakfast Buffet.  The breakfast buffet was anything but.  A Meatless affair  except for the what looked like the leftover spaghetti from the previous days function (for breakfast!) and some other scary looking dish involving tortillia chips the next morning--which also looked like it might be left over from function the night before.  The coffee was so bad it was undrinkable and the juices were watered down.  Most of the food was cold even the things which were supposed to be hot.  The restraunt doesn't open until 7a.m. even during the week. The hallways are dimly lit, as are the rooms, and the their tiny bathrooms.  They are in the middle of remodeling apparently even though their sign out front claims "Newly Remodeled" as the old furniture was being stored on the closed pool patio and the new pieces stacked by one of the entrances downstairs.  The bar faces onto the front desk, and we were treated to many "gangsta rap" tunes playing loudly featuring prolific use of four-letter words while children played in the front lobby.  The ice machine was broken on our floor and the elevators are exceedingly slow.  Upon close examination, the entire building looks like it was a former cheap motel that has been painted over.  You will be required to post a credit card for "amenities" even though there are no PPV channels, or even Premium movie channels for that matter, on the TV.  Internet and parking is free, so exactly why they require a credit card is beyond me.  If you refuse to give them one or do not have one, you will be turned away by Cynthia Curiel, the front desk manager.Definitely not a place I would recommend for anyone!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32735-d78315-r120419006-Quality_Inn_Suites_Montebello-Montebello_California.html</t>
+  </si>
+  <si>
+    <t>120419006</t>
+  </si>
+  <si>
+    <t>11/10/2011</t>
+  </si>
+  <si>
+    <t>DON'T STAY HERE!</t>
+  </si>
+  <si>
+    <t>***********Do not stay here *********Do not stay here!****************At least one or more cleaning staff are thieves... Do not leave anything in the room if you are not there.  I have property stolen out of the room the first night i was there, i stayed for 2 nights hoping the staff and management wouild assist in finding my stolen item, nope.  Do not stay here, do not book a hotel here, if someone books a hotel for you here, change the hotel booking. ********* Do not stay here*********  ********* Do not stay here!***********MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2011</t>
+  </si>
+  <si>
+    <t>qualityinnsuites, Manager at Quality Inn &amp; Suites Montebello, responded to this reviewResponded February 7, 2012</t>
+  </si>
+  <si>
+    <t>Responded February 7, 2012</t>
+  </si>
+  <si>
+    <t>***********Do not stay here *********Do not stay here!****************At least one or more cleaning staff are thieves... Do not leave anything in the room if you are not there.  I have property stolen out of the room the first night i was there, i stayed for 2 nights hoping the staff and management wouild assist in finding my stolen item, nope.  Do not stay here, do not book a hotel here, if someone books a hotel for you here, change the hotel booking. ********* Do not stay here*********  ********* Do not stay here!***********More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32735-d78315-r119318414-Quality_Inn_Suites_Montebello-Montebello_California.html</t>
+  </si>
+  <si>
+    <t>119318414</t>
+  </si>
+  <si>
+    <t>10/15/2011</t>
+  </si>
+  <si>
+    <t>hotel with a club sceene n good affordable food</t>
+  </si>
+  <si>
+    <t>They were clean. They have a deep big pool. Secirity so I felt safe to leave my car in the parking lot. Convienant location. I was happy with my stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>They were clean. They have a deep big pool. Secirity so I felt safe to leave my car in the parking lot. Convienant location. I was happy with my stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32735-d78315-r115931445-Quality_Inn_Suites_Montebello-Montebello_California.html</t>
+  </si>
+  <si>
+    <t>115931445</t>
+  </si>
+  <si>
+    <t>07/28/2011</t>
+  </si>
+  <si>
+    <t>Centrally located hotel for business.</t>
+  </si>
+  <si>
+    <t>Very conveniently located tp businesses in the surrounding area.  Rooms clean and comfortable.  Staff very helpful and friendly.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2011</t>
+  </si>
+  <si>
+    <t>Very conveniently located tp businesses in the surrounding area.  Rooms clean and comfortable.  Staff very helpful and friendly.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32735-d78315-r99830574-Quality_Inn_Suites_Montebello-Montebello_California.html</t>
+  </si>
+  <si>
+    <t>99830574</t>
+  </si>
+  <si>
+    <t>03/11/2011</t>
+  </si>
+  <si>
+    <t>OMG DOnt be fooled this hotel is not for family or humans!!!!!</t>
+  </si>
+  <si>
+    <t>So I got this hotel from the choice lines and I was reassured that it was a great place wow! It was terrible! My experience was so I ck in and there was a bar open screaming drunk ppl! I got my key and they dont tell you they installed the door handles wrong and there is a certain way to open the door then the light bulbs were broken remote control batteries dead and they had to keep coming to our room and then to top it off when i went to get into bed there was CAT POOP on the floor!!!! yep dried cat poop! I called and they said Oh we come pick up I was like I thought there was no pets allowed yes  they said you are rite then when i went to tell the manager of course the next morning because i couldnt afford another hotel and i wasnt getting my money back. She acted like i drove 400 miles with a baggy of cat poop so I could get a stupid discount UNBELIEVAble experience dont come here it is filthy dirty and my view out the window was a disk the size of a house. The manager was so rude she said i will talk to house cleaning and see what they say" I was like oh yes because Im sure she will say " Yep I sure did leave cat poop in...So I got this hotel from the choice lines and I was reassured that it was a great place wow! It was terrible! My experience was so I ck in and there was a bar open screaming drunk ppl! I got my key and they dont tell you they installed the door handles wrong and there is a certain way to open the door then the light bulbs were broken remote control batteries dead and they had to keep coming to our room and then to top it off when i went to get into bed there was CAT POOP on the floor!!!! yep dried cat poop! I called and they said Oh we come pick up I was like I thought there was no pets allowed yes  they said you are rite then when i went to tell the manager of course the next morning because i couldnt afford another hotel and i wasnt getting my money back. She acted like i drove 400 miles with a baggy of cat poop so I could get a stupid discount UNBELIEVAble experience dont come here it is filthy dirty and my view out the window was a disk the size of a house. The manager was so rude she said i will talk to house cleaning and see what they say" I was like oh yes because Im sure she will say " Yep I sure did leave cat poop in the room hmm hmm !Then she said IDK the room hasnt been rented for 2 weeks. I DONT CARE if it was 3 years there is cat poop in your hotel so crazy and terrible neighborhood.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2011</t>
+  </si>
+  <si>
+    <t>qualityinnsuites, Manager at Quality Inn &amp; Suites Montebello, responded to this reviewResponded March 15, 2011</t>
+  </si>
+  <si>
+    <t>Responded March 15, 2011</t>
+  </si>
+  <si>
+    <t>So I got this hotel from the choice lines and I was reassured that it was a great place wow! It was terrible! My experience was so I ck in and there was a bar open screaming drunk ppl! I got my key and they dont tell you they installed the door handles wrong and there is a certain way to open the door then the light bulbs were broken remote control batteries dead and they had to keep coming to our room and then to top it off when i went to get into bed there was CAT POOP on the floor!!!! yep dried cat poop! I called and they said Oh we come pick up I was like I thought there was no pets allowed yes  they said you are rite then when i went to tell the manager of course the next morning because i couldnt afford another hotel and i wasnt getting my money back. She acted like i drove 400 miles with a baggy of cat poop so I could get a stupid discount UNBELIEVAble experience dont come here it is filthy dirty and my view out the window was a disk the size of a house. The manager was so rude she said i will talk to house cleaning and see what they say" I was like oh yes because Im sure she will say " Yep I sure did leave cat poop in...So I got this hotel from the choice lines and I was reassured that it was a great place wow! It was terrible! My experience was so I ck in and there was a bar open screaming drunk ppl! I got my key and they dont tell you they installed the door handles wrong and there is a certain way to open the door then the light bulbs were broken remote control batteries dead and they had to keep coming to our room and then to top it off when i went to get into bed there was CAT POOP on the floor!!!! yep dried cat poop! I called and they said Oh we come pick up I was like I thought there was no pets allowed yes  they said you are rite then when i went to tell the manager of course the next morning because i couldnt afford another hotel and i wasnt getting my money back. She acted like i drove 400 miles with a baggy of cat poop so I could get a stupid discount UNBELIEVAble experience dont come here it is filthy dirty and my view out the window was a disk the size of a house. The manager was so rude she said i will talk to house cleaning and see what they say" I was like oh yes because Im sure she will say " Yep I sure did leave cat poop in the room hmm hmm !Then she said IDK the room hasnt been rented for 2 weeks. I DONT CARE if it was 3 years there is cat poop in your hotel so crazy and terrible neighborhood.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32735-d78315-r81276871-Quality_Inn_Suites_Montebello-Montebello_California.html</t>
+  </si>
+  <si>
+    <t>81276871</t>
+  </si>
+  <si>
+    <t>09/27/2010</t>
+  </si>
+  <si>
+    <t>Budget No Frills</t>
+  </si>
+  <si>
+    <t>Our group of 5 stayed here from 1/9/2010 to 3/9/2010. The rooms were large with amenities we required - iron, coffee making &amp; air conditioner. Basic &amp; clean. Staff were non existent &amp; the hotel is in the midst of an industrial area. You are basically stuck here surrounded by highways &amp; run-down factories. The hotel does not provide any food &amp; if you need to eat, there is only Dennys &amp; Starbucks about 10 minutes walking distance. There is Ozzies Diner at the intersection about 10 minutes walk &amp; the food here is reasonable (good steak &amp; fries). The hotel should organise for flyers from Ozzies as guests would starve.The hotel provides free breakfast. Besides the bread, jam &amp; butter offered, the rest of the food is unfit for human consumption. They consisted congee &amp; tinned cheap Chinese pickles, fried pasta combined with left-over cabbage leaves &amp; bits of fries left-over from the Bar the previous night. This definitely needs IMPROVEMENT. The rooms are without bar fridges &amp; it was impossible to keep foods to sustain our hunger. A microwave oven was available in the dining room - but what do we microwave when there is no fridge in the rooms?This is typical of a Chinese operated hotel merely out to win business from Chinese tour operators &amp; hoping to make a quick buck by offering sub-standard services.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2010</t>
+  </si>
+  <si>
+    <t>qualityinnsuites, Manager at Quality Inn &amp; Suites Montebello, responded to this reviewResponded February 25, 2011</t>
+  </si>
+  <si>
+    <t>Responded February 25, 2011</t>
+  </si>
+  <si>
+    <t>Our group of 5 stayed here from 1/9/2010 to 3/9/2010. The rooms were large with amenities we required - iron, coffee making &amp; air conditioner. Basic &amp; clean. Staff were non existent &amp; the hotel is in the midst of an industrial area. You are basically stuck here surrounded by highways &amp; run-down factories. The hotel does not provide any food &amp; if you need to eat, there is only Dennys &amp; Starbucks about 10 minutes walking distance. There is Ozzies Diner at the intersection about 10 minutes walk &amp; the food here is reasonable (good steak &amp; fries). The hotel should organise for flyers from Ozzies as guests would starve.The hotel provides free breakfast. Besides the bread, jam &amp; butter offered, the rest of the food is unfit for human consumption. They consisted congee &amp; tinned cheap Chinese pickles, fried pasta combined with left-over cabbage leaves &amp; bits of fries left-over from the Bar the previous night. This definitely needs IMPROVEMENT. The rooms are without bar fridges &amp; it was impossible to keep foods to sustain our hunger. A microwave oven was available in the dining room - but what do we microwave when there is no fridge in the rooms?This is typical of a Chinese operated hotel merely out to win business from Chinese tour operators &amp; hoping to make a quick buck by offering sub-standard services.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32735-d78315-r61395281-Quality_Inn_Suites_Montebello-Montebello_California.html</t>
+  </si>
+  <si>
+    <t>61395281</t>
+  </si>
+  <si>
+    <t>04/15/2010</t>
+  </si>
+  <si>
+    <t>Beautiful Hotel with beautiful staff!!</t>
+  </si>
+  <si>
+    <t>This hotel it's an oasis in the middle of the jungle of freeways and cars, LA, is! 
+Quick check in, nice and big room with nice view to the swimming pool decorated with mosaics benches. Maybe I would add an small fridge in the room to keep some cool drinks. 
+The staff were friendly and talkative, also very helpfull when asked about direcctions or places of interest. 
+They offer free breakfast to their guest which is very much appreciated and generous, with scrammbled eggs, sausages, hash browns, pancakes in the hot area, changed the items every day and the cold area cereals, muffins and toast with an array of mermelades, syrups to add on.
+They also, offer free parking and free daily paper and not many of the hotels I searched before my trip, could say the same!
+We met several of the staff, from the receptionist, breakfast ladies, chambermaids, all of them beautiful friendly people, in special the manager Nadia Wu, showing a nice smile everytime we passed and giving us good advice of where to go in the city. She also opened up some tins for us, late one night after come back to the hotel.
+The hotel also, has a restaurant very nicely decorated with a good offer on mexican/american plates at good prices and a pool table and a gym. What else could you ask in a hotel??...Ah! well yes, the price!...It was a very good...This hotel it's an oasis in the middle of the jungle of freeways and cars, LA, is! Quick check in, nice and big room with nice view to the swimming pool decorated with mosaics benches. Maybe I would add an small fridge in the room to keep some cool drinks. The staff were friendly and talkative, also very helpfull when asked about direcctions or places of interest. They offer free breakfast to their guest which is very much appreciated and generous, with scrammbled eggs, sausages, hash browns, pancakes in the hot area, changed the items every day and the cold area cereals, muffins and toast with an array of mermelades, syrups to add on.They also, offer free parking and free daily paper and not many of the hotels I searched before my trip, could say the same!We met several of the staff, from the receptionist, breakfast ladies, chambermaids, all of them beautiful friendly people, in special the manager Nadia Wu, showing a nice smile everytime we passed and giving us good advice of where to go in the city. She also opened up some tins for us, late one night after come back to the hotel.The hotel also, has a restaurant very nicely decorated with a good offer on mexican/american plates at good prices and a pool table and a gym. What else could you ask in a hotel??...Ah! well yes, the price!...It was a very good price for a triple room for 3 nights, good value for money, I can assure you.The area where the hotel is, it's easy to get to downtown, st. monica, universal studios or any other place in LA, you might want to visit, very accesible. Citadels Outlets are  5 min. away from the hotel as it's the Casino.Definitely, I would go back if ever in LA, again and without a doubt, I will recommend it to all my friends. Kind Regards, Nadia!MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2010</t>
+  </si>
+  <si>
+    <t>qualityinnsuites, Manager at Quality Inn &amp; Suites Montebello, responded to this reviewResponded February 16, 2011</t>
+  </si>
+  <si>
+    <t>Responded February 16, 2011</t>
+  </si>
+  <si>
+    <t>This hotel it's an oasis in the middle of the jungle of freeways and cars, LA, is! 
+Quick check in, nice and big room with nice view to the swimming pool decorated with mosaics benches. Maybe I would add an small fridge in the room to keep some cool drinks. 
+The staff were friendly and talkative, also very helpfull when asked about direcctions or places of interest. 
+They offer free breakfast to their guest which is very much appreciated and generous, with scrammbled eggs, sausages, hash browns, pancakes in the hot area, changed the items every day and the cold area cereals, muffins and toast with an array of mermelades, syrups to add on.
+They also, offer free parking and free daily paper and not many of the hotels I searched before my trip, could say the same!
+We met several of the staff, from the receptionist, breakfast ladies, chambermaids, all of them beautiful friendly people, in special the manager Nadia Wu, showing a nice smile everytime we passed and giving us good advice of where to go in the city. She also opened up some tins for us, late one night after come back to the hotel.
+The hotel also, has a restaurant very nicely decorated with a good offer on mexican/american plates at good prices and a pool table and a gym. What else could you ask in a hotel??...Ah! well yes, the price!...It was a very good...This hotel it's an oasis in the middle of the jungle of freeways and cars, LA, is! Quick check in, nice and big room with nice view to the swimming pool decorated with mosaics benches. Maybe I would add an small fridge in the room to keep some cool drinks. The staff were friendly and talkative, also very helpfull when asked about direcctions or places of interest. They offer free breakfast to their guest which is very much appreciated and generous, with scrammbled eggs, sausages, hash browns, pancakes in the hot area, changed the items every day and the cold area cereals, muffins and toast with an array of mermelades, syrups to add on.They also, offer free parking and free daily paper and not many of the hotels I searched before my trip, could say the same!We met several of the staff, from the receptionist, breakfast ladies, chambermaids, all of them beautiful friendly people, in special the manager Nadia Wu, showing a nice smile everytime we passed and giving us good advice of where to go in the city. She also opened up some tins for us, late one night after come back to the hotel.The hotel also, has a restaurant very nicely decorated with a good offer on mexican/american plates at good prices and a pool table and a gym. What else could you ask in a hotel??...Ah! well yes, the price!...It was a very good price for a triple room for 3 nights, good value for money, I can assure you.The area where the hotel is, it's easy to get to downtown, st. monica, universal studios or any other place in LA, you might want to visit, very accesible. Citadels Outlets are  5 min. away from the hotel as it's the Casino.Definitely, I would go back if ever in LA, again and without a doubt, I will recommend it to all my friends. Kind Regards, Nadia!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32735-d78315-r29329730-Quality_Inn_Suites_Montebello-Montebello_California.html</t>
+  </si>
+  <si>
+    <t>29329730</t>
+  </si>
+  <si>
+    <t>05/04/2009</t>
+  </si>
+  <si>
+    <t>Great location....but...</t>
+  </si>
+  <si>
+    <t>Stayed for 3 nights in April 2009.  of course renovations were being done while we were there.  Nothing too special about this hotel to be honest.  The included breakfast...what a joke.  We went to the restaurant where a buffet breakfast was being served.  We grabbed plates, got in line, then one of the hotel workers looked at us and goes "your breakfast is over there."  She points to a table off to the side which had a loaf of bread and a few stale muffins.  Um....if that's the case then who was the hot breakfast for???Other than that, the room was nicely cleaned daily and our requests for more towels was honored.  The town itself is kind shady, but not too bad considering this hotel is right near the highway.This hotel is perfect for anyone planning to do Disneyland, Universal, the Hollywood Walk of Fame and Beverly Hills all in one trip.  This hotel is smack in the middle.MoreShow less</t>
+  </si>
+  <si>
+    <t>qualityinnsuites, MANAGER at Quality Inn &amp; Suites Montebello, responded to this reviewResponded September 14, 2009</t>
+  </si>
+  <si>
+    <t>Responded September 14, 2009</t>
+  </si>
+  <si>
+    <t>Stayed for 3 nights in April 2009.  of course renovations were being done while we were there.  Nothing too special about this hotel to be honest.  The included breakfast...what a joke.  We went to the restaurant where a buffet breakfast was being served.  We grabbed plates, got in line, then one of the hotel workers looked at us and goes "your breakfast is over there."  She points to a table off to the side which had a loaf of bread and a few stale muffins.  Um....if that's the case then who was the hot breakfast for???Other than that, the room was nicely cleaned daily and our requests for more towels was honored.  The town itself is kind shady, but not too bad considering this hotel is right near the highway.This hotel is perfect for anyone planning to do Disneyland, Universal, the Hollywood Walk of Fame and Beverly Hills all in one trip.  This hotel is smack in the middle.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32735-d78315-r17168904-Quality_Inn_Suites_Montebello-Montebello_California.html</t>
+  </si>
+  <si>
+    <t>17168904</t>
+  </si>
+  <si>
+    <t>06/23/2008</t>
+  </si>
+  <si>
+    <t>Bait and Switch Crooks Read This!!!</t>
+  </si>
+  <si>
+    <t>When you book your room with this hotel, don't expect there to be a room when you get there.  They seem to have a little scam set up to oversell their rooms, then point you off in the direction of another hotel when you arrive so that they can get a cut.  I showed up with my wife and 2 toddlers after a very long day of driving, wedding rehearsal, etc...only to find out that they didn't have a room for us.  Their excuses ranged from having just one room flooded, then an entire wing, then the a/c had gone out.  I refused to be sent off to another hotel of their choice(it was in a different town), and found my own hotel.  I immediately called hotels.com to cancel my prepaid, guaranteed reservation and got the run around.  They refused to refund me all of my money.  They wanted to charge me a penalty of one night's stay.  The manager at the hotel, Esmirna, called me a liar and said that I had accepted the hotel's offer to put me up at their other hotel and that I now had to pay a penalty.  All of this was mediated over the phone by hotels.com.  Hotels.com continually hung up on me when I refused to accept the offer of the hotel to accept less than I had paid for their non-available room.  I cannot believe the way I have been treated...When you book your room with this hotel, don't expect there to be a room when you get there.  They seem to have a little scam set up to oversell their rooms, then point you off in the direction of another hotel when you arrive so that they can get a cut.  I showed up with my wife and 2 toddlers after a very long day of driving, wedding rehearsal, etc...only to find out that they didn't have a room for us.  Their excuses ranged from having just one room flooded, then an entire wing, then the a/c had gone out.  I refused to be sent off to another hotel of their choice(it was in a different town), and found my own hotel.  I immediately called hotels.com to cancel my prepaid, guaranteed reservation and got the run around.  They refused to refund me all of my money.  They wanted to charge me a penalty of one night's stay.  The manager at the hotel, Esmirna, called me a liar and said that I had accepted the hotel's offer to put me up at their other hotel and that I now had to pay a penalty.  All of this was mediated over the phone by hotels.com.  Hotels.com continually hung up on me when I refused to accept the offer of the hotel to accept less than I had paid for their non-available room.  I cannot believe the way I have been treated by both the Montebello Plaza Hotel and Hotels.com.  I am not one of those crazy people who yells and cusses when they get mad at a business.  I conducted myself 100% professionally, but all I got from both of these two companies was a hustle and a brush off.  By the way, the hotel looked like a filthy version of the Chowchilla Women's Correctional Facility.  If you must stay there, carry a can of raid.  No, I'm not joking.  Yes, this is a serious review and I can be contacted concerning this matter at -------------@-------.com.  Thank you.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2008</t>
+  </si>
+  <si>
+    <t>When you book your room with this hotel, don't expect there to be a room when you get there.  They seem to have a little scam set up to oversell their rooms, then point you off in the direction of another hotel when you arrive so that they can get a cut.  I showed up with my wife and 2 toddlers after a very long day of driving, wedding rehearsal, etc...only to find out that they didn't have a room for us.  Their excuses ranged from having just one room flooded, then an entire wing, then the a/c had gone out.  I refused to be sent off to another hotel of their choice(it was in a different town), and found my own hotel.  I immediately called hotels.com to cancel my prepaid, guaranteed reservation and got the run around.  They refused to refund me all of my money.  They wanted to charge me a penalty of one night's stay.  The manager at the hotel, Esmirna, called me a liar and said that I had accepted the hotel's offer to put me up at their other hotel and that I now had to pay a penalty.  All of this was mediated over the phone by hotels.com.  Hotels.com continually hung up on me when I refused to accept the offer of the hotel to accept less than I had paid for their non-available room.  I cannot believe the way I have been treated...When you book your room with this hotel, don't expect there to be a room when you get there.  They seem to have a little scam set up to oversell their rooms, then point you off in the direction of another hotel when you arrive so that they can get a cut.  I showed up with my wife and 2 toddlers after a very long day of driving, wedding rehearsal, etc...only to find out that they didn't have a room for us.  Their excuses ranged from having just one room flooded, then an entire wing, then the a/c had gone out.  I refused to be sent off to another hotel of their choice(it was in a different town), and found my own hotel.  I immediately called hotels.com to cancel my prepaid, guaranteed reservation and got the run around.  They refused to refund me all of my money.  They wanted to charge me a penalty of one night's stay.  The manager at the hotel, Esmirna, called me a liar and said that I had accepted the hotel's offer to put me up at their other hotel and that I now had to pay a penalty.  All of this was mediated over the phone by hotels.com.  Hotels.com continually hung up on me when I refused to accept the offer of the hotel to accept less than I had paid for their non-available room.  I cannot believe the way I have been treated by both the Montebello Plaza Hotel and Hotels.com.  I am not one of those crazy people who yells and cusses when they get mad at a business.  I conducted myself 100% professionally, but all I got from both of these two companies was a hustle and a brush off.  By the way, the hotel looked like a filthy version of the Chowchilla Women's Correctional Facility.  If you must stay there, carry a can of raid.  No, I'm not joking.  Yes, this is a serious review and I can be contacted concerning this matter at -------------@-------.com.  Thank you.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32735-d78315-r17035300-Quality_Inn_Suites_Montebello-Montebello_California.html</t>
+  </si>
+  <si>
+    <t>17035300</t>
+  </si>
+  <si>
+    <t>06/18/2008</t>
+  </si>
+  <si>
+    <t>Nice Pool</t>
+  </si>
+  <si>
+    <t>The hotel had a nice, big pool. My kids enjoyed so much since it was a hot day, it was not heated, but in summer who cares. Staff was nice and help me to get around town with mapquest directions.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2008</t>
+  </si>
+  <si>
+    <t>qualityinnsuites, MANAGER at Quality Inn &amp; Suites Montebello, responded to this reviewResponded September 15, 2009</t>
+  </si>
+  <si>
+    <t>Responded September 15, 2009</t>
+  </si>
+  <si>
+    <t>The hotel had a nice, big pool. My kids enjoyed so much since it was a hot day, it was not heated, but in summer who cares. Staff was nice and help me to get around town with mapquest directions.More</t>
   </si>
 </sst>
 </file>
@@ -648,6 +2022,3860 @@
         <v>43</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>161</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="s"/>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
+      <c r="Y2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>161</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J3" t="s">
+        <v>56</v>
+      </c>
+      <c r="K3" t="s">
+        <v>57</v>
+      </c>
+      <c r="L3" t="s">
+        <v>58</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1</v>
+      </c>
+      <c r="N3" t="s">
+        <v>59</v>
+      </c>
+      <c r="O3" t="s">
+        <v>53</v>
+      </c>
+      <c r="P3" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="n">
+        <v>1</v>
+      </c>
+      <c r="T3" t="s"/>
+      <c r="U3" t="n">
+        <v>1</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
+      <c r="Y3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>161</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>61</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>62</v>
+      </c>
+      <c r="J4" t="s">
+        <v>63</v>
+      </c>
+      <c r="K4" t="s">
+        <v>64</v>
+      </c>
+      <c r="L4" t="s">
+        <v>65</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1</v>
+      </c>
+      <c r="N4" t="s">
+        <v>66</v>
+      </c>
+      <c r="O4" t="s">
+        <v>53</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="n">
+        <v>4</v>
+      </c>
+      <c r="S4" t="n">
+        <v>1</v>
+      </c>
+      <c r="T4" t="s"/>
+      <c r="U4" t="n">
+        <v>1</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s">
+        <v>67</v>
+      </c>
+      <c r="X4" t="s">
+        <v>68</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>161</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>70</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>71</v>
+      </c>
+      <c r="J5" t="s">
+        <v>72</v>
+      </c>
+      <c r="K5" t="s">
+        <v>73</v>
+      </c>
+      <c r="L5" t="s">
+        <v>74</v>
+      </c>
+      <c r="M5" t="n">
+        <v>4</v>
+      </c>
+      <c r="N5" t="s"/>
+      <c r="O5" t="s"/>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="s"/>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="s"/>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s"/>
+      <c r="X5" t="s"/>
+      <c r="Y5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>161</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>76</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>77</v>
+      </c>
+      <c r="J6" t="s">
+        <v>78</v>
+      </c>
+      <c r="K6" t="s">
+        <v>79</v>
+      </c>
+      <c r="L6" t="s">
+        <v>80</v>
+      </c>
+      <c r="M6" t="n">
+        <v>2</v>
+      </c>
+      <c r="N6" t="s">
+        <v>66</v>
+      </c>
+      <c r="O6" t="s">
+        <v>53</v>
+      </c>
+      <c r="P6" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="s"/>
+      <c r="S6" t="n">
+        <v>1</v>
+      </c>
+      <c r="T6" t="s"/>
+      <c r="U6" t="n">
+        <v>2</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s"/>
+      <c r="X6" t="s"/>
+      <c r="Y6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>161</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>81</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>82</v>
+      </c>
+      <c r="J7" t="s">
+        <v>83</v>
+      </c>
+      <c r="K7" t="s">
+        <v>84</v>
+      </c>
+      <c r="L7" t="s">
+        <v>85</v>
+      </c>
+      <c r="M7" t="n">
+        <v>3</v>
+      </c>
+      <c r="N7" t="s">
+        <v>86</v>
+      </c>
+      <c r="O7" t="s">
+        <v>53</v>
+      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="n">
+        <v>3</v>
+      </c>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="n">
+        <v>3</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s"/>
+      <c r="X7" t="s"/>
+      <c r="Y7" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>161</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>87</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>88</v>
+      </c>
+      <c r="J8" t="s">
+        <v>89</v>
+      </c>
+      <c r="K8" t="s">
+        <v>90</v>
+      </c>
+      <c r="L8" t="s">
+        <v>91</v>
+      </c>
+      <c r="M8" t="n">
+        <v>5</v>
+      </c>
+      <c r="N8" t="s"/>
+      <c r="O8" t="s"/>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="s"/>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="s"/>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s"/>
+      <c r="X8" t="s"/>
+      <c r="Y8" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>161</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>92</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>93</v>
+      </c>
+      <c r="J9" t="s">
+        <v>94</v>
+      </c>
+      <c r="K9" t="s">
+        <v>95</v>
+      </c>
+      <c r="L9" t="s">
+        <v>96</v>
+      </c>
+      <c r="M9" t="n">
+        <v>4</v>
+      </c>
+      <c r="N9" t="s">
+        <v>97</v>
+      </c>
+      <c r="O9" t="s">
+        <v>53</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="s"/>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+      <c r="U9" t="s"/>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s"/>
+      <c r="X9" t="s"/>
+      <c r="Y9" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>161</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>98</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>99</v>
+      </c>
+      <c r="J10" t="s">
+        <v>100</v>
+      </c>
+      <c r="K10" t="s">
+        <v>101</v>
+      </c>
+      <c r="L10" t="s">
+        <v>102</v>
+      </c>
+      <c r="M10" t="n">
+        <v>4</v>
+      </c>
+      <c r="N10" t="s">
+        <v>97</v>
+      </c>
+      <c r="O10" t="s">
+        <v>53</v>
+      </c>
+      <c r="P10" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="s"/>
+      <c r="S10" t="s"/>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>5</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s"/>
+      <c r="X10" t="s"/>
+      <c r="Y10" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>161</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>103</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>104</v>
+      </c>
+      <c r="J11" t="s">
+        <v>105</v>
+      </c>
+      <c r="K11" t="s">
+        <v>106</v>
+      </c>
+      <c r="L11" t="s">
+        <v>107</v>
+      </c>
+      <c r="M11" t="n">
+        <v>1</v>
+      </c>
+      <c r="N11" t="s">
+        <v>108</v>
+      </c>
+      <c r="O11" t="s">
+        <v>109</v>
+      </c>
+      <c r="P11" t="s"/>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="s"/>
+      <c r="S11" t="s"/>
+      <c r="T11" t="s"/>
+      <c r="U11" t="s"/>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s"/>
+      <c r="X11" t="s"/>
+      <c r="Y11" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>161</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>110</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>111</v>
+      </c>
+      <c r="J12" t="s">
+        <v>112</v>
+      </c>
+      <c r="K12" t="s">
+        <v>113</v>
+      </c>
+      <c r="L12" t="s">
+        <v>114</v>
+      </c>
+      <c r="M12" t="n">
+        <v>5</v>
+      </c>
+      <c r="N12" t="s">
+        <v>115</v>
+      </c>
+      <c r="O12" t="s">
+        <v>53</v>
+      </c>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="s"/>
+      <c r="S12" t="s"/>
+      <c r="T12" t="s"/>
+      <c r="U12" t="s"/>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s">
+        <v>116</v>
+      </c>
+      <c r="X12" t="s">
+        <v>117</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>161</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>119</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>120</v>
+      </c>
+      <c r="J13" t="s">
+        <v>121</v>
+      </c>
+      <c r="K13" t="s">
+        <v>122</v>
+      </c>
+      <c r="L13" t="s">
+        <v>123</v>
+      </c>
+      <c r="M13" t="n">
+        <v>5</v>
+      </c>
+      <c r="N13" t="s">
+        <v>124</v>
+      </c>
+      <c r="O13" t="s">
+        <v>109</v>
+      </c>
+      <c r="P13" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q13" t="s"/>
+      <c r="R13" t="s"/>
+      <c r="S13" t="n">
+        <v>5</v>
+      </c>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>5</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s"/>
+      <c r="X13" t="s"/>
+      <c r="Y13" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>161</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>125</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>126</v>
+      </c>
+      <c r="J14" t="s">
+        <v>127</v>
+      </c>
+      <c r="K14" t="s">
+        <v>128</v>
+      </c>
+      <c r="L14" t="s">
+        <v>129</v>
+      </c>
+      <c r="M14" t="n">
+        <v>1</v>
+      </c>
+      <c r="N14" t="s">
+        <v>130</v>
+      </c>
+      <c r="O14" t="s">
+        <v>53</v>
+      </c>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="s"/>
+      <c r="S14" t="s"/>
+      <c r="T14" t="s"/>
+      <c r="U14" t="s"/>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s">
+        <v>131</v>
+      </c>
+      <c r="X14" t="s">
+        <v>132</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>161</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>134</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>135</v>
+      </c>
+      <c r="J15" t="s">
+        <v>136</v>
+      </c>
+      <c r="K15" t="s">
+        <v>137</v>
+      </c>
+      <c r="L15" t="s">
+        <v>138</v>
+      </c>
+      <c r="M15" t="n">
+        <v>4</v>
+      </c>
+      <c r="N15" t="s">
+        <v>139</v>
+      </c>
+      <c r="O15" t="s">
+        <v>140</v>
+      </c>
+      <c r="P15" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q15" t="s"/>
+      <c r="R15" t="s"/>
+      <c r="S15" t="s"/>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>4</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s">
+        <v>131</v>
+      </c>
+      <c r="X15" t="s">
+        <v>132</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>161</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>142</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>143</v>
+      </c>
+      <c r="J16" t="s">
+        <v>144</v>
+      </c>
+      <c r="K16" t="s">
+        <v>145</v>
+      </c>
+      <c r="L16" t="s">
+        <v>146</v>
+      </c>
+      <c r="M16" t="n">
+        <v>3</v>
+      </c>
+      <c r="N16" t="s">
+        <v>147</v>
+      </c>
+      <c r="O16" t="s">
+        <v>140</v>
+      </c>
+      <c r="P16" t="s"/>
+      <c r="Q16" t="s"/>
+      <c r="R16" t="s"/>
+      <c r="S16" t="s"/>
+      <c r="T16" t="s"/>
+      <c r="U16" t="s"/>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s"/>
+      <c r="X16" t="s"/>
+      <c r="Y16" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>161</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
+        <v>16</v>
+      </c>
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>148</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>149</v>
+      </c>
+      <c r="J17" t="s">
+        <v>150</v>
+      </c>
+      <c r="K17" t="s">
+        <v>151</v>
+      </c>
+      <c r="L17" t="s">
+        <v>152</v>
+      </c>
+      <c r="M17" t="n">
+        <v>5</v>
+      </c>
+      <c r="N17" t="s">
+        <v>153</v>
+      </c>
+      <c r="O17" t="s">
+        <v>154</v>
+      </c>
+      <c r="P17" t="s"/>
+      <c r="Q17" t="s"/>
+      <c r="R17" t="s"/>
+      <c r="S17" t="s"/>
+      <c r="T17" t="s"/>
+      <c r="U17" t="s"/>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s"/>
+      <c r="X17" t="s"/>
+      <c r="Y17" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>161</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
+        <v>17</v>
+      </c>
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>156</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>157</v>
+      </c>
+      <c r="J18" t="s">
+        <v>158</v>
+      </c>
+      <c r="K18" t="s">
+        <v>159</v>
+      </c>
+      <c r="L18" t="s">
+        <v>160</v>
+      </c>
+      <c r="M18" t="n">
+        <v>1</v>
+      </c>
+      <c r="N18" t="s">
+        <v>161</v>
+      </c>
+      <c r="O18" t="s">
+        <v>109</v>
+      </c>
+      <c r="P18" t="s"/>
+      <c r="Q18" t="s"/>
+      <c r="R18" t="s"/>
+      <c r="S18" t="s"/>
+      <c r="T18" t="s"/>
+      <c r="U18" t="s"/>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s"/>
+      <c r="X18" t="s"/>
+      <c r="Y18" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>161</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
+        <v>18</v>
+      </c>
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>162</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>163</v>
+      </c>
+      <c r="J19" t="s">
+        <v>164</v>
+      </c>
+      <c r="K19" t="s">
+        <v>165</v>
+      </c>
+      <c r="L19" t="s">
+        <v>166</v>
+      </c>
+      <c r="M19" t="n">
+        <v>1</v>
+      </c>
+      <c r="N19" t="s">
+        <v>167</v>
+      </c>
+      <c r="O19" t="s">
+        <v>154</v>
+      </c>
+      <c r="P19" t="s"/>
+      <c r="Q19" t="s"/>
+      <c r="R19" t="s"/>
+      <c r="S19" t="s"/>
+      <c r="T19" t="s"/>
+      <c r="U19" t="s"/>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s"/>
+      <c r="X19" t="s"/>
+      <c r="Y19" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>161</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
+        <v>19</v>
+      </c>
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>169</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>170</v>
+      </c>
+      <c r="J20" t="s">
+        <v>171</v>
+      </c>
+      <c r="K20" t="s">
+        <v>172</v>
+      </c>
+      <c r="L20" t="s">
+        <v>173</v>
+      </c>
+      <c r="M20" t="n">
+        <v>2</v>
+      </c>
+      <c r="N20" t="s">
+        <v>174</v>
+      </c>
+      <c r="O20" t="s">
+        <v>53</v>
+      </c>
+      <c r="P20" t="s"/>
+      <c r="Q20" t="n">
+        <v>2</v>
+      </c>
+      <c r="R20" t="n">
+        <v>4</v>
+      </c>
+      <c r="S20" t="s"/>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>2</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s"/>
+      <c r="X20" t="s"/>
+      <c r="Y20" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>161</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
+        <v>20</v>
+      </c>
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>176</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>177</v>
+      </c>
+      <c r="J21" t="s">
+        <v>178</v>
+      </c>
+      <c r="K21" t="s">
+        <v>179</v>
+      </c>
+      <c r="L21" t="s">
+        <v>180</v>
+      </c>
+      <c r="M21" t="n">
+        <v>2</v>
+      </c>
+      <c r="N21" t="s">
+        <v>174</v>
+      </c>
+      <c r="O21" t="s">
+        <v>53</v>
+      </c>
+      <c r="P21" t="s"/>
+      <c r="Q21" t="s"/>
+      <c r="R21" t="n">
+        <v>2</v>
+      </c>
+      <c r="S21" t="s"/>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>3</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s"/>
+      <c r="X21" t="s"/>
+      <c r="Y21" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>161</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
+        <v>21</v>
+      </c>
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>181</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>182</v>
+      </c>
+      <c r="J22" t="s">
+        <v>183</v>
+      </c>
+      <c r="K22" t="s">
+        <v>184</v>
+      </c>
+      <c r="L22" t="s">
+        <v>185</v>
+      </c>
+      <c r="M22" t="n">
+        <v>2</v>
+      </c>
+      <c r="N22" t="s">
+        <v>174</v>
+      </c>
+      <c r="O22" t="s">
+        <v>53</v>
+      </c>
+      <c r="P22" t="s"/>
+      <c r="Q22" t="s"/>
+      <c r="R22" t="s"/>
+      <c r="S22" t="s"/>
+      <c r="T22" t="s"/>
+      <c r="U22" t="s"/>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s"/>
+      <c r="X22" t="s"/>
+      <c r="Y22" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>161</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
+        <v>22</v>
+      </c>
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>187</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>188</v>
+      </c>
+      <c r="J23" t="s">
+        <v>189</v>
+      </c>
+      <c r="K23" t="s">
+        <v>190</v>
+      </c>
+      <c r="L23" t="s">
+        <v>191</v>
+      </c>
+      <c r="M23" t="n">
+        <v>5</v>
+      </c>
+      <c r="N23" t="s">
+        <v>192</v>
+      </c>
+      <c r="O23" t="s">
+        <v>140</v>
+      </c>
+      <c r="P23" t="s"/>
+      <c r="Q23" t="s"/>
+      <c r="R23" t="s"/>
+      <c r="S23" t="s"/>
+      <c r="T23" t="s"/>
+      <c r="U23" t="s"/>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s"/>
+      <c r="X23" t="s"/>
+      <c r="Y23" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>161</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
+        <v>23</v>
+      </c>
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>193</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>194</v>
+      </c>
+      <c r="J24" t="s">
+        <v>195</v>
+      </c>
+      <c r="K24" t="s">
+        <v>196</v>
+      </c>
+      <c r="L24" t="s">
+        <v>197</v>
+      </c>
+      <c r="M24" t="n">
+        <v>4</v>
+      </c>
+      <c r="N24" t="s">
+        <v>198</v>
+      </c>
+      <c r="O24" t="s">
+        <v>53</v>
+      </c>
+      <c r="P24" t="s"/>
+      <c r="Q24" t="s"/>
+      <c r="R24" t="s"/>
+      <c r="S24" t="s"/>
+      <c r="T24" t="s"/>
+      <c r="U24" t="s"/>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s"/>
+      <c r="X24" t="s"/>
+      <c r="Y24" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>161</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
+        <v>24</v>
+      </c>
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>200</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>201</v>
+      </c>
+      <c r="J25" t="s">
+        <v>202</v>
+      </c>
+      <c r="K25" t="s">
+        <v>203</v>
+      </c>
+      <c r="L25" t="s">
+        <v>204</v>
+      </c>
+      <c r="M25" t="n">
+        <v>4</v>
+      </c>
+      <c r="N25" t="s">
+        <v>198</v>
+      </c>
+      <c r="O25" t="s">
+        <v>109</v>
+      </c>
+      <c r="P25" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q25" t="s"/>
+      <c r="R25" t="n">
+        <v>4</v>
+      </c>
+      <c r="S25" t="s"/>
+      <c r="T25" t="s"/>
+      <c r="U25" t="n">
+        <v>3</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s"/>
+      <c r="X25" t="s"/>
+      <c r="Y25" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>161</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
+        <v>25</v>
+      </c>
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>205</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>206</v>
+      </c>
+      <c r="J26" t="s">
+        <v>207</v>
+      </c>
+      <c r="K26" t="s">
+        <v>208</v>
+      </c>
+      <c r="L26" t="s">
+        <v>209</v>
+      </c>
+      <c r="M26" t="n">
+        <v>1</v>
+      </c>
+      <c r="N26" t="s">
+        <v>210</v>
+      </c>
+      <c r="O26" t="s">
+        <v>53</v>
+      </c>
+      <c r="P26" t="s"/>
+      <c r="Q26" t="s"/>
+      <c r="R26" t="s"/>
+      <c r="S26" t="s"/>
+      <c r="T26" t="s"/>
+      <c r="U26" t="s"/>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s">
+        <v>211</v>
+      </c>
+      <c r="X26" t="s">
+        <v>212</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>161</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
+        <v>26</v>
+      </c>
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>214</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>215</v>
+      </c>
+      <c r="J27" t="s">
+        <v>216</v>
+      </c>
+      <c r="K27" t="s">
+        <v>217</v>
+      </c>
+      <c r="L27" t="s">
+        <v>218</v>
+      </c>
+      <c r="M27" t="n">
+        <v>3</v>
+      </c>
+      <c r="N27" t="s">
+        <v>219</v>
+      </c>
+      <c r="O27" t="s">
+        <v>140</v>
+      </c>
+      <c r="P27" t="s"/>
+      <c r="Q27" t="s"/>
+      <c r="R27" t="n">
+        <v>3</v>
+      </c>
+      <c r="S27" t="n">
+        <v>4</v>
+      </c>
+      <c r="T27" t="s"/>
+      <c r="U27" t="n">
+        <v>3</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s"/>
+      <c r="X27" t="s"/>
+      <c r="Y27" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>161</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
+        <v>27</v>
+      </c>
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>221</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>222</v>
+      </c>
+      <c r="J28" t="s">
+        <v>223</v>
+      </c>
+      <c r="K28" t="s">
+        <v>224</v>
+      </c>
+      <c r="L28" t="s">
+        <v>225</v>
+      </c>
+      <c r="M28" t="n">
+        <v>3</v>
+      </c>
+      <c r="N28" t="s">
+        <v>226</v>
+      </c>
+      <c r="O28" t="s">
+        <v>227</v>
+      </c>
+      <c r="P28" t="s"/>
+      <c r="Q28" t="s"/>
+      <c r="R28" t="s"/>
+      <c r="S28" t="n">
+        <v>3</v>
+      </c>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>3</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s"/>
+      <c r="X28" t="s"/>
+      <c r="Y28" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>161</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
+        <v>28</v>
+      </c>
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>229</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>230</v>
+      </c>
+      <c r="J29" t="s">
+        <v>231</v>
+      </c>
+      <c r="K29" t="s">
+        <v>232</v>
+      </c>
+      <c r="L29" t="s">
+        <v>233</v>
+      </c>
+      <c r="M29" t="n">
+        <v>3</v>
+      </c>
+      <c r="N29" t="s">
+        <v>234</v>
+      </c>
+      <c r="O29" t="s">
+        <v>227</v>
+      </c>
+      <c r="P29" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q29" t="s"/>
+      <c r="R29" t="n">
+        <v>3</v>
+      </c>
+      <c r="S29" t="s"/>
+      <c r="T29" t="s"/>
+      <c r="U29" t="n">
+        <v>3</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s"/>
+      <c r="X29" t="s"/>
+      <c r="Y29" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>161</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
+        <v>29</v>
+      </c>
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>236</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>237</v>
+      </c>
+      <c r="J30" t="s">
+        <v>238</v>
+      </c>
+      <c r="K30" t="s">
+        <v>239</v>
+      </c>
+      <c r="L30" t="s">
+        <v>240</v>
+      </c>
+      <c r="M30" t="n">
+        <v>1</v>
+      </c>
+      <c r="N30" t="s">
+        <v>234</v>
+      </c>
+      <c r="O30" t="s">
+        <v>227</v>
+      </c>
+      <c r="P30" t="s"/>
+      <c r="Q30" t="s"/>
+      <c r="R30" t="s"/>
+      <c r="S30" t="s"/>
+      <c r="T30" t="s"/>
+      <c r="U30" t="s"/>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s"/>
+      <c r="X30" t="s"/>
+      <c r="Y30" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>161</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
+        <v>30</v>
+      </c>
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>242</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>243</v>
+      </c>
+      <c r="J31" t="s">
+        <v>244</v>
+      </c>
+      <c r="K31" t="s">
+        <v>245</v>
+      </c>
+      <c r="L31" t="s">
+        <v>246</v>
+      </c>
+      <c r="M31" t="n">
+        <v>3</v>
+      </c>
+      <c r="N31" t="s">
+        <v>234</v>
+      </c>
+      <c r="O31" t="s">
+        <v>53</v>
+      </c>
+      <c r="P31" t="s"/>
+      <c r="Q31" t="s"/>
+      <c r="R31" t="n">
+        <v>4</v>
+      </c>
+      <c r="S31" t="s"/>
+      <c r="T31" t="s"/>
+      <c r="U31" t="n">
+        <v>4</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s"/>
+      <c r="X31" t="s"/>
+      <c r="Y31" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>161</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
+        <v>31</v>
+      </c>
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
+        <v>247</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>248</v>
+      </c>
+      <c r="J32" t="s">
+        <v>249</v>
+      </c>
+      <c r="K32" t="s">
+        <v>250</v>
+      </c>
+      <c r="L32" t="s">
+        <v>251</v>
+      </c>
+      <c r="M32" t="n">
+        <v>2</v>
+      </c>
+      <c r="N32" t="s">
+        <v>252</v>
+      </c>
+      <c r="O32" t="s">
+        <v>140</v>
+      </c>
+      <c r="P32" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q32" t="s"/>
+      <c r="R32" t="n">
+        <v>4</v>
+      </c>
+      <c r="S32" t="s"/>
+      <c r="T32" t="s"/>
+      <c r="U32" t="n">
+        <v>4</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s"/>
+      <c r="X32" t="s"/>
+      <c r="Y32" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>161</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
+        <v>32</v>
+      </c>
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>254</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>255</v>
+      </c>
+      <c r="J33" t="s">
+        <v>256</v>
+      </c>
+      <c r="K33" t="s">
+        <v>257</v>
+      </c>
+      <c r="L33" t="s">
+        <v>258</v>
+      </c>
+      <c r="M33" t="n">
+        <v>4</v>
+      </c>
+      <c r="N33" t="s">
+        <v>259</v>
+      </c>
+      <c r="O33" t="s">
+        <v>53</v>
+      </c>
+      <c r="P33" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>4</v>
+      </c>
+      <c r="R33" t="n">
+        <v>3</v>
+      </c>
+      <c r="S33" t="n">
+        <v>4</v>
+      </c>
+      <c r="T33" t="s"/>
+      <c r="U33" t="n">
+        <v>4</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s"/>
+      <c r="X33" t="s"/>
+      <c r="Y33" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>161</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
+        <v>33</v>
+      </c>
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" t="s">
+        <v>261</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>262</v>
+      </c>
+      <c r="J34" t="s">
+        <v>263</v>
+      </c>
+      <c r="K34" t="s">
+        <v>264</v>
+      </c>
+      <c r="L34" t="s">
+        <v>265</v>
+      </c>
+      <c r="M34" t="n">
+        <v>2</v>
+      </c>
+      <c r="N34" t="s">
+        <v>266</v>
+      </c>
+      <c r="O34" t="s">
+        <v>109</v>
+      </c>
+      <c r="P34" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>2</v>
+      </c>
+      <c r="R34" t="n">
+        <v>2</v>
+      </c>
+      <c r="S34" t="n">
+        <v>2</v>
+      </c>
+      <c r="T34" t="s"/>
+      <c r="U34" t="n">
+        <v>2</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s"/>
+      <c r="X34" t="s"/>
+      <c r="Y34" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>161</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
+        <v>34</v>
+      </c>
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" t="s">
+        <v>268</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>269</v>
+      </c>
+      <c r="J35" t="s">
+        <v>270</v>
+      </c>
+      <c r="K35" t="s">
+        <v>271</v>
+      </c>
+      <c r="L35" t="s">
+        <v>272</v>
+      </c>
+      <c r="M35" t="n">
+        <v>1</v>
+      </c>
+      <c r="N35" t="s">
+        <v>273</v>
+      </c>
+      <c r="O35" t="s">
+        <v>53</v>
+      </c>
+      <c r="P35" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>3</v>
+      </c>
+      <c r="R35" t="n">
+        <v>3</v>
+      </c>
+      <c r="S35" t="n">
+        <v>3</v>
+      </c>
+      <c r="T35" t="s"/>
+      <c r="U35" t="n">
+        <v>1</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s">
+        <v>274</v>
+      </c>
+      <c r="X35" t="s">
+        <v>275</v>
+      </c>
+      <c r="Y35" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>161</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
+        <v>35</v>
+      </c>
+      <c r="E36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" t="s">
+        <v>277</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>278</v>
+      </c>
+      <c r="J36" t="s">
+        <v>279</v>
+      </c>
+      <c r="K36" t="s">
+        <v>280</v>
+      </c>
+      <c r="L36" t="s">
+        <v>281</v>
+      </c>
+      <c r="M36" t="n">
+        <v>2</v>
+      </c>
+      <c r="N36" t="s">
+        <v>282</v>
+      </c>
+      <c r="O36" t="s">
+        <v>53</v>
+      </c>
+      <c r="P36" t="s"/>
+      <c r="Q36" t="s"/>
+      <c r="R36" t="s"/>
+      <c r="S36" t="s"/>
+      <c r="T36" t="s"/>
+      <c r="U36" t="s"/>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s">
+        <v>283</v>
+      </c>
+      <c r="X36" t="s">
+        <v>284</v>
+      </c>
+      <c r="Y36" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>161</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
+        <v>36</v>
+      </c>
+      <c r="E37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" t="s">
+        <v>286</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
+        <v>287</v>
+      </c>
+      <c r="J37" t="s">
+        <v>288</v>
+      </c>
+      <c r="K37" t="s">
+        <v>289</v>
+      </c>
+      <c r="L37" t="s">
+        <v>290</v>
+      </c>
+      <c r="M37" t="n">
+        <v>1</v>
+      </c>
+      <c r="N37" t="s"/>
+      <c r="O37" t="s"/>
+      <c r="P37" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>1</v>
+      </c>
+      <c r="R37" t="n">
+        <v>3</v>
+      </c>
+      <c r="S37" t="n">
+        <v>2</v>
+      </c>
+      <c r="T37" t="s"/>
+      <c r="U37" t="n">
+        <v>3</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s">
+        <v>291</v>
+      </c>
+      <c r="X37" t="s">
+        <v>292</v>
+      </c>
+      <c r="Y37" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>161</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
+        <v>37</v>
+      </c>
+      <c r="E38" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" t="s">
+        <v>294</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
+        <v>295</v>
+      </c>
+      <c r="J38" t="s">
+        <v>296</v>
+      </c>
+      <c r="K38" t="s">
+        <v>297</v>
+      </c>
+      <c r="L38" t="s">
+        <v>298</v>
+      </c>
+      <c r="M38" t="n">
+        <v>4</v>
+      </c>
+      <c r="N38" t="s"/>
+      <c r="O38" t="s"/>
+      <c r="P38" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>5</v>
+      </c>
+      <c r="R38" t="n">
+        <v>4</v>
+      </c>
+      <c r="S38" t="n">
+        <v>4</v>
+      </c>
+      <c r="T38" t="s"/>
+      <c r="U38" t="n">
+        <v>5</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s">
+        <v>299</v>
+      </c>
+      <c r="X38" t="s">
+        <v>300</v>
+      </c>
+      <c r="Y38" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>161</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
+        <v>38</v>
+      </c>
+      <c r="E39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" t="s">
+        <v>302</v>
+      </c>
+      <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" t="s">
+        <v>303</v>
+      </c>
+      <c r="J39" t="s">
+        <v>304</v>
+      </c>
+      <c r="K39" t="s">
+        <v>305</v>
+      </c>
+      <c r="L39" t="s">
+        <v>306</v>
+      </c>
+      <c r="M39" t="n">
+        <v>1</v>
+      </c>
+      <c r="N39" t="s">
+        <v>307</v>
+      </c>
+      <c r="O39" t="s">
+        <v>140</v>
+      </c>
+      <c r="P39" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>3</v>
+      </c>
+      <c r="R39" t="n">
+        <v>3</v>
+      </c>
+      <c r="S39" t="n">
+        <v>1</v>
+      </c>
+      <c r="T39" t="s"/>
+      <c r="U39" t="n">
+        <v>1</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s">
+        <v>308</v>
+      </c>
+      <c r="X39" t="s">
+        <v>309</v>
+      </c>
+      <c r="Y39" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>161</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
+        <v>39</v>
+      </c>
+      <c r="E40" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" t="s">
+        <v>311</v>
+      </c>
+      <c r="G40" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" t="s">
+        <v>312</v>
+      </c>
+      <c r="J40" t="s">
+        <v>313</v>
+      </c>
+      <c r="K40" t="s">
+        <v>314</v>
+      </c>
+      <c r="L40" t="s">
+        <v>315</v>
+      </c>
+      <c r="M40" t="n">
+        <v>5</v>
+      </c>
+      <c r="N40" t="s">
+        <v>316</v>
+      </c>
+      <c r="O40" t="s">
+        <v>53</v>
+      </c>
+      <c r="P40" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>5</v>
+      </c>
+      <c r="R40" t="n">
+        <v>5</v>
+      </c>
+      <c r="S40" t="n">
+        <v>4</v>
+      </c>
+      <c r="T40" t="s"/>
+      <c r="U40" t="n">
+        <v>5</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s">
+        <v>308</v>
+      </c>
+      <c r="X40" t="s">
+        <v>309</v>
+      </c>
+      <c r="Y40" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>161</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
+        <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" t="s">
+        <v>318</v>
+      </c>
+      <c r="G41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" t="s">
+        <v>47</v>
+      </c>
+      <c r="I41" t="s">
+        <v>319</v>
+      </c>
+      <c r="J41" t="s">
+        <v>320</v>
+      </c>
+      <c r="K41" t="s">
+        <v>321</v>
+      </c>
+      <c r="L41" t="s">
+        <v>322</v>
+      </c>
+      <c r="M41" t="n">
+        <v>3</v>
+      </c>
+      <c r="N41" t="s">
+        <v>323</v>
+      </c>
+      <c r="O41" t="s">
+        <v>154</v>
+      </c>
+      <c r="P41" t="s"/>
+      <c r="Q41" t="s"/>
+      <c r="R41" t="s"/>
+      <c r="S41" t="s"/>
+      <c r="T41" t="s"/>
+      <c r="U41" t="s"/>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s">
+        <v>324</v>
+      </c>
+      <c r="X41" t="s">
+        <v>325</v>
+      </c>
+      <c r="Y41" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>161</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42" t="s">
+        <v>327</v>
+      </c>
+      <c r="G42" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" t="s">
+        <v>47</v>
+      </c>
+      <c r="I42" t="s">
+        <v>328</v>
+      </c>
+      <c r="J42" t="s">
+        <v>329</v>
+      </c>
+      <c r="K42" t="s">
+        <v>330</v>
+      </c>
+      <c r="L42" t="s">
+        <v>331</v>
+      </c>
+      <c r="M42" t="n">
+        <v>1</v>
+      </c>
+      <c r="N42" t="s"/>
+      <c r="O42" t="s"/>
+      <c r="P42" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>5</v>
+      </c>
+      <c r="R42" t="n">
+        <v>5</v>
+      </c>
+      <c r="S42" t="n">
+        <v>5</v>
+      </c>
+      <c r="T42" t="s"/>
+      <c r="U42" t="n">
+        <v>1</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s">
+        <v>332</v>
+      </c>
+      <c r="X42" t="s">
+        <v>333</v>
+      </c>
+      <c r="Y42" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>161</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43" t="s">
+        <v>335</v>
+      </c>
+      <c r="G43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H43" t="s">
+        <v>47</v>
+      </c>
+      <c r="I43" t="s">
+        <v>336</v>
+      </c>
+      <c r="J43" t="s">
+        <v>337</v>
+      </c>
+      <c r="K43" t="s">
+        <v>338</v>
+      </c>
+      <c r="L43" t="s">
+        <v>339</v>
+      </c>
+      <c r="M43" t="n">
+        <v>4</v>
+      </c>
+      <c r="N43" t="s"/>
+      <c r="O43" t="s"/>
+      <c r="P43" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>4</v>
+      </c>
+      <c r="R43" t="n">
+        <v>4</v>
+      </c>
+      <c r="S43" t="n">
+        <v>4</v>
+      </c>
+      <c r="T43" t="s"/>
+      <c r="U43" t="n">
+        <v>4</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s">
+        <v>332</v>
+      </c>
+      <c r="X43" t="s">
+        <v>333</v>
+      </c>
+      <c r="Y43" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>161</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>44</v>
+      </c>
+      <c r="F44" t="s">
+        <v>341</v>
+      </c>
+      <c r="G44" t="s">
+        <v>46</v>
+      </c>
+      <c r="H44" t="s">
+        <v>47</v>
+      </c>
+      <c r="I44" t="s">
+        <v>342</v>
+      </c>
+      <c r="J44" t="s">
+        <v>343</v>
+      </c>
+      <c r="K44" t="s">
+        <v>344</v>
+      </c>
+      <c r="L44" t="s">
+        <v>345</v>
+      </c>
+      <c r="M44" t="n">
+        <v>4</v>
+      </c>
+      <c r="N44" t="s">
+        <v>346</v>
+      </c>
+      <c r="O44" t="s">
+        <v>53</v>
+      </c>
+      <c r="P44" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>5</v>
+      </c>
+      <c r="R44" t="n">
+        <v>5</v>
+      </c>
+      <c r="S44" t="n">
+        <v>4</v>
+      </c>
+      <c r="T44" t="s"/>
+      <c r="U44" t="n">
+        <v>5</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s">
+        <v>347</v>
+      </c>
+      <c r="X44" t="s">
+        <v>348</v>
+      </c>
+      <c r="Y44" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>161</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>44</v>
+      </c>
+      <c r="F45" t="s">
+        <v>350</v>
+      </c>
+      <c r="G45" t="s">
+        <v>46</v>
+      </c>
+      <c r="H45" t="s">
+        <v>47</v>
+      </c>
+      <c r="I45" t="s">
+        <v>351</v>
+      </c>
+      <c r="J45" t="s">
+        <v>352</v>
+      </c>
+      <c r="K45" t="s">
+        <v>353</v>
+      </c>
+      <c r="L45" t="s">
+        <v>354</v>
+      </c>
+      <c r="M45" t="n">
+        <v>4</v>
+      </c>
+      <c r="N45" t="s">
+        <v>355</v>
+      </c>
+      <c r="O45" t="s">
+        <v>109</v>
+      </c>
+      <c r="P45" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>4</v>
+      </c>
+      <c r="R45" t="n">
+        <v>3</v>
+      </c>
+      <c r="S45" t="n">
+        <v>4</v>
+      </c>
+      <c r="T45" t="s"/>
+      <c r="U45" t="n">
+        <v>3</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s">
+        <v>356</v>
+      </c>
+      <c r="X45" t="s">
+        <v>357</v>
+      </c>
+      <c r="Y45" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>161</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>44</v>
+      </c>
+      <c r="F46" t="s">
+        <v>359</v>
+      </c>
+      <c r="G46" t="s">
+        <v>46</v>
+      </c>
+      <c r="H46" t="s">
+        <v>47</v>
+      </c>
+      <c r="I46" t="s">
+        <v>360</v>
+      </c>
+      <c r="J46" t="s">
+        <v>361</v>
+      </c>
+      <c r="K46" t="s">
+        <v>362</v>
+      </c>
+      <c r="L46" t="s">
+        <v>363</v>
+      </c>
+      <c r="M46" t="n">
+        <v>4</v>
+      </c>
+      <c r="N46" t="s">
+        <v>364</v>
+      </c>
+      <c r="O46" t="s">
+        <v>53</v>
+      </c>
+      <c r="P46" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>3</v>
+      </c>
+      <c r="R46" t="n">
+        <v>4</v>
+      </c>
+      <c r="S46" t="n">
+        <v>4</v>
+      </c>
+      <c r="T46" t="s"/>
+      <c r="U46" t="n">
+        <v>4</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s">
+        <v>365</v>
+      </c>
+      <c r="X46" t="s">
+        <v>366</v>
+      </c>
+      <c r="Y46" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>161</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>44</v>
+      </c>
+      <c r="F47" t="s">
+        <v>368</v>
+      </c>
+      <c r="G47" t="s">
+        <v>46</v>
+      </c>
+      <c r="H47" t="s">
+        <v>47</v>
+      </c>
+      <c r="I47" t="s">
+        <v>369</v>
+      </c>
+      <c r="J47" t="s">
+        <v>370</v>
+      </c>
+      <c r="K47" t="s">
+        <v>371</v>
+      </c>
+      <c r="L47" t="s">
+        <v>372</v>
+      </c>
+      <c r="M47" t="n">
+        <v>4</v>
+      </c>
+      <c r="N47" t="s"/>
+      <c r="O47" t="s"/>
+      <c r="P47" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>5</v>
+      </c>
+      <c r="R47" t="n">
+        <v>5</v>
+      </c>
+      <c r="S47" t="n">
+        <v>5</v>
+      </c>
+      <c r="T47" t="s"/>
+      <c r="U47" t="n">
+        <v>5</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s">
+        <v>373</v>
+      </c>
+      <c r="X47" t="s">
+        <v>374</v>
+      </c>
+      <c r="Y47" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>161</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>44</v>
+      </c>
+      <c r="F48" t="s">
+        <v>376</v>
+      </c>
+      <c r="G48" t="s">
+        <v>46</v>
+      </c>
+      <c r="H48" t="s">
+        <v>47</v>
+      </c>
+      <c r="I48" t="s">
+        <v>377</v>
+      </c>
+      <c r="J48" t="s">
+        <v>370</v>
+      </c>
+      <c r="K48" t="s">
+        <v>378</v>
+      </c>
+      <c r="L48" t="s">
+        <v>379</v>
+      </c>
+      <c r="M48" t="n">
+        <v>5</v>
+      </c>
+      <c r="N48" t="s">
+        <v>380</v>
+      </c>
+      <c r="O48" t="s">
+        <v>140</v>
+      </c>
+      <c r="P48" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>4</v>
+      </c>
+      <c r="R48" t="n">
+        <v>4</v>
+      </c>
+      <c r="S48" t="n">
+        <v>5</v>
+      </c>
+      <c r="T48" t="s"/>
+      <c r="U48" t="n">
+        <v>4</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s">
+        <v>373</v>
+      </c>
+      <c r="X48" t="s">
+        <v>374</v>
+      </c>
+      <c r="Y48" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>161</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>44</v>
+      </c>
+      <c r="F49" t="s">
+        <v>382</v>
+      </c>
+      <c r="G49" t="s">
+        <v>46</v>
+      </c>
+      <c r="H49" t="s">
+        <v>47</v>
+      </c>
+      <c r="I49" t="s">
+        <v>383</v>
+      </c>
+      <c r="J49" t="s">
+        <v>384</v>
+      </c>
+      <c r="K49" t="s">
+        <v>385</v>
+      </c>
+      <c r="L49" t="s">
+        <v>386</v>
+      </c>
+      <c r="M49" t="n">
+        <v>5</v>
+      </c>
+      <c r="N49" t="s">
+        <v>387</v>
+      </c>
+      <c r="O49" t="s">
+        <v>109</v>
+      </c>
+      <c r="P49" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>5</v>
+      </c>
+      <c r="R49" t="n">
+        <v>5</v>
+      </c>
+      <c r="S49" t="n">
+        <v>5</v>
+      </c>
+      <c r="T49" t="s"/>
+      <c r="U49" t="n">
+        <v>5</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s">
+        <v>373</v>
+      </c>
+      <c r="X49" t="s">
+        <v>374</v>
+      </c>
+      <c r="Y49" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>161</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>44</v>
+      </c>
+      <c r="F50" t="s">
+        <v>389</v>
+      </c>
+      <c r="G50" t="s">
+        <v>46</v>
+      </c>
+      <c r="H50" t="s">
+        <v>47</v>
+      </c>
+      <c r="I50" t="s">
+        <v>390</v>
+      </c>
+      <c r="J50" t="s">
+        <v>391</v>
+      </c>
+      <c r="K50" t="s">
+        <v>392</v>
+      </c>
+      <c r="L50" t="s">
+        <v>393</v>
+      </c>
+      <c r="M50" t="n">
+        <v>1</v>
+      </c>
+      <c r="N50" t="s">
+        <v>380</v>
+      </c>
+      <c r="O50" t="s">
+        <v>154</v>
+      </c>
+      <c r="P50" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>1</v>
+      </c>
+      <c r="R50" t="n">
+        <v>1</v>
+      </c>
+      <c r="S50" t="n">
+        <v>1</v>
+      </c>
+      <c r="T50" t="s"/>
+      <c r="U50" t="n">
+        <v>1</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s">
+        <v>394</v>
+      </c>
+      <c r="X50" t="s">
+        <v>395</v>
+      </c>
+      <c r="Y50" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>161</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>44</v>
+      </c>
+      <c r="F51" t="s">
+        <v>397</v>
+      </c>
+      <c r="G51" t="s">
+        <v>46</v>
+      </c>
+      <c r="H51" t="s">
+        <v>47</v>
+      </c>
+      <c r="I51" t="s">
+        <v>398</v>
+      </c>
+      <c r="J51" t="s">
+        <v>399</v>
+      </c>
+      <c r="K51" t="s">
+        <v>400</v>
+      </c>
+      <c r="L51" t="s">
+        <v>401</v>
+      </c>
+      <c r="M51" t="n">
+        <v>1</v>
+      </c>
+      <c r="N51" t="s">
+        <v>387</v>
+      </c>
+      <c r="O51" t="s">
+        <v>109</v>
+      </c>
+      <c r="P51" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>3</v>
+      </c>
+      <c r="R51" t="n">
+        <v>5</v>
+      </c>
+      <c r="S51" t="n">
+        <v>2</v>
+      </c>
+      <c r="T51" t="s"/>
+      <c r="U51" t="n">
+        <v>1</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s">
+        <v>402</v>
+      </c>
+      <c r="X51" t="s">
+        <v>403</v>
+      </c>
+      <c r="Y51" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>161</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>44</v>
+      </c>
+      <c r="F52" t="s">
+        <v>405</v>
+      </c>
+      <c r="G52" t="s">
+        <v>46</v>
+      </c>
+      <c r="H52" t="s">
+        <v>47</v>
+      </c>
+      <c r="I52" t="s">
+        <v>406</v>
+      </c>
+      <c r="J52" t="s">
+        <v>407</v>
+      </c>
+      <c r="K52" t="s">
+        <v>408</v>
+      </c>
+      <c r="L52" t="s">
+        <v>409</v>
+      </c>
+      <c r="M52" t="n">
+        <v>1</v>
+      </c>
+      <c r="N52" t="s">
+        <v>387</v>
+      </c>
+      <c r="O52" t="s">
+        <v>109</v>
+      </c>
+      <c r="P52" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>1</v>
+      </c>
+      <c r="R52" t="n">
+        <v>1</v>
+      </c>
+      <c r="S52" t="n">
+        <v>1</v>
+      </c>
+      <c r="T52" t="s"/>
+      <c r="U52" t="n">
+        <v>2</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s">
+        <v>402</v>
+      </c>
+      <c r="X52" t="s">
+        <v>403</v>
+      </c>
+      <c r="Y52" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>161</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>44</v>
+      </c>
+      <c r="F53" t="s">
+        <v>411</v>
+      </c>
+      <c r="G53" t="s">
+        <v>46</v>
+      </c>
+      <c r="H53" t="s">
+        <v>47</v>
+      </c>
+      <c r="I53" t="s">
+        <v>412</v>
+      </c>
+      <c r="J53" t="s">
+        <v>413</v>
+      </c>
+      <c r="K53" t="s">
+        <v>414</v>
+      </c>
+      <c r="L53" t="s">
+        <v>415</v>
+      </c>
+      <c r="M53" t="n">
+        <v>1</v>
+      </c>
+      <c r="N53" t="s">
+        <v>416</v>
+      </c>
+      <c r="O53" t="s">
+        <v>109</v>
+      </c>
+      <c r="P53" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>1</v>
+      </c>
+      <c r="R53" t="n">
+        <v>1</v>
+      </c>
+      <c r="S53" t="n">
+        <v>1</v>
+      </c>
+      <c r="T53" t="s"/>
+      <c r="U53" t="n">
+        <v>1</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s">
+        <v>417</v>
+      </c>
+      <c r="X53" t="s">
+        <v>418</v>
+      </c>
+      <c r="Y53" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>161</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>44</v>
+      </c>
+      <c r="F54" t="s">
+        <v>420</v>
+      </c>
+      <c r="G54" t="s">
+        <v>46</v>
+      </c>
+      <c r="H54" t="s">
+        <v>47</v>
+      </c>
+      <c r="I54" t="s">
+        <v>421</v>
+      </c>
+      <c r="J54" t="s">
+        <v>422</v>
+      </c>
+      <c r="K54" t="s">
+        <v>423</v>
+      </c>
+      <c r="L54" t="s">
+        <v>424</v>
+      </c>
+      <c r="M54" t="n">
+        <v>4</v>
+      </c>
+      <c r="N54" t="s"/>
+      <c r="O54" t="s"/>
+      <c r="P54" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>4</v>
+      </c>
+      <c r="R54" t="n">
+        <v>4</v>
+      </c>
+      <c r="S54" t="n">
+        <v>5</v>
+      </c>
+      <c r="T54" t="s"/>
+      <c r="U54" t="n">
+        <v>3</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s">
+        <v>417</v>
+      </c>
+      <c r="X54" t="s">
+        <v>418</v>
+      </c>
+      <c r="Y54" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>161</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>44</v>
+      </c>
+      <c r="F55" t="s">
+        <v>426</v>
+      </c>
+      <c r="G55" t="s">
+        <v>46</v>
+      </c>
+      <c r="H55" t="s">
+        <v>47</v>
+      </c>
+      <c r="I55" t="s">
+        <v>427</v>
+      </c>
+      <c r="J55" t="s">
+        <v>428</v>
+      </c>
+      <c r="K55" t="s">
+        <v>429</v>
+      </c>
+      <c r="L55" t="s">
+        <v>430</v>
+      </c>
+      <c r="M55" t="n">
+        <v>5</v>
+      </c>
+      <c r="N55" t="s">
+        <v>431</v>
+      </c>
+      <c r="O55" t="s">
+        <v>109</v>
+      </c>
+      <c r="P55" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q55" t="s"/>
+      <c r="R55" t="s"/>
+      <c r="S55" t="n">
+        <v>5</v>
+      </c>
+      <c r="T55" t="s"/>
+      <c r="U55" t="n">
+        <v>5</v>
+      </c>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s">
+        <v>417</v>
+      </c>
+      <c r="X55" t="s">
+        <v>418</v>
+      </c>
+      <c r="Y55" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>161</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>44</v>
+      </c>
+      <c r="F56" t="s">
+        <v>433</v>
+      </c>
+      <c r="G56" t="s">
+        <v>46</v>
+      </c>
+      <c r="H56" t="s">
+        <v>47</v>
+      </c>
+      <c r="I56" t="s">
+        <v>434</v>
+      </c>
+      <c r="J56" t="s">
+        <v>435</v>
+      </c>
+      <c r="K56" t="s">
+        <v>436</v>
+      </c>
+      <c r="L56" t="s">
+        <v>437</v>
+      </c>
+      <c r="M56" t="n">
+        <v>1</v>
+      </c>
+      <c r="N56" t="s">
+        <v>438</v>
+      </c>
+      <c r="O56" t="s">
+        <v>53</v>
+      </c>
+      <c r="P56" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>1</v>
+      </c>
+      <c r="R56" t="n">
+        <v>1</v>
+      </c>
+      <c r="S56" t="n">
+        <v>1</v>
+      </c>
+      <c r="T56" t="s"/>
+      <c r="U56" t="n">
+        <v>1</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s">
+        <v>439</v>
+      </c>
+      <c r="X56" t="s">
+        <v>440</v>
+      </c>
+      <c r="Y56" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>161</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>44</v>
+      </c>
+      <c r="F57" t="s">
+        <v>442</v>
+      </c>
+      <c r="G57" t="s">
+        <v>46</v>
+      </c>
+      <c r="H57" t="s">
+        <v>47</v>
+      </c>
+      <c r="I57" t="s">
+        <v>443</v>
+      </c>
+      <c r="J57" t="s">
+        <v>444</v>
+      </c>
+      <c r="K57" t="s">
+        <v>445</v>
+      </c>
+      <c r="L57" t="s">
+        <v>446</v>
+      </c>
+      <c r="M57" t="n">
+        <v>3</v>
+      </c>
+      <c r="N57" t="s">
+        <v>447</v>
+      </c>
+      <c r="O57" t="s">
+        <v>227</v>
+      </c>
+      <c r="P57" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>2</v>
+      </c>
+      <c r="R57" t="n">
+        <v>2</v>
+      </c>
+      <c r="S57" t="n">
+        <v>4</v>
+      </c>
+      <c r="T57" t="s"/>
+      <c r="U57" t="n">
+        <v>1</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s">
+        <v>448</v>
+      </c>
+      <c r="X57" t="s">
+        <v>449</v>
+      </c>
+      <c r="Y57" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>161</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>44</v>
+      </c>
+      <c r="F58" t="s">
+        <v>451</v>
+      </c>
+      <c r="G58" t="s">
+        <v>46</v>
+      </c>
+      <c r="H58" t="s">
+        <v>47</v>
+      </c>
+      <c r="I58" t="s">
+        <v>452</v>
+      </c>
+      <c r="J58" t="s">
+        <v>453</v>
+      </c>
+      <c r="K58" t="s">
+        <v>454</v>
+      </c>
+      <c r="L58" t="s">
+        <v>455</v>
+      </c>
+      <c r="M58" t="n">
+        <v>5</v>
+      </c>
+      <c r="N58" t="s">
+        <v>456</v>
+      </c>
+      <c r="O58" t="s">
+        <v>53</v>
+      </c>
+      <c r="P58" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>5</v>
+      </c>
+      <c r="R58" t="n">
+        <v>4</v>
+      </c>
+      <c r="S58" t="n">
+        <v>5</v>
+      </c>
+      <c r="T58" t="s"/>
+      <c r="U58" t="n">
+        <v>5</v>
+      </c>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s">
+        <v>457</v>
+      </c>
+      <c r="X58" t="s">
+        <v>458</v>
+      </c>
+      <c r="Y58" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>161</v>
+      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
+      <c r="D59" t="n">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>44</v>
+      </c>
+      <c r="F59" t="s">
+        <v>460</v>
+      </c>
+      <c r="G59" t="s">
+        <v>46</v>
+      </c>
+      <c r="H59" t="s">
+        <v>47</v>
+      </c>
+      <c r="I59" t="s">
+        <v>461</v>
+      </c>
+      <c r="J59" t="s">
+        <v>462</v>
+      </c>
+      <c r="K59" t="s">
+        <v>463</v>
+      </c>
+      <c r="L59" t="s">
+        <v>464</v>
+      </c>
+      <c r="M59" t="n">
+        <v>4</v>
+      </c>
+      <c r="N59" t="s"/>
+      <c r="O59" t="s"/>
+      <c r="P59" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>3</v>
+      </c>
+      <c r="R59" t="n">
+        <v>5</v>
+      </c>
+      <c r="S59" t="n">
+        <v>3</v>
+      </c>
+      <c r="T59" t="s"/>
+      <c r="U59" t="n">
+        <v>3</v>
+      </c>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="s">
+        <v>465</v>
+      </c>
+      <c r="X59" t="s">
+        <v>466</v>
+      </c>
+      <c r="Y59" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>161</v>
+      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
+      <c r="D60" t="n">
+        <v>59</v>
+      </c>
+      <c r="E60" t="s">
+        <v>44</v>
+      </c>
+      <c r="F60" t="s">
+        <v>468</v>
+      </c>
+      <c r="G60" t="s">
+        <v>46</v>
+      </c>
+      <c r="H60" t="s">
+        <v>47</v>
+      </c>
+      <c r="I60" t="s">
+        <v>469</v>
+      </c>
+      <c r="J60" t="s">
+        <v>470</v>
+      </c>
+      <c r="K60" t="s">
+        <v>471</v>
+      </c>
+      <c r="L60" t="s">
+        <v>472</v>
+      </c>
+      <c r="M60" t="n">
+        <v>1</v>
+      </c>
+      <c r="N60" t="s">
+        <v>473</v>
+      </c>
+      <c r="O60" t="s">
+        <v>53</v>
+      </c>
+      <c r="P60" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q60" t="s"/>
+      <c r="R60" t="n">
+        <v>2</v>
+      </c>
+      <c r="S60" t="n">
+        <v>1</v>
+      </c>
+      <c r="T60" t="s"/>
+      <c r="U60" t="n">
+        <v>1</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="s">
+        <v>465</v>
+      </c>
+      <c r="X60" t="s">
+        <v>466</v>
+      </c>
+      <c r="Y60" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>161</v>
+      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
+      <c r="D61" t="n">
+        <v>60</v>
+      </c>
+      <c r="E61" t="s">
+        <v>44</v>
+      </c>
+      <c r="F61" t="s">
+        <v>475</v>
+      </c>
+      <c r="G61" t="s">
+        <v>46</v>
+      </c>
+      <c r="H61" t="s">
+        <v>47</v>
+      </c>
+      <c r="I61" t="s">
+        <v>476</v>
+      </c>
+      <c r="J61" t="s">
+        <v>477</v>
+      </c>
+      <c r="K61" t="s">
+        <v>478</v>
+      </c>
+      <c r="L61" t="s">
+        <v>479</v>
+      </c>
+      <c r="M61" t="n">
+        <v>4</v>
+      </c>
+      <c r="N61" t="s">
+        <v>480</v>
+      </c>
+      <c r="O61" t="s">
+        <v>53</v>
+      </c>
+      <c r="P61" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>5</v>
+      </c>
+      <c r="R61" t="n">
+        <v>3</v>
+      </c>
+      <c r="S61" t="n">
+        <v>4</v>
+      </c>
+      <c r="T61" t="s"/>
+      <c r="U61" t="n">
+        <v>5</v>
+      </c>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="s">
+        <v>481</v>
+      </c>
+      <c r="X61" t="s">
+        <v>482</v>
+      </c>
+      <c r="Y61" t="s">
+        <v>483</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_593.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_593.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="484">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="544">
   <si>
     <t>STR#</t>
   </si>
@@ -150,6 +150,9 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>Margaret M</t>
+  </si>
+  <si>
     <t>07/08/2018</t>
   </si>
   <si>
@@ -180,6 +183,9 @@
     <t xml:space="preserve"> traveled with family</t>
   </si>
   <si>
+    <t>Rafaela T</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32735-d78315-r550329962-Quality_Inn_Suites_Montebello-Montebello_California.html</t>
   </si>
   <si>
@@ -201,6 +207,9 @@
     <t>Don't ever stay here!Our experience was terrible from the moment we stepped through the doors. We had to wait forever for someone to check us in because the person that was working the front desk was incredibly disorganized and couldn't solve anyone's problems. In addition, she even gave us the wrong room! We had asked for a room with two queen beds and received one with one bed. We had to go back to the front desk to solve our problem because the phone line in our room was also dead. It took an even longer wait and if we hadn't solved the problem ourselves by switching rooms with another family, I'm sure the attendant wouldn't have done anything. She was terribly unmotivated and looked like she didn't want to be here. The room is also not the greatest. The curtains are ripped, the wallpaper is peeling and has black stains on it, and the room smells old and stuffy.If you're looking for a place to stay, check this one off your list.More</t>
   </si>
   <si>
+    <t>Bill B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32735-d78315-r528692743-Quality_Inn_Suites_Montebello-Montebello_California.html</t>
   </si>
   <si>
@@ -226,6 +235,9 @@
   </si>
   <si>
     <t>Unfortunately, we stayed here 28th -30st July 2017. The room was disgusting with peeling wallpaper, mould and broken electrical sockets (See photos)The place needs a complete remodel as it is way past its sell by date. £277 dollars for two nights...disgusting!Just dont stay here!More</t>
+  </si>
+  <si>
+    <t>2112Rush2013</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32735-d78315-r507261019-Quality_Inn_Suites_Montebello-Montebello_California.html</t>
@@ -254,6 +266,9 @@
 My room was nice, cozy and most important, clean and comfortable.  The carpet on the floor was clean, no worries about getting your bare...This was my first trip to Los Angeles and I wasn't looking for something high end or fancy; that is for my yearly jaunt to Australia.....   :-P    so I asked my travel agent to just find me something nice.  I could not be happier with the hotel.  The location didn't much matter to me because I didn't know where I was anyway.  I had a rented car with my GPS to take me to where I needed to go.  The first thing I noticed, and I don't know whether this is by accident or design, is that the sliding door starts to open well in advance and so is wide open when you pass through.  Subconsciously it says 'welcome.'  Check is was seamless, the desk staff was friendly and helpful with my requests about what is close by, which is to say 'where is there a close by gas station to get smokes?'  .....  The rest of the staff was also friendly and it is clear that they care about their guests and presenting the best possible stay.  The morning breakfast girl greets everyone with a warm Good Morning and big smile, the cleaning staff is similarly good with handing out extra coffee packets and of course making the room up everyday for my afternoon return.My room was nice, cozy and most important, clean and comfortable.  The carpet on the floor was clean, no worries about getting your bare feet dirty, the bathroom and shower was clean, fresh towels every day, and the air conditioner is a Space Shuttle model that blasts the room cold in no time, after which it was easy to fine tune to sleeping comfort, which brings us to The Bed.....I have stayed in the 5 star Sofitel in Brisbane and this mattress easily matches that one for comfort.  Sparkling clean sheets and blankets, fluffy pillows just as advertised;  I slept like a baby.  I have no problem returning to this hotel if I return to LA and have no hesitation in recommending it to anyone.More</t>
   </si>
   <si>
+    <t>ehairs</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32735-d78315-r499528895-Quality_Inn_Suites_Montebello-Montebello_California.html</t>
   </si>
   <si>
@@ -269,6 +284,9 @@
     <t>The floor was rather dirty.  There were dead bugs on the carpet.  Thank goodness I got there before my daughter flew in, and was able to pick them up with kleenex.  The air conditioner didn't work very well.  I had to call for someone to fix it, but by the time we got back from the airport...it wasn't cooling again.  The breakfast was pretty good, but overall...I wasn't too impressed with the quality of the hotel.  The walls were thin, and you could hear people up early in the morning.</t>
   </si>
   <si>
+    <t>Dara50</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32735-d78315-r491860610-Quality_Inn_Suites_Montebello-Montebello_California.html</t>
   </si>
   <si>
@@ -287,6 +305,9 @@
     <t>May 2017</t>
   </si>
   <si>
+    <t>Richard A</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32735-d78315-r472777909-Quality_Inn_Suites_Montebello-Montebello_California.html</t>
   </si>
   <si>
@@ -302,6 +323,9 @@
     <t xml:space="preserve">Lady at front desk was very helpful and has great customer service, great breakfast and room is very clean I would stay here again forsure. And also got a nice bar and pool thank you very much for the great customer service </t>
   </si>
   <si>
+    <t>guest-reviewer2016</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32735-d78315-r470680584-Quality_Inn_Suites_Montebello-Montebello_California.html</t>
   </si>
   <si>
@@ -320,6 +344,9 @@
     <t>March 2017</t>
   </si>
   <si>
+    <t>Gabrielle S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32735-d78315-r465565833-Quality_Inn_Suites_Montebello-Montebello_California.html</t>
   </si>
   <si>
@@ -335,6 +362,9 @@
     <t>First time staying at a Quality Inn &amp; Suites, and our experience was good. Breakfast was very tasteful, area was not so great. We were blocks away from Compton and the ghetto areas.I was afraid we were going to get robbed at some point. We just stayed for one night to go to a basketball game at the staples center. Traffic sucks but that's LA for you. To get to anywhere was one hour or more. Very nice hotel inside, and out. Rooms are very spacious. But our refrigerator smelt like marijuana? Affordable price with AAA.</t>
   </si>
   <si>
+    <t>Carole W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32735-d78315-r453381970-Quality_Inn_Suites_Montebello-Montebello_California.html</t>
   </si>
   <si>
@@ -356,6 +386,9 @@
     <t xml:space="preserve"> traveled on business</t>
   </si>
   <si>
+    <t>Martinez3434v</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32735-d78315-r442711349-Quality_Inn_Suites_Montebello-Montebello_California.html</t>
   </si>
   <si>
@@ -383,6 +416,9 @@
     <t>My room was great it was very clean the rest room was big and nice the tv worked great and it had a nice cold refrigerator that worked well and a nice microwave the bed was nice and new with nice pillows the manager was very nice and this hotel had great breakfast in the morning I will come back and visit this hotel again it was really nice and cozzyMore</t>
   </si>
   <si>
+    <t>Robert B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32735-d78315-r434271286-Quality_Inn_Suites_Montebello-Montebello_California.html</t>
   </si>
   <si>
@@ -401,6 +437,9 @@
     <t>November 2016</t>
   </si>
   <si>
+    <t>Magdalena C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32735-d78315-r424770456-Quality_Inn_Suites_Montebello-Montebello_California.html</t>
   </si>
   <si>
@@ -428,6 +467,9 @@
     <t>This motel was not an enjoyable experience at all. Very outdated, smelly, dirty carpets, dirty bed sheets. Room phone didn't work, blow dryer was broken &amp; had to get it replaced. The bath drain was very slow. The first and last time staying here!More</t>
   </si>
   <si>
+    <t>Lilian B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32735-d78315-r393981340-Quality_Inn_Suites_Montebello-Montebello_California.html</t>
   </si>
   <si>
@@ -452,6 +494,9 @@
     <t>For us it was a good location, close to a major highway (I 5). Nice and clean hotel. Friendly staff. The staff at the front desk was helpfull. Nice breakfast. Very good bed. Quiet room. Interesting decoration.More</t>
   </si>
   <si>
+    <t>Jezetus</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32735-d78315-r372222879-Quality_Inn_Suites_Montebello-Montebello_California.html</t>
   </si>
   <si>
@@ -470,6 +515,9 @@
     <t>May 2016</t>
   </si>
   <si>
+    <t>Christoph M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32735-d78315-r362126098-Quality_Inn_Suites_Montebello-Montebello_California.html</t>
   </si>
   <si>
@@ -494,6 +542,9 @@
     <t>I could go on about how comfortable the bed was or how good the breakfast was,  but the real reason to stay here is the staff. Christina and Juan were especially fantastic and very helpful with anything and everything.  Both were friendly,  kind and absolutely delightful. Housekeeping was exceptional- the room I stayed in had much more room than I ever needed and was well kept and made up.  I'm pretty sure all of them made it a point to say hello or good morning whenever I passed them in the hallway.  I was visiting LA for a wedding, and as exciting as that was,  all of the staff made coming back even more special. When I visit again in August,  I'm definitely staying here again. More</t>
   </si>
   <si>
+    <t>Traci C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32735-d78315-r360161820-Quality_Inn_Suites_Montebello-Montebello_California.html</t>
   </si>
   <si>
@@ -512,6 +563,9 @@
     <t>March 2016</t>
   </si>
   <si>
+    <t>Dennis B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32735-d78315-r343680030-Quality_Inn_Suites_Montebello-Montebello_California.html</t>
   </si>
   <si>
@@ -533,6 +587,9 @@
     <t>I checked in to this piece of a hotel and they couldnt find my name in the system, and the front desk ask me what was my confirmation number and i didnt have a chance to write it because i was in the middle of traffic on the freeway and i was using my bluetooth headset.  By the way, the front desk starts to lecture me like she was my mom that she was telling me that im supposed to pull over and write the confirmation number down while im in the middle of LA ... Anyways i just needed the room not a frickin lecturing, poor service, you just loss a customer.More</t>
   </si>
   <si>
+    <t>USMC1966</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32735-d78315-r336257543-Quality_Inn_Suites_Montebello-Montebello_California.html</t>
   </si>
   <si>
@@ -554,6 +611,9 @@
     <t>to start with the parking is problematic if you go out to the near attractions and come back late, there won't be any parking left, it should have enough for the type of business and the side of the hotel, also the key cards won't work from the first date, kept replaced them for the days we were there, also the property don't have accurate hot water for their guesses, come on, you're in the business to provided service, that's what customers are paying for, and finally the breakfast since a scene from a zombie movie, every body is desperate to eat, the place is not organize at all, 1 toaster for about 100 people, it's a joke, first impression makes the difference, will never stay here again, even if the pay me for it, oh forgot, person at front desk, very rude she should be in a different type of business, not customer service, and be very careful if you're allergic to mold, cause there is plenty around the rooms.More</t>
   </si>
   <si>
+    <t>Erlinda M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32735-d78315-r333131848-Quality_Inn_Suites_Montebello-Montebello_California.html</t>
   </si>
   <si>
@@ -567,6 +627,9 @@
   </si>
   <si>
     <t>For the price I was charged for the rooms this place was very dirty, noisy, free Wi-Fi didn't even work to connect, plus room phone didn't even work.  I let the person at front desk know that our room phone needed to be fixed before we left to Disneyland and when we got back from the park the phone was still not working.</t>
+  </si>
+  <si>
+    <t>Kochite</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32735-d78315-r330567125-Quality_Inn_Suites_Montebello-Montebello_California.html</t>
@@ -597,6 +660,9 @@
 Next was the toilet. On 3rd day morning the toilet started overflowing. We only had few hours left to start back and we decided to give up. We managed somehow and got out of the hotel....I stayed in this hotel for 3 days for my LA and Disney visit, since this place was equidistant from Disney and LA downtown.The rooms were clean and the toilet was in good condition (initially). Why I am giving 2...First, I was given a WiFi password and it wasn't working. I went to the reception and checked. The answer I got was, it is same for the whole guests and it should work. I am an engineer and I knew that the password is the problem. I went twice and the response was same. Since I had a nasty drive from LV I went to bed. Next day morning I was desperate for internet and decided to call the 1-800 number in the welcome note after having one more check at frontdesk. A polite guy picked and confirmed that he is from techsupport and said he can see the req is rejected due to password. Live in the call he ringed front desk and the lady right away told that the password is not xxxxx7 and is xxxxx8. !!!!!!!!! No more quotes on their service. (This is the same person I went that morning)Breakfast was below average and it was fine.Next was the toilet. On 3rd day morning the toilet started overflowing. We only had few hours left to start back and we decided to give up. We managed somehow and got out of the hotel. The bill was close to 100$ per day and not sure if in montebello area for this cost the service is this way. Again on the 3rd day, WiFi password won't work. Enough said, I had a mixed experience. I will come back only if this is the only option near LA area at this cost. Otherwise, will look for another place to stay.More</t>
   </si>
   <si>
+    <t>LKeikoS</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32735-d78315-r319418076-Quality_Inn_Suites_Montebello-Montebello_California.html</t>
   </si>
   <si>
@@ -615,6 +681,9 @@
     <t>October 2015</t>
   </si>
   <si>
+    <t>miamouse66</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32735-d78315-r311339182-Quality_Inn_Suites_Montebello-Montebello_California.html</t>
   </si>
   <si>
@@ -636,6 +705,9 @@
     <t>Been staying at this hotel for many nights. Front desk is friendly and helpful, most of the housekeepers are great, bartenders are super friendly. The rooms are big. Love the fridge and microwave. A plus. All the extras in the room are handy. Just wish all the rooms had that comfortable chair and foot stool that room 512 has. So relaxing. Pool is a great size. Business center has been so helpful to us. Want to thank Nadia Wu for all her help. She is a great asset to the company. Always has a smile and very helpful. Would recommend this hotel to everyone. And i plan on going back very soon. Thank you everyone there at the Quality Inn in Montebello for making our stay enjoyable.More</t>
   </si>
   <si>
+    <t>wraithleaderx</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32735-d78315-r310021340-Quality_Inn_Suites_Montebello-Montebello_California.html</t>
   </si>
   <si>
@@ -651,6 +723,9 @@
     <t>Room was clean and comfortable. Staff was a bit curt but not unfriendly. Breakfast was actually pretty good. There is a bar and restaurant in the lobby which was pretty good. Decor could use some updating. It has a bit of an older feel to it but I would definitely stay here again.</t>
   </si>
   <si>
+    <t>mccloud201</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32735-d78315-r293509475-Quality_Inn_Suites_Montebello-Montebello_California.html</t>
   </si>
   <si>
@@ -678,6 +753,9 @@
     <t>Not impressed at all, I would expect more from a hotel from this company. The only thing great is that we got a room at the last minute. I don't recommend at all. I wouldn't come back for dirty walls and nasty curtains. If you're looking for a place to hit the hay for the night it's your decision. Not worth the trip or money.More</t>
   </si>
   <si>
+    <t>Jerry A</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32735-d78315-r259686101-Quality_Inn_Suites_Montebello-Montebello_California.html</t>
   </si>
   <si>
@@ -699,6 +777,9 @@
     <t>My wife and I were here in March 2015 to visit relatives and to see a bit of LA. This property sits just off a major freeway. It seemed to be a bit old, but it it was clean and fairly well maintained. It was quiet, surprising as it was right on the freeway. They had a decent breakfast buffet (free). There were a few problems such as the phone not working and the computer in the business center being down, but who uses hotel phones in the age of cell phones and who does not travel without their own computer. My computer didn't work nearly as well as at home, so there may be some issues with their system. When I come back to this area, I'll probably stay somewhere nearer the center of Montebello, as this property seemed to be in an industrial area.More</t>
   </si>
   <si>
+    <t>NELY R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32735-d78315-r252680063-Quality_Inn_Suites_Montebello-Montebello_California.html</t>
   </si>
   <si>
@@ -723,6 +804,9 @@
     <t>I booked a room at this hotel for my 21st birthday. We only needed a room to sleep and get ready because the rest of the day we were out and about....we checked in 11/14 at about 3am...the young man at the counter was very generous and pleasent..we did ask for a room on the first floor and we were able to be put in that....we only paid $55 for two nights...it was a descent hotel not as nice as the pictures seem....the only negativity I have is the day of check out we had our do not disturb sign on the door and we had someone knocking at 8:30 am at 9:15 and at 10am not a big deal but they should really be considerate of their guest. I knew when check out was...but other then that it was a descent stay...More</t>
   </si>
   <si>
+    <t>justshirlay</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32735-d78315-r233263302-Quality_Inn_Suites_Montebello-Montebello_California.html</t>
   </si>
   <si>
@@ -744,6 +828,9 @@
     <t>I stayed here for a night with an external tour company. First off, the check-in process was lengthy and there was only one person doing it. So as soon as some of us walked in, we were stuck there for at least 15-20 minutes. The room was outdated and the bathroom was small but sufficient. Although the beds were comfy, the entire room was shabby looking and you could hear the karaoke night going on downstairs very clearly until about 1am in the morning. For a person who was on a tour and had to wake up early the next day, it was not ideal. Breakfast that was provided was limited. As for location, I didn't walk out of the hotel, so I have no idea what that would've been like.If I had to choose whether or not to stay at this place again, I wouldn't.More</t>
   </si>
   <si>
+    <t>Crystal B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32735-d78315-r228726782-Quality_Inn_Suites_Montebello-Montebello_California.html</t>
   </si>
   <si>
@@ -762,6 +849,9 @@
     <t>I paid $114 a night for a nonsmoking room. I didn't expect much, but this room smells horrible!! There are 3 ashtrays in the room, so it is definitely a smoking room. We called down to the front desk to tell them that we wanted to switch to a nonsmoking room as originally requested but were told that the hotel was fully booked for the night and we could change tomorrow. Also, there was dust on the lamp and an unused hand towel with black marks already on it and the carpet was wet under the a/c unit. The only good things I can tell so far is it is close to the freeway, the front desk person was friendly, and we got free breakfast coupons for the morning (I guess we will see if it's any good). So far, it's a nightmare. Don't do it!!!!More</t>
   </si>
   <si>
+    <t>cecil t</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32735-d78315-r227960400-Quality_Inn_Suites_Montebello-Montebello_California.html</t>
   </si>
   <si>
@@ -777,6 +867,9 @@
     <t>This hotel was clean and have ample parking spaces.  They were having Karaoke when we arrived at 1am.  The room also included breakfast and was staffed with friendly people.  The bathroom was clean and well kept.</t>
   </si>
   <si>
+    <t>mbstone</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32735-d78315-r216314044-Quality_Inn_Suites_Montebello-Montebello_California.html</t>
   </si>
   <si>
@@ -798,6 +891,9 @@
     <t>Property is situated along I-5 In industrial area SE of Los Angeles. Inexpensive. Interior corridors, elevators, public areas somewhat dilapidated. Close to downtown LA (20 min if no traffic, 40 min in typical traffic). Near Commerce Casino poker room, TEAC/TASCAM. Not much other civilization in immediate vicinity (24H Norm's restaurant 2.5 mi away in Downey). Nonsmoking floor/rooms available. Comfortable bedding, awesome shower pressure. Microwave, mini-fridge, coffeemaker, iron/ironing board, desk. Excellent pool (9 feet deep) 8A-10P.. Guest laundry 24H. Eventually you'll find a working ice machine. Good free breakfast buffet w/ bacon, eggs, French toast, hash browns, OJ, milk, coffee, toast, cupcakes 7A-9A. Restaurant, limited menu and hours (lunch and dinner). HDTV, basic cable, most local TV stations, plus Showtime. Meeting rooms. Free parking. Staff fluent in Chinese. "Free internet" would not load web pages in under 20 minutes, would not run standard speed test so I give it 0kb up/0kb down. You won't get any work done. Lobby computer terminal with inkjet printer, untried. Karaoke bar with pool table, CAUTION, don't stay here on weekend nights as entire building reverberates with party noise until 1 AM (you won't get any sleep either). But for the internet and weekend noise issues I would rate this property two circles higher.More</t>
   </si>
   <si>
+    <t>lovecancun234</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32735-d78315-r211915015-Quality_Inn_Suites_Montebello-Montebello_California.html</t>
   </si>
   <si>
@@ -819,6 +915,9 @@
     <t>I was pleasantly surprised.  I was not expecting anything special from reviews.  Upon arrival and asking to see a room first before booking.  It was very nice. Granted carpet can be updated.  Rooms where nice, with flat screen T.V. and fridge, microwave,  coffee pot. Bed was very comfortable.  We had 2 queen beds (more like double s) and added a roll a way for $10. We had 3 adults and 1 child.  A/C worked great.  Outlet in restroom did not work. But, the room was clean and comfortable. The front desk was very friendly.  It was very busy, we wanted 3 nights and only had availability for 1. A bus of tourists had arrived and a wedding party was coming in the next day. We got a room on the 3rd floor, as I had read the bar and conference room can get loud.  I did not hear bar but could hear the freeway.  Ask for room facing pool or the back. Pool was nice but not heated.  Bar had happy hour and was nice and open. Continental breakfast was good and lots of seating. WiFi worked good. As mentioned before,  carpet needs updating.  But, I will definitely stay here again.More</t>
   </si>
   <si>
+    <t>JanetWK</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32735-d78315-r207665836-Quality_Inn_Suites_Montebello-Montebello_California.html</t>
   </si>
   <si>
@@ -840,6 +939,9 @@
     <t>I would not recommend this hotel to anyone!  It was booked for me by someone else when I was on business in the area for several days.  It is not well kept or maintained.  The check-in procedure was tedious and when I went to my room, it was obviously a room where people had smoked. In fact, the whole floor smelled like smoke as I exited the elevator.  II returned to the desk and told them I needed a non-smoking room.  I was told that was what had been booked for me.  However, they did find me a non-smoking room.  It was on a different floor where no smoking is allowed.  It was dark and did not feel clean.  Parking was a challenge each night as I returned to the hotel, as they small dining room/bar was turned into an entertainment mecca for locals and they took all the parking spaces until the wee hours of the morning.  Breakfast was modest, but tasty.  Not too many choices, but adequate.  I would give this hotel 2 stars at the most.  They do not cater to the business customer, preferring to make sure they accommodate the customer that comes for the entertainment and drinks at night!More</t>
   </si>
   <si>
+    <t>Brian S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32735-d78315-r184648271-Quality_Inn_Suites_Montebello-Montebello_California.html</t>
   </si>
   <si>
@@ -867,6 +969,9 @@
     <t>We arrived tired staff was complacent, went up to room it was overlooking roof and on top of bar.  We asked to stay on opposite side away from potential noise of bar. They put on other side of hallway, the receptionist had no clue of where rooms were attached to what numbers, asked her to get map of floors and rooms, they did not have. Was loud at night wife could not sleep till past two.Had a fitness room used first night, other 4 nights it was blocked off with caution tape and no employee had a clue as to why and when it could be used again. It was closed rest of our five day stay.  Our shower did not work first morning they did fix next day. Maid service was good and clean. Overall very poor experience, our worst stay in hotel ever.More</t>
   </si>
   <si>
+    <t>Monique H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32735-d78315-r181443254-Quality_Inn_Suites_Montebello-Montebello_California.html</t>
   </si>
   <si>
@@ -892,6 +997,9 @@
   </si>
   <si>
     <t>Was a clean spacious place to stay. A bit out of the way and a long drive to get anywhere. The hotel offers a shuttle to a nearby walmart which was helpful when jet lagged. Overall friendly staff. Only issues were ; hot water didn't work on last day there. And when I rang reception for assistance when my nearly 2 year old locked himself in the bathroom they did not assist at all. She said that maintenance wouldn't be available to unlock the door for at least 30minutes. Panicked, I asked for just anyone to come up and help. Of which they did not. I ended up emptying out my luggage and using bits and pieces to flick the lock. And my son was fine, happily playing with toiletries. Another issue was that reception also do not pass on messages. But otherwise, the rest of the staff were fantastic and extremely helpful. More</t>
+  </si>
+  <si>
+    <t>Calebaly</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32735-d78315-r180035476-Quality_Inn_Suites_Montebello-Montebello_California.html</t>
@@ -920,6 +1028,9 @@
 Our room overlooked the pool where the party was and the pool at first didn't look like it had any water in it , it did have water but it was very dirty it gave the appearance of being dirty . The people at the party were dancing practically having sex with their clothes on . Later that night when we got back from dinner we decided to have a drink at the bar since there was only about a dz ppl in there we thought it would be ok . When we were sitting at a table a drunk...When we first drove in the buildings exterior seemed fine . When I walked in the building it was another story . The man that checked us in at 6 pm greated us professionally . I heard loud music blaring and I asked what that was and he told me it was a party ( he either said hispanic or latino ) sponsored party from a local radio station . The noise and people were very disturbing . When we went to our room the people from the party were hanging around the elevator and we all felt very unsafe , there foul language and body language were less than desirable . We were booked for 2 nights but chose the leave at 7 am the next am . We put in one hell of a loud restless night . Our room overlooked the pool where the party was and the pool at first didn't look like it had any water in it , it did have water but it was very dirty it gave the appearance of being dirty . The people at the party were dancing practically having sex with their clothes on . Later that night when we got back from dinner we decided to have a drink at the bar since there was only about a dz ppl in there we thought it would be ok . When we were sitting at a table a drunk woman came to our table and said "if you are looking for Americans you are in the wrong place" ... The rooms were very dated , carpet looked like a murder has been committed on it and the sofa bed was so discusting I didn't even want to put my suitcase on it . I must give credit where credit is due the bathroom even though very small was clean and had been recently updated .More</t>
   </si>
   <si>
+    <t>yaacovlev7</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32735-d78315-r173952499-Quality_Inn_Suites_Montebello-Montebello_California.html</t>
   </si>
   <si>
@@ -944,6 +1055,9 @@
     <t>Situated just off I-5 south Slauson Ave. Exit this hotel location is very convenient with Starbucks across the street ( for strong coffee lovers such as myself ), Denny's for breakfast lovers within walking distance and only 2mi. From my delivery point. Nice clean roons, powerhouse shower ( a must for me ), hot Breakfast though I'd rather eat at Denny's and get the good exercise. Value, paid $79.99 for a Saturday stay over.  Not bad for L.A. standards.  Sum up.  Great locations,  clean comfortable beds and room, powerhouse shower and Micro- fridge equipped.  Would recommend to anyone.  JBGMore</t>
   </si>
   <si>
+    <t>yhazmyn</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32735-d78315-r171927377-Quality_Inn_Suites_Montebello-Montebello_California.html</t>
   </si>
   <si>
@@ -971,6 +1085,9 @@
     <t>I had to move from my room since there was NO power at 1:42am.  The other room I was moved into had no power in the bathroom, so we had to bathe in the dark!  The next day I couldn't get into my room as they keys did not work and I was told that I am not assigned to any room!  I had to argue and explain over and over again what happened before I got helped.  So my personal belongings were in the room and it was not assigned - thankfully all our things were still there!  The power finally came on, after a simple circuit breaker switch - which took them a day and a half to figure out.  The maid either never cleaned my room, or didn't give us clean towels on a daily basis and we were there for 10 days!  The maid had the nerve to throw out my personal soap, medicated body wash, face wash and shower cap.  I asked for a clean comforter since I accidentally spilled my drink and was told there were none at the moment.  So that means either they never clean the sheets or comforters and keep the same ones on (which I believe) or they are not cleaning them as often as they should - disgusting!  The refrigerator in my room had a nasty smell and after looking under the fridge I found chicken bones and old...I had to move from my room since there was NO power at 1:42am.  The other room I was moved into had no power in the bathroom, so we had to bathe in the dark!  The next day I couldn't get into my room as they keys did not work and I was told that I am not assigned to any room!  I had to argue and explain over and over again what happened before I got helped.  So my personal belongings were in the room and it was not assigned - thankfully all our things were still there!  The power finally came on, after a simple circuit breaker switch - which took them a day and a half to figure out.  The maid either never cleaned my room, or didn't give us clean towels on a daily basis and we were there for 10 days!  The maid had the nerve to throw out my personal soap, medicated body wash, face wash and shower cap.  I asked for a clean comforter since I accidentally spilled my drink and was told there were none at the moment.  So that means either they never clean the sheets or comforters and keep the same ones on (which I believe) or they are not cleaning them as often as they should - disgusting!  The refrigerator in my room had a nasty smell and after looking under the fridge I found chicken bones and old wings!  Every day I had an issue and it was so horrible and I wish I could have left BUT I was on vacation and it was fully paid for so I was stuck!  Internet sucked, breakfast was free but cold and drinks watered down.  No safe in the room so I felt weird to leave my personal belongings there.  Customer service was just SOOOO bad, and not helpful at all. Then there was a pool party and hotel guests were invited but it looked more like a gang banger get together than an actual pool party.  Everyday there was something going on and it was never good as much as I tried to stay positive, but it didn't work.  NEVER AGAIN!More</t>
   </si>
   <si>
+    <t>BusyTravelerOregon</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32735-d78315-r171785737-Quality_Inn_Suites_Montebello-Montebello_California.html</t>
   </si>
   <si>
@@ -990,6 +1107,9 @@
   </si>
   <si>
     <t>We go to Los Angeles every 4 months, we usually stay in Bell Gardens at the comfort suites but they were booked for this stay so we stayed at this one. It was not an easy stay at first due to the fact that their boilers went out so there was no hot water for our first two days. The staff was exceptional during this, they were as accommodating as could be in this situation, offered very good discounts or cancellations without charge. They also made extras out of the kitchen for breakfasts such as triangle sandwiches. By the end of the second day everything was up and running and it was spectacular, so much so that we canceled our stay at another hotel and extended it here. Breakfast was more than expected with Bacon, sausage, frenchtoast and many many more selections. The frontdesk clerks were extremely friendly and so was their manager. I applaud the way they handled their little "crisis" and made sure the manager knew that one desk clerk in particular deserved an extra pat on the back. This has now become our LA Hotel, it is very convenient for us and we are going back on the 21st.More</t>
+  </si>
+  <si>
+    <t>Tony A</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32735-d78315-r162678908-Quality_Inn_Suites_Montebello-Montebello_California.html</t>
@@ -1033,6 +1153,9 @@
 Decor is tired and dated. My bedspread had a tear in it...I ended up at the Quality Inn as the accommodation formed part of a tour package.Location is poor, with the hotel situated in the down town part of Los Angeles, some 20 km from tourist attractions.Transportation by cab will cost you an arm and a leg should you want to get to a better part of town. I did not feel comfortable walking the streets of Montebello at night while looking for a dinner restaurant. There is a diner some 200m from the hotel which serves half decent food, but other than that, their is little else within walking distance.On arrival at the hotel, I was surprised to find a racous corporate function party taking place, the festivities of which had spilled into the lobby. The receptionist required that I shout to make myself heard. I requested to placed in a room as far away from the noise as possible which was done. The partido was over by 9pm as promised.Only one of the two elevators were functional, and I found it quicker to use the stairs for the two night stay.My room came with a fridge and microwave ( a nice touch I think ), tv, working ac and free wifi ( handy).The pillows are great; not those nasty ones which wrap themselves around your head and give you a headache.Decor is tired and dated. My bedspread had a tear in it and the bedroom carpet had a wet and sticky patch on it.Barring these  two items, the general state of the room and bathroom was nice and clean.The bedroom lacked an electronic safe, which in my opinion is mandatory.Breakfasts are served with flimsy plastic knives and forks which makes eating a nightmare.To sum up, if you're a tourist or doing business in the city, give this one a miss. I don't know if I was just plain lucky, but because of the layout of the ground floor ( they tend to have disco's or karaoke most nights), I could easily see how noise may be a problem if you're trying to sleep.Would I visit again? Not if I had any say in the matter.More</t>
   </si>
   <si>
+    <t>HarleyQu</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32735-d78315-r156895158-Quality_Inn_Suites_Montebello-Montebello_California.html</t>
   </si>
   <si>
@@ -1057,6 +1180,9 @@
     <t>Great low price and convenient to the freeway BUT that's it for me. Stayed for 3 nights on the second floor and could not sleep because of the noise from downstairs. Saturday and Sunday I understand but the bar had Karaoke on a Monday until 2am. Really? On a work day? Very disrespectful to your paying customers who want sleep and get up to work at 4am!!!! Room service didn't have our room clean when we returned at 4pm but the maid was very sweet and left the room spotless once she did. Stay if you like to party, don't stay if you need sleep or are traveling for work. More</t>
   </si>
   <si>
+    <t>Roblenore</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32735-d78315-r153061943-Quality_Inn_Suites_Montebello-Montebello_California.html</t>
   </si>
   <si>
@@ -1075,6 +1201,9 @@
     <t>This hotel has been redone  clean. Quiet. Free full breakfast  close to downtown LA  we stay here a lot    Great friendly staff  there's even a little bar cheap drinks great atmosphere always have great time here. Pool looks clean but never used it More</t>
   </si>
   <si>
+    <t>BOOMGlendale_Arizona</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32735-d78315-r149699549-Quality_Inn_Suites_Montebello-Montebello_California.html</t>
   </si>
   <si>
@@ -1102,6 +1231,9 @@
     <t>12/27/2012My family and I stayed here for one nights,very pleased with customer service,room very nice and clean,very impressed with chinese buffet, food very good only disapointed dinning room(chair,table)very dirty,I will be back and stay here again.More</t>
   </si>
   <si>
+    <t>Thilmoe</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32735-d78315-r145991582-Quality_Inn_Suites_Montebello-Montebello_California.html</t>
   </si>
   <si>
@@ -1127,6 +1259,9 @@
   </si>
   <si>
     <t>I've been staying here off and on for business for over 9 months.  The rooms are clean and the breakfast is convenient.  The only downside is parking in the evenings.  They host plenty of small conferences in the evenings.More</t>
+  </si>
+  <si>
+    <t>Sue R</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32735-d78315-r139283777-Quality_Inn_Suites_Montebello-Montebello_California.html</t>
@@ -1158,6 +1293,9 @@
 My family and I, a party of four, stayed here two nights on labor day weekend. We had pre-booked our rooms and check-in was smooth. Didn't  really know what to expect and I went in with a mind set of "expect the worse and HOPE for the best" and on a first impression we were not disappointed.  We were pleased with the rooms, clean with a good view of the pool. The  only disappointment was that the other room that my family occupied had a few little quirks. Their shower head Room# 332 didn't work that well but they got over it and found a way to manage (I'm positive that if they had asked for a different room they could have gotten one with better shower head) also, one of the light switches in their room was loose. Complimentary breakfast is good, NOT just continental and the food area is very nicely decorated. Overall it's a nice, good clean place to stay were you feel safe. It's definitely a GREAT bargain, if you don't need fancy =) Also, on telegraph road where the hotel is located you can drive down to Citadel mall about 7-10minutes. One more thing this hotel is close to getting on and off the...While visiting family that live near Downtown Los Angeles we wanted to be close by but, not in Downtown L.A. (trying to avoid the stress of parking in a big city). My family and I, a party of four, stayed here two nights on labor day weekend. We had pre-booked our rooms and check-in was smooth. Didn't  really know what to expect and I went in with a mind set of "expect the worse and HOPE for the best" and on a first impression we were not disappointed.  We were pleased with the rooms, clean with a good view of the pool. The  only disappointment was that the other room that my family occupied had a few little quirks. Their shower head Room# 332 didn't work that well but they got over it and found a way to manage (I'm positive that if they had asked for a different room they could have gotten one with better shower head) also, one of the light switches in their room was loose. Complimentary breakfast is good, NOT just continental and the food area is very nicely decorated. Overall it's a nice, good clean place to stay were you feel safe. It's definitely a GREAT bargain, if you don't need fancy =) Also, on telegraph road where the hotel is located you can drive down to Citadel mall about 7-10minutes. One more thing this hotel is close to getting on and off the I-5 freeway.More</t>
   </si>
   <si>
+    <t>Cafemocha168</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32735-d78315-r125265652-Quality_Inn_Suites_Montebello-Montebello_California.html</t>
   </si>
   <si>
@@ -1182,6 +1320,9 @@
     <t>I enjoyed my stay here. Rooms were clean and comfortable. Staff was friendly and helpful to my needs. They responded in a timely manner.More</t>
   </si>
   <si>
+    <t>Marko R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32735-d78315-r125264178-Quality_Inn_Suites_Montebello-Montebello_California.html</t>
   </si>
   <si>
@@ -1200,6 +1341,9 @@
     <t>This hotel serves my purpose as we're love to visit the Commerce Casino.The room rate was affordable, it was very comfortable and clean, and the overall service is far better from what I would expect. Keep up the good work! For those Casino players, don't missed on this one.More</t>
   </si>
   <si>
+    <t>DjAffliction</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32735-d78315-r125097710-Quality_Inn_Suites_Montebello-Montebello_California.html</t>
   </si>
   <si>
@@ -1221,6 +1365,9 @@
     <t>I stayed there several time on bussiness and this place always is more than Gracious with their Hospitality ,,,,,their Food is Very Good &amp; Tasty,,,, on friday they have a  Relax &amp; Comfy Bar that i got my groove On To On The Dancefloor &amp; their Beer is Super Cold @ Great Prices,,,,Happy Hour as they call it in Los Angeles....i wouls totally stay there again ....see you soon Quality Inn :)More</t>
   </si>
   <si>
+    <t>GoNavy1993</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32735-d78315-r124645648-Quality_Inn_Suites_Montebello-Montebello_California.html</t>
   </si>
   <si>
@@ -1245,6 +1392,9 @@
     <t>To begin, the room wasn't ready at 5:00 pm when I wanted to check in.  The elevator was scarry and made a very big jolt when it began to move.  When I did get into the room, one of the housekeepers barged in.  I had to yell at them to get out.  The microwave in the room didn't work.  The sheets had holes in them.  The restaurant server didn't care that we were there and we ended up ordering pizza from someone else.Avoid this hotel.More</t>
   </si>
   <si>
+    <t>omnifox</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32735-d78315-r123762877-Quality_Inn_Suites_Montebello-Montebello_California.html</t>
   </si>
   <si>
@@ -1267,6 +1417,9 @@
   </si>
   <si>
     <t>This hotel has one thing going for it... it is right off the 5 freeway.  This hotel is owned by an Asian company and there are bazaars and events happening there that typically would not be at any other Choice hotel property.  The front entrance has a couch in bad need of cleaning or reupholstering.  A very pervasive smell was in the front office that was similar to old food that needed to be thrown away.  It lingered all throughout the lower level.  The carpeting in the hallway was dirty and worn.  The rooms were just average for a Quality Inn.  I went down for breakfast at 6:50 am only to be turned away because the breakfast starts at 7:00 am.  And when I came back from visiting a hospital at 9:55 am that morning they would not serve me because I was too late.   I will never, ever stay at this hotel again.  There are several other hotels within blocks of this hotel - stay at any of those hotels.  They must be nicer and smell better.More</t>
+  </si>
+  <si>
+    <t>Lee M</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32735-d78315-r123648885-Quality_Inn_Suites_Montebello-Montebello_California.html</t>
@@ -1293,6 +1446,9 @@
 The bar faces onto...Horrible hotel and the photos are misleading.  I stayed in one of the double "Business Plus" rooms where the table barely accomodated one laptop, the carpet was full of stains and very nasty looking.  Not somewhere you wanted to walk barefoot or allow children to play on.  Upon check-in you will be given a slip of paper for the Breakfast which says you are entitled to up to $8.00 of credit towards your breakfast.  This DOES NOT mean you can order from the restraunt menu.  It is only good for the Breakfast Buffet.  The breakfast buffet was anything but.  A Meatless affair  except for the what looked like the leftover spaghetti from the previous days function (for breakfast!) and some other scary looking dish involving tortillia chips the next morning--which also looked like it might be left over from function the night before.  The coffee was so bad it was undrinkable and the juices were watered down.  Most of the food was cold even the things which were supposed to be hot.  The restraunt doesn't open until 7a.m. even during the week. The hallways are dimly lit, as are the rooms, and the their tiny bathrooms.  They are in the middle of remodeling apparently even though their sign out front claims "Newly Remodeled" as the old furniture was being stored on the closed pool patio and the new pieces stacked by one of the entrances downstairs.  The bar faces onto the front desk, and we were treated to many "gangsta rap" tunes playing loudly featuring prolific use of four-letter words while children played in the front lobby.  The ice machine was broken on our floor and the elevators are exceedingly slow.  Upon close examination, the entire building looks like it was a former cheap motel that has been painted over.  You will be required to post a credit card for "amenities" even though there are no PPV channels, or even Premium movie channels for that matter, on the TV.  Internet and parking is free, so exactly why they require a credit card is beyond me.  If you refuse to give them one or do not have one, you will be turned away by Cynthia Curiel, the front desk manager.Definitely not a place I would recommend for anyone!More</t>
   </si>
   <si>
+    <t>A R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32735-d78315-r120419006-Quality_Inn_Suites_Montebello-Montebello_California.html</t>
   </si>
   <si>
@@ -1320,6 +1476,9 @@
     <t>***********Do not stay here *********Do not stay here!****************At least one or more cleaning staff are thieves... Do not leave anything in the room if you are not there.  I have property stolen out of the room the first night i was there, i stayed for 2 nights hoping the staff and management wouild assist in finding my stolen item, nope.  Do not stay here, do not book a hotel here, if someone books a hotel for you here, change the hotel booking. ********* Do not stay here*********  ********* Do not stay here!***********More</t>
   </si>
   <si>
+    <t>NotDiscombobulated</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32735-d78315-r119318414-Quality_Inn_Suites_Montebello-Montebello_California.html</t>
   </si>
   <si>
@@ -1338,6 +1497,9 @@
     <t>They were clean. They have a deep big pool. Secirity so I felt safe to leave my car in the parking lot. Convienant location. I was happy with my stay.More</t>
   </si>
   <si>
+    <t>Hawaiitraveller17</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32735-d78315-r115931445-Quality_Inn_Suites_Montebello-Montebello_California.html</t>
   </si>
   <si>
@@ -1359,6 +1521,9 @@
     <t>Very conveniently located tp businesses in the surrounding area.  Rooms clean and comfortable.  Staff very helpful and friendly.More</t>
   </si>
   <si>
+    <t>Terriejay</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32735-d78315-r99830574-Quality_Inn_Suites_Montebello-Montebello_California.html</t>
   </si>
   <si>
@@ -1386,6 +1551,9 @@
     <t>So I got this hotel from the choice lines and I was reassured that it was a great place wow! It was terrible! My experience was so I ck in and there was a bar open screaming drunk ppl! I got my key and they dont tell you they installed the door handles wrong and there is a certain way to open the door then the light bulbs were broken remote control batteries dead and they had to keep coming to our room and then to top it off when i went to get into bed there was CAT POOP on the floor!!!! yep dried cat poop! I called and they said Oh we come pick up I was like I thought there was no pets allowed yes  they said you are rite then when i went to tell the manager of course the next morning because i couldnt afford another hotel and i wasnt getting my money back. She acted like i drove 400 miles with a baggy of cat poop so I could get a stupid discount UNBELIEVAble experience dont come here it is filthy dirty and my view out the window was a disk the size of a house. The manager was so rude she said i will talk to house cleaning and see what they say" I was like oh yes because Im sure she will say " Yep I sure did leave cat poop in...So I got this hotel from the choice lines and I was reassured that it was a great place wow! It was terrible! My experience was so I ck in and there was a bar open screaming drunk ppl! I got my key and they dont tell you they installed the door handles wrong and there is a certain way to open the door then the light bulbs were broken remote control batteries dead and they had to keep coming to our room and then to top it off when i went to get into bed there was CAT POOP on the floor!!!! yep dried cat poop! I called and they said Oh we come pick up I was like I thought there was no pets allowed yes  they said you are rite then when i went to tell the manager of course the next morning because i couldnt afford another hotel and i wasnt getting my money back. She acted like i drove 400 miles with a baggy of cat poop so I could get a stupid discount UNBELIEVAble experience dont come here it is filthy dirty and my view out the window was a disk the size of a house. The manager was so rude she said i will talk to house cleaning and see what they say" I was like oh yes because Im sure she will say " Yep I sure did leave cat poop in the room hmm hmm !Then she said IDK the room hasnt been rented for 2 weeks. I DONT CARE if it was 3 years there is cat poop in your hotel so crazy and terrible neighborhood.More</t>
   </si>
   <si>
+    <t>oztravel6</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32735-d78315-r81276871-Quality_Inn_Suites_Montebello-Montebello_California.html</t>
   </si>
   <si>
@@ -1411,6 +1579,9 @@
   </si>
   <si>
     <t>Our group of 5 stayed here from 1/9/2010 to 3/9/2010. The rooms were large with amenities we required - iron, coffee making &amp; air conditioner. Basic &amp; clean. Staff were non existent &amp; the hotel is in the midst of an industrial area. You are basically stuck here surrounded by highways &amp; run-down factories. The hotel does not provide any food &amp; if you need to eat, there is only Dennys &amp; Starbucks about 10 minutes walking distance. There is Ozzies Diner at the intersection about 10 minutes walk &amp; the food here is reasonable (good steak &amp; fries). The hotel should organise for flyers from Ozzies as guests would starve.The hotel provides free breakfast. Besides the bread, jam &amp; butter offered, the rest of the food is unfit for human consumption. They consisted congee &amp; tinned cheap Chinese pickles, fried pasta combined with left-over cabbage leaves &amp; bits of fries left-over from the Bar the previous night. This definitely needs IMPROVEMENT. The rooms are without bar fridges &amp; it was impossible to keep foods to sustain our hunger. A microwave oven was available in the dining room - but what do we microwave when there is no fridge in the rooms?This is typical of a Chinese operated hotel merely out to win business from Chinese tour operators &amp; hoping to make a quick buck by offering sub-standard services.More</t>
+  </si>
+  <si>
+    <t>Krifissia</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32735-d78315-r61395281-Quality_Inn_Suites_Montebello-Montebello_California.html</t>
@@ -1452,6 +1623,9 @@
 The hotel also, has a restaurant very nicely decorated with a good offer on mexican/american plates at good prices and a pool table and a gym. What else could you ask in a hotel??...Ah! well yes, the price!...It was a very good...This hotel it's an oasis in the middle of the jungle of freeways and cars, LA, is! Quick check in, nice and big room with nice view to the swimming pool decorated with mosaics benches. Maybe I would add an small fridge in the room to keep some cool drinks. The staff were friendly and talkative, also very helpfull when asked about direcctions or places of interest. They offer free breakfast to their guest which is very much appreciated and generous, with scrammbled eggs, sausages, hash browns, pancakes in the hot area, changed the items every day and the cold area cereals, muffins and toast with an array of mermelades, syrups to add on.They also, offer free parking and free daily paper and not many of the hotels I searched before my trip, could say the same!We met several of the staff, from the receptionist, breakfast ladies, chambermaids, all of them beautiful friendly people, in special the manager Nadia Wu, showing a nice smile everytime we passed and giving us good advice of where to go in the city. She also opened up some tins for us, late one night after come back to the hotel.The hotel also, has a restaurant very nicely decorated with a good offer on mexican/american plates at good prices and a pool table and a gym. What else could you ask in a hotel??...Ah! well yes, the price!...It was a very good price for a triple room for 3 nights, good value for money, I can assure you.The area where the hotel is, it's easy to get to downtown, st. monica, universal studios or any other place in LA, you might want to visit, very accesible. Citadels Outlets are  5 min. away from the hotel as it's the Casino.Definitely, I would go back if ever in LA, again and without a doubt, I will recommend it to all my friends. Kind Regards, Nadia!More</t>
   </si>
   <si>
+    <t>Misst523</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32735-d78315-r29329730-Quality_Inn_Suites_Montebello-Montebello_California.html</t>
   </si>
   <si>
@@ -1476,6 +1650,9 @@
     <t>Stayed for 3 nights in April 2009.  of course renovations were being done while we were there.  Nothing too special about this hotel to be honest.  The included breakfast...what a joke.  We went to the restaurant where a buffet breakfast was being served.  We grabbed plates, got in line, then one of the hotel workers looked at us and goes "your breakfast is over there."  She points to a table off to the side which had a loaf of bread and a few stale muffins.  Um....if that's the case then who was the hot breakfast for???Other than that, the room was nicely cleaned daily and our requests for more towels was honored.  The town itself is kind shady, but not too bad considering this hotel is right near the highway.This hotel is perfect for anyone planning to do Disneyland, Universal, the Hollywood Walk of Fame and Beverly Hills all in one trip.  This hotel is smack in the middle.More</t>
   </si>
   <si>
+    <t>elgringopelon</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32735-d78315-r17168904-Quality_Inn_Suites_Montebello-Montebello_California.html</t>
   </si>
   <si>
@@ -1495,6 +1672,9 @@
   </si>
   <si>
     <t>When you book your room with this hotel, don't expect there to be a room when you get there.  They seem to have a little scam set up to oversell their rooms, then point you off in the direction of another hotel when you arrive so that they can get a cut.  I showed up with my wife and 2 toddlers after a very long day of driving, wedding rehearsal, etc...only to find out that they didn't have a room for us.  Their excuses ranged from having just one room flooded, then an entire wing, then the a/c had gone out.  I refused to be sent off to another hotel of their choice(it was in a different town), and found my own hotel.  I immediately called hotels.com to cancel my prepaid, guaranteed reservation and got the run around.  They refused to refund me all of my money.  They wanted to charge me a penalty of one night's stay.  The manager at the hotel, Esmirna, called me a liar and said that I had accepted the hotel's offer to put me up at their other hotel and that I now had to pay a penalty.  All of this was mediated over the phone by hotels.com.  Hotels.com continually hung up on me when I refused to accept the offer of the hotel to accept less than I had paid for their non-available room.  I cannot believe the way I have been treated...When you book your room with this hotel, don't expect there to be a room when you get there.  They seem to have a little scam set up to oversell their rooms, then point you off in the direction of another hotel when you arrive so that they can get a cut.  I showed up with my wife and 2 toddlers after a very long day of driving, wedding rehearsal, etc...only to find out that they didn't have a room for us.  Their excuses ranged from having just one room flooded, then an entire wing, then the a/c had gone out.  I refused to be sent off to another hotel of their choice(it was in a different town), and found my own hotel.  I immediately called hotels.com to cancel my prepaid, guaranteed reservation and got the run around.  They refused to refund me all of my money.  They wanted to charge me a penalty of one night's stay.  The manager at the hotel, Esmirna, called me a liar and said that I had accepted the hotel's offer to put me up at their other hotel and that I now had to pay a penalty.  All of this was mediated over the phone by hotels.com.  Hotels.com continually hung up on me when I refused to accept the offer of the hotel to accept less than I had paid for their non-available room.  I cannot believe the way I have been treated by both the Montebello Plaza Hotel and Hotels.com.  I am not one of those crazy people who yells and cusses when they get mad at a business.  I conducted myself 100% professionally, but all I got from both of these two companies was a hustle and a brush off.  By the way, the hotel looked like a filthy version of the Chowchilla Women's Correctional Facility.  If you must stay there, carry a can of raid.  No, I'm not joking.  Yes, this is a serious review and I can be contacted concerning this matter at -------------@-------.com.  Thank you.More</t>
+  </si>
+  <si>
+    <t>E_Sharaf_1981</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32735-d78315-r17035300-Quality_Inn_Suites_Montebello-Montebello_California.html</t>
@@ -2026,43 +2206,47 @@
       <c r="A2" t="n">
         <v>161</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>44</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M2" t="n">
         <v>1</v>
       </c>
       <c r="N2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
@@ -2076,50 +2260,54 @@
       <c r="W2" t="s"/>
       <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>161</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>55</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="J3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="K3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="L3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="M3" t="n">
         <v>1</v>
       </c>
       <c r="N3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="O3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P3" t="n">
         <v>3</v>
@@ -2139,50 +2327,54 @@
       <c r="W3" t="s"/>
       <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>161</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>63</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F4" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="G4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I4" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="J4" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="K4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="L4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="M4" t="n">
         <v>1</v>
       </c>
       <c r="N4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="O4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
@@ -2200,47 +2392,51 @@
         <v>0</v>
       </c>
       <c r="W4" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="X4" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="Y4" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>161</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>73</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F5" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="G5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I5" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="J5" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="K5" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="L5" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="M5" t="n">
         <v>4</v>
@@ -2259,50 +2455,54 @@
       <c r="W5" t="s"/>
       <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>161</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>80</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F6" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="G6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I6" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="J6" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="K6" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="L6" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="M6" t="n">
         <v>2</v>
       </c>
       <c r="N6" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="O6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P6" t="n">
         <v>3</v>
@@ -2322,50 +2522,54 @@
       <c r="W6" t="s"/>
       <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>161</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>86</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F7" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="G7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I7" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="J7" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="K7" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="L7" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="M7" t="n">
         <v>3</v>
       </c>
       <c r="N7" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="O7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P7" t="s"/>
       <c r="Q7" t="s"/>
@@ -2383,41 +2587,45 @@
       <c r="W7" t="s"/>
       <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>161</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>93</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F8" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="G8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I8" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="J8" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="K8" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="L8" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="M8" t="n">
         <v>5</v>
@@ -2436,50 +2644,54 @@
       <c r="W8" t="s"/>
       <c r="X8" t="s"/>
       <c r="Y8" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>161</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>99</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F9" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="G9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I9" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="J9" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="K9" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="L9" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="M9" t="n">
         <v>4</v>
       </c>
       <c r="N9" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="O9" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P9" t="s"/>
       <c r="Q9" t="s"/>
@@ -2493,50 +2705,54 @@
       <c r="W9" t="s"/>
       <c r="X9" t="s"/>
       <c r="Y9" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>161</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>106</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F10" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="G10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I10" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="J10" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="K10" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="L10" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="M10" t="n">
         <v>4</v>
       </c>
       <c r="N10" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="O10" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P10" t="n">
         <v>5</v>
@@ -2554,50 +2770,54 @@
       <c r="W10" t="s"/>
       <c r="X10" t="s"/>
       <c r="Y10" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>161</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
+      <c r="B11" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C11" t="s">
+        <v>112</v>
+      </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F11" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="G11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I11" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="J11" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="K11" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="L11" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="M11" t="n">
         <v>1</v>
       </c>
       <c r="N11" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="O11" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="P11" t="s"/>
       <c r="Q11" t="s"/>
@@ -2611,50 +2831,54 @@
       <c r="W11" t="s"/>
       <c r="X11" t="s"/>
       <c r="Y11" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>161</v>
       </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
+      <c r="B12" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C12" t="s">
+        <v>120</v>
+      </c>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F12" t="s">
-        <v>110</v>
+        <v>121</v>
       </c>
       <c r="G12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I12" t="s">
-        <v>111</v>
+        <v>122</v>
       </c>
       <c r="J12" t="s">
-        <v>112</v>
+        <v>123</v>
       </c>
       <c r="K12" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="L12" t="s">
-        <v>114</v>
+        <v>125</v>
       </c>
       <c r="M12" t="n">
         <v>5</v>
       </c>
       <c r="N12" t="s">
-        <v>115</v>
+        <v>126</v>
       </c>
       <c r="O12" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P12" t="s"/>
       <c r="Q12" t="s"/>
@@ -2666,56 +2890,60 @@
         <v>0</v>
       </c>
       <c r="W12" t="s">
-        <v>116</v>
+        <v>127</v>
       </c>
       <c r="X12" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
       <c r="Y12" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>161</v>
       </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="s"/>
+      <c r="B13" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C13" t="s">
+        <v>130</v>
+      </c>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F13" t="s">
-        <v>119</v>
+        <v>131</v>
       </c>
       <c r="G13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I13" t="s">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="J13" t="s">
-        <v>121</v>
+        <v>133</v>
       </c>
       <c r="K13" t="s">
-        <v>122</v>
+        <v>134</v>
       </c>
       <c r="L13" t="s">
-        <v>123</v>
+        <v>135</v>
       </c>
       <c r="M13" t="n">
         <v>5</v>
       </c>
       <c r="N13" t="s">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="O13" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="P13" t="n">
         <v>5</v>
@@ -2735,50 +2963,54 @@
       <c r="W13" t="s"/>
       <c r="X13" t="s"/>
       <c r="Y13" t="s">
-        <v>123</v>
+        <v>135</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>161</v>
       </c>
-      <c r="B14" t="s"/>
-      <c r="C14" t="s"/>
+      <c r="B14" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C14" t="s">
+        <v>137</v>
+      </c>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F14" t="s">
-        <v>125</v>
+        <v>138</v>
       </c>
       <c r="G14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I14" t="s">
-        <v>126</v>
+        <v>139</v>
       </c>
       <c r="J14" t="s">
-        <v>127</v>
+        <v>140</v>
       </c>
       <c r="K14" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="L14" t="s">
-        <v>129</v>
+        <v>142</v>
       </c>
       <c r="M14" t="n">
         <v>1</v>
       </c>
       <c r="N14" t="s">
-        <v>130</v>
+        <v>143</v>
       </c>
       <c r="O14" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P14" t="s"/>
       <c r="Q14" t="s"/>
@@ -2790,56 +3022,60 @@
         <v>0</v>
       </c>
       <c r="W14" t="s">
-        <v>131</v>
+        <v>144</v>
       </c>
       <c r="X14" t="s">
-        <v>132</v>
+        <v>145</v>
       </c>
       <c r="Y14" t="s">
-        <v>133</v>
+        <v>146</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>161</v>
       </c>
-      <c r="B15" t="s"/>
-      <c r="C15" t="s"/>
+      <c r="B15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C15" t="s">
+        <v>147</v>
+      </c>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F15" t="s">
-        <v>134</v>
+        <v>148</v>
       </c>
       <c r="G15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I15" t="s">
-        <v>135</v>
+        <v>149</v>
       </c>
       <c r="J15" t="s">
-        <v>136</v>
+        <v>150</v>
       </c>
       <c r="K15" t="s">
-        <v>137</v>
+        <v>151</v>
       </c>
       <c r="L15" t="s">
-        <v>138</v>
+        <v>152</v>
       </c>
       <c r="M15" t="n">
         <v>4</v>
       </c>
       <c r="N15" t="s">
-        <v>139</v>
+        <v>153</v>
       </c>
       <c r="O15" t="s">
-        <v>140</v>
+        <v>154</v>
       </c>
       <c r="P15" t="n">
         <v>4</v>
@@ -2855,56 +3091,60 @@
         <v>0</v>
       </c>
       <c r="W15" t="s">
-        <v>131</v>
+        <v>144</v>
       </c>
       <c r="X15" t="s">
-        <v>132</v>
+        <v>145</v>
       </c>
       <c r="Y15" t="s">
-        <v>141</v>
+        <v>155</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>161</v>
       </c>
-      <c r="B16" t="s"/>
-      <c r="C16" t="s"/>
+      <c r="B16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C16" t="s">
+        <v>156</v>
+      </c>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F16" t="s">
-        <v>142</v>
+        <v>157</v>
       </c>
       <c r="G16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I16" t="s">
-        <v>143</v>
+        <v>158</v>
       </c>
       <c r="J16" t="s">
-        <v>144</v>
+        <v>159</v>
       </c>
       <c r="K16" t="s">
-        <v>145</v>
+        <v>160</v>
       </c>
       <c r="L16" t="s">
-        <v>146</v>
+        <v>161</v>
       </c>
       <c r="M16" t="n">
         <v>3</v>
       </c>
       <c r="N16" t="s">
-        <v>147</v>
+        <v>162</v>
       </c>
       <c r="O16" t="s">
-        <v>140</v>
+        <v>154</v>
       </c>
       <c r="P16" t="s"/>
       <c r="Q16" t="s"/>
@@ -2918,50 +3158,54 @@
       <c r="W16" t="s"/>
       <c r="X16" t="s"/>
       <c r="Y16" t="s">
-        <v>146</v>
+        <v>161</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>161</v>
       </c>
-      <c r="B17" t="s"/>
-      <c r="C17" t="s"/>
+      <c r="B17" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C17" t="s">
+        <v>163</v>
+      </c>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F17" t="s">
-        <v>148</v>
+        <v>164</v>
       </c>
       <c r="G17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I17" t="s">
-        <v>149</v>
+        <v>165</v>
       </c>
       <c r="J17" t="s">
-        <v>150</v>
+        <v>166</v>
       </c>
       <c r="K17" t="s">
-        <v>151</v>
+        <v>167</v>
       </c>
       <c r="L17" t="s">
-        <v>152</v>
+        <v>168</v>
       </c>
       <c r="M17" t="n">
         <v>5</v>
       </c>
       <c r="N17" t="s">
-        <v>153</v>
+        <v>169</v>
       </c>
       <c r="O17" t="s">
-        <v>154</v>
+        <v>170</v>
       </c>
       <c r="P17" t="s"/>
       <c r="Q17" t="s"/>
@@ -2975,50 +3219,54 @@
       <c r="W17" t="s"/>
       <c r="X17" t="s"/>
       <c r="Y17" t="s">
-        <v>155</v>
+        <v>171</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>161</v>
       </c>
-      <c r="B18" t="s"/>
-      <c r="C18" t="s"/>
+      <c r="B18" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C18" t="s">
+        <v>172</v>
+      </c>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F18" t="s">
-        <v>156</v>
+        <v>173</v>
       </c>
       <c r="G18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I18" t="s">
-        <v>157</v>
+        <v>174</v>
       </c>
       <c r="J18" t="s">
-        <v>158</v>
+        <v>175</v>
       </c>
       <c r="K18" t="s">
-        <v>159</v>
+        <v>176</v>
       </c>
       <c r="L18" t="s">
-        <v>160</v>
+        <v>177</v>
       </c>
       <c r="M18" t="n">
         <v>1</v>
       </c>
       <c r="N18" t="s">
-        <v>161</v>
+        <v>178</v>
       </c>
       <c r="O18" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="P18" t="s"/>
       <c r="Q18" t="s"/>
@@ -3032,50 +3280,54 @@
       <c r="W18" t="s"/>
       <c r="X18" t="s"/>
       <c r="Y18" t="s">
-        <v>160</v>
+        <v>177</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>161</v>
       </c>
-      <c r="B19" t="s"/>
-      <c r="C19" t="s"/>
+      <c r="B19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C19" t="s">
+        <v>179</v>
+      </c>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F19" t="s">
-        <v>162</v>
+        <v>180</v>
       </c>
       <c r="G19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I19" t="s">
-        <v>163</v>
+        <v>181</v>
       </c>
       <c r="J19" t="s">
-        <v>164</v>
+        <v>182</v>
       </c>
       <c r="K19" t="s">
-        <v>165</v>
+        <v>183</v>
       </c>
       <c r="L19" t="s">
-        <v>166</v>
+        <v>184</v>
       </c>
       <c r="M19" t="n">
         <v>1</v>
       </c>
       <c r="N19" t="s">
-        <v>167</v>
+        <v>185</v>
       </c>
       <c r="O19" t="s">
-        <v>154</v>
+        <v>170</v>
       </c>
       <c r="P19" t="s"/>
       <c r="Q19" t="s"/>
@@ -3089,50 +3341,54 @@
       <c r="W19" t="s"/>
       <c r="X19" t="s"/>
       <c r="Y19" t="s">
-        <v>168</v>
+        <v>186</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>161</v>
       </c>
-      <c r="B20" t="s"/>
-      <c r="C20" t="s"/>
+      <c r="B20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C20" t="s">
+        <v>187</v>
+      </c>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F20" t="s">
-        <v>169</v>
+        <v>188</v>
       </c>
       <c r="G20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I20" t="s">
-        <v>170</v>
+        <v>189</v>
       </c>
       <c r="J20" t="s">
-        <v>171</v>
+        <v>190</v>
       </c>
       <c r="K20" t="s">
-        <v>172</v>
+        <v>191</v>
       </c>
       <c r="L20" t="s">
-        <v>173</v>
+        <v>192</v>
       </c>
       <c r="M20" t="n">
         <v>2</v>
       </c>
       <c r="N20" t="s">
-        <v>174</v>
+        <v>193</v>
       </c>
       <c r="O20" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P20" t="s"/>
       <c r="Q20" t="n">
@@ -3152,50 +3408,54 @@
       <c r="W20" t="s"/>
       <c r="X20" t="s"/>
       <c r="Y20" t="s">
-        <v>175</v>
+        <v>194</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>161</v>
       </c>
-      <c r="B21" t="s"/>
-      <c r="C21" t="s"/>
+      <c r="B21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C21" t="s">
+        <v>195</v>
+      </c>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F21" t="s">
-        <v>176</v>
+        <v>196</v>
       </c>
       <c r="G21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H21" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I21" t="s">
-        <v>177</v>
+        <v>197</v>
       </c>
       <c r="J21" t="s">
-        <v>178</v>
+        <v>198</v>
       </c>
       <c r="K21" t="s">
-        <v>179</v>
+        <v>199</v>
       </c>
       <c r="L21" t="s">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="M21" t="n">
         <v>2</v>
       </c>
       <c r="N21" t="s">
-        <v>174</v>
+        <v>193</v>
       </c>
       <c r="O21" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P21" t="s"/>
       <c r="Q21" t="s"/>
@@ -3213,50 +3473,54 @@
       <c r="W21" t="s"/>
       <c r="X21" t="s"/>
       <c r="Y21" t="s">
-        <v>180</v>
+        <v>200</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>161</v>
       </c>
-      <c r="B22" t="s"/>
-      <c r="C22" t="s"/>
+      <c r="B22" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C22" t="s">
+        <v>201</v>
+      </c>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F22" t="s">
-        <v>181</v>
+        <v>202</v>
       </c>
       <c r="G22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I22" t="s">
-        <v>182</v>
+        <v>203</v>
       </c>
       <c r="J22" t="s">
-        <v>183</v>
+        <v>204</v>
       </c>
       <c r="K22" t="s">
-        <v>184</v>
+        <v>205</v>
       </c>
       <c r="L22" t="s">
-        <v>185</v>
+        <v>206</v>
       </c>
       <c r="M22" t="n">
         <v>2</v>
       </c>
       <c r="N22" t="s">
-        <v>174</v>
+        <v>193</v>
       </c>
       <c r="O22" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P22" t="s"/>
       <c r="Q22" t="s"/>
@@ -3270,50 +3534,54 @@
       <c r="W22" t="s"/>
       <c r="X22" t="s"/>
       <c r="Y22" t="s">
-        <v>186</v>
+        <v>207</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>161</v>
       </c>
-      <c r="B23" t="s"/>
-      <c r="C23" t="s"/>
+      <c r="B23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C23" t="s">
+        <v>208</v>
+      </c>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F23" t="s">
-        <v>187</v>
+        <v>209</v>
       </c>
       <c r="G23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H23" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I23" t="s">
-        <v>188</v>
+        <v>210</v>
       </c>
       <c r="J23" t="s">
-        <v>189</v>
+        <v>211</v>
       </c>
       <c r="K23" t="s">
-        <v>190</v>
+        <v>212</v>
       </c>
       <c r="L23" t="s">
-        <v>191</v>
+        <v>213</v>
       </c>
       <c r="M23" t="n">
         <v>5</v>
       </c>
       <c r="N23" t="s">
-        <v>192</v>
+        <v>214</v>
       </c>
       <c r="O23" t="s">
-        <v>140</v>
+        <v>154</v>
       </c>
       <c r="P23" t="s"/>
       <c r="Q23" t="s"/>
@@ -3327,50 +3595,54 @@
       <c r="W23" t="s"/>
       <c r="X23" t="s"/>
       <c r="Y23" t="s">
-        <v>191</v>
+        <v>213</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>161</v>
       </c>
-      <c r="B24" t="s"/>
-      <c r="C24" t="s"/>
+      <c r="B24" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C24" t="s">
+        <v>215</v>
+      </c>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F24" t="s">
-        <v>193</v>
+        <v>216</v>
       </c>
       <c r="G24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H24" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I24" t="s">
-        <v>194</v>
+        <v>217</v>
       </c>
       <c r="J24" t="s">
-        <v>195</v>
+        <v>218</v>
       </c>
       <c r="K24" t="s">
-        <v>196</v>
+        <v>219</v>
       </c>
       <c r="L24" t="s">
-        <v>197</v>
+        <v>220</v>
       </c>
       <c r="M24" t="n">
         <v>4</v>
       </c>
       <c r="N24" t="s">
-        <v>198</v>
+        <v>221</v>
       </c>
       <c r="O24" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P24" t="s"/>
       <c r="Q24" t="s"/>
@@ -3384,50 +3656,54 @@
       <c r="W24" t="s"/>
       <c r="X24" t="s"/>
       <c r="Y24" t="s">
-        <v>199</v>
+        <v>222</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>161</v>
       </c>
-      <c r="B25" t="s"/>
-      <c r="C25" t="s"/>
+      <c r="B25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C25" t="s">
+        <v>223</v>
+      </c>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F25" t="s">
-        <v>200</v>
+        <v>224</v>
       </c>
       <c r="G25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H25" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I25" t="s">
-        <v>201</v>
+        <v>225</v>
       </c>
       <c r="J25" t="s">
-        <v>202</v>
+        <v>226</v>
       </c>
       <c r="K25" t="s">
-        <v>203</v>
+        <v>227</v>
       </c>
       <c r="L25" t="s">
-        <v>204</v>
+        <v>228</v>
       </c>
       <c r="M25" t="n">
         <v>4</v>
       </c>
       <c r="N25" t="s">
-        <v>198</v>
+        <v>221</v>
       </c>
       <c r="O25" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="P25" t="n">
         <v>4</v>
@@ -3447,50 +3723,54 @@
       <c r="W25" t="s"/>
       <c r="X25" t="s"/>
       <c r="Y25" t="s">
-        <v>204</v>
+        <v>228</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>161</v>
       </c>
-      <c r="B26" t="s"/>
-      <c r="C26" t="s"/>
+      <c r="B26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C26" t="s">
+        <v>229</v>
+      </c>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F26" t="s">
-        <v>205</v>
+        <v>230</v>
       </c>
       <c r="G26" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H26" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I26" t="s">
-        <v>206</v>
+        <v>231</v>
       </c>
       <c r="J26" t="s">
-        <v>207</v>
+        <v>232</v>
       </c>
       <c r="K26" t="s">
-        <v>208</v>
+        <v>233</v>
       </c>
       <c r="L26" t="s">
-        <v>209</v>
+        <v>234</v>
       </c>
       <c r="M26" t="n">
         <v>1</v>
       </c>
       <c r="N26" t="s">
-        <v>210</v>
+        <v>235</v>
       </c>
       <c r="O26" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P26" t="s"/>
       <c r="Q26" t="s"/>
@@ -3502,56 +3782,60 @@
         <v>0</v>
       </c>
       <c r="W26" t="s">
-        <v>211</v>
+        <v>236</v>
       </c>
       <c r="X26" t="s">
-        <v>212</v>
+        <v>237</v>
       </c>
       <c r="Y26" t="s">
-        <v>213</v>
+        <v>238</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>161</v>
       </c>
-      <c r="B27" t="s"/>
-      <c r="C27" t="s"/>
+      <c r="B27" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C27" t="s">
+        <v>239</v>
+      </c>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F27" t="s">
-        <v>214</v>
+        <v>240</v>
       </c>
       <c r="G27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H27" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I27" t="s">
-        <v>215</v>
+        <v>241</v>
       </c>
       <c r="J27" t="s">
-        <v>216</v>
+        <v>242</v>
       </c>
       <c r="K27" t="s">
-        <v>217</v>
+        <v>243</v>
       </c>
       <c r="L27" t="s">
-        <v>218</v>
+        <v>244</v>
       </c>
       <c r="M27" t="n">
         <v>3</v>
       </c>
       <c r="N27" t="s">
-        <v>219</v>
+        <v>245</v>
       </c>
       <c r="O27" t="s">
-        <v>140</v>
+        <v>154</v>
       </c>
       <c r="P27" t="s"/>
       <c r="Q27" t="s"/>
@@ -3571,50 +3855,54 @@
       <c r="W27" t="s"/>
       <c r="X27" t="s"/>
       <c r="Y27" t="s">
-        <v>220</v>
+        <v>246</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>161</v>
       </c>
-      <c r="B28" t="s"/>
-      <c r="C28" t="s"/>
+      <c r="B28" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C28" t="s">
+        <v>247</v>
+      </c>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F28" t="s">
-        <v>221</v>
+        <v>248</v>
       </c>
       <c r="G28" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H28" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I28" t="s">
-        <v>222</v>
+        <v>249</v>
       </c>
       <c r="J28" t="s">
-        <v>223</v>
+        <v>250</v>
       </c>
       <c r="K28" t="s">
-        <v>224</v>
+        <v>251</v>
       </c>
       <c r="L28" t="s">
-        <v>225</v>
+        <v>252</v>
       </c>
       <c r="M28" t="n">
         <v>3</v>
       </c>
       <c r="N28" t="s">
-        <v>226</v>
+        <v>253</v>
       </c>
       <c r="O28" t="s">
-        <v>227</v>
+        <v>254</v>
       </c>
       <c r="P28" t="s"/>
       <c r="Q28" t="s"/>
@@ -3632,50 +3920,54 @@
       <c r="W28" t="s"/>
       <c r="X28" t="s"/>
       <c r="Y28" t="s">
-        <v>228</v>
+        <v>255</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>161</v>
       </c>
-      <c r="B29" t="s"/>
-      <c r="C29" t="s"/>
+      <c r="B29" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C29" t="s">
+        <v>256</v>
+      </c>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F29" t="s">
-        <v>229</v>
+        <v>257</v>
       </c>
       <c r="G29" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H29" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I29" t="s">
-        <v>230</v>
+        <v>258</v>
       </c>
       <c r="J29" t="s">
-        <v>231</v>
+        <v>259</v>
       </c>
       <c r="K29" t="s">
-        <v>232</v>
+        <v>260</v>
       </c>
       <c r="L29" t="s">
-        <v>233</v>
+        <v>261</v>
       </c>
       <c r="M29" t="n">
         <v>3</v>
       </c>
       <c r="N29" t="s">
-        <v>234</v>
+        <v>262</v>
       </c>
       <c r="O29" t="s">
-        <v>227</v>
+        <v>254</v>
       </c>
       <c r="P29" t="n">
         <v>3</v>
@@ -3695,50 +3987,54 @@
       <c r="W29" t="s"/>
       <c r="X29" t="s"/>
       <c r="Y29" t="s">
-        <v>235</v>
+        <v>263</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>161</v>
       </c>
-      <c r="B30" t="s"/>
-      <c r="C30" t="s"/>
+      <c r="B30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C30" t="s">
+        <v>264</v>
+      </c>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F30" t="s">
-        <v>236</v>
+        <v>265</v>
       </c>
       <c r="G30" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H30" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I30" t="s">
-        <v>237</v>
+        <v>266</v>
       </c>
       <c r="J30" t="s">
-        <v>238</v>
+        <v>267</v>
       </c>
       <c r="K30" t="s">
-        <v>239</v>
+        <v>268</v>
       </c>
       <c r="L30" t="s">
-        <v>240</v>
+        <v>269</v>
       </c>
       <c r="M30" t="n">
         <v>1</v>
       </c>
       <c r="N30" t="s">
-        <v>234</v>
+        <v>262</v>
       </c>
       <c r="O30" t="s">
-        <v>227</v>
+        <v>254</v>
       </c>
       <c r="P30" t="s"/>
       <c r="Q30" t="s"/>
@@ -3752,50 +4048,54 @@
       <c r="W30" t="s"/>
       <c r="X30" t="s"/>
       <c r="Y30" t="s">
-        <v>241</v>
+        <v>270</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>161</v>
       </c>
-      <c r="B31" t="s"/>
-      <c r="C31" t="s"/>
+      <c r="B31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C31" t="s">
+        <v>271</v>
+      </c>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F31" t="s">
-        <v>242</v>
+        <v>272</v>
       </c>
       <c r="G31" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H31" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I31" t="s">
-        <v>243</v>
+        <v>273</v>
       </c>
       <c r="J31" t="s">
-        <v>244</v>
+        <v>274</v>
       </c>
       <c r="K31" t="s">
-        <v>245</v>
+        <v>275</v>
       </c>
       <c r="L31" t="s">
-        <v>246</v>
+        <v>276</v>
       </c>
       <c r="M31" t="n">
         <v>3</v>
       </c>
       <c r="N31" t="s">
-        <v>234</v>
+        <v>262</v>
       </c>
       <c r="O31" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P31" t="s"/>
       <c r="Q31" t="s"/>
@@ -3813,50 +4113,54 @@
       <c r="W31" t="s"/>
       <c r="X31" t="s"/>
       <c r="Y31" t="s">
-        <v>246</v>
+        <v>276</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>161</v>
       </c>
-      <c r="B32" t="s"/>
-      <c r="C32" t="s"/>
+      <c r="B32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C32" t="s">
+        <v>277</v>
+      </c>
       <c r="D32" t="n">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F32" t="s">
-        <v>247</v>
+        <v>278</v>
       </c>
       <c r="G32" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H32" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I32" t="s">
-        <v>248</v>
+        <v>279</v>
       </c>
       <c r="J32" t="s">
-        <v>249</v>
+        <v>280</v>
       </c>
       <c r="K32" t="s">
-        <v>250</v>
+        <v>281</v>
       </c>
       <c r="L32" t="s">
-        <v>251</v>
+        <v>282</v>
       </c>
       <c r="M32" t="n">
         <v>2</v>
       </c>
       <c r="N32" t="s">
-        <v>252</v>
+        <v>283</v>
       </c>
       <c r="O32" t="s">
-        <v>140</v>
+        <v>154</v>
       </c>
       <c r="P32" t="n">
         <v>2</v>
@@ -3876,50 +4180,54 @@
       <c r="W32" t="s"/>
       <c r="X32" t="s"/>
       <c r="Y32" t="s">
-        <v>253</v>
+        <v>284</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>161</v>
       </c>
-      <c r="B33" t="s"/>
-      <c r="C33" t="s"/>
+      <c r="B33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C33" t="s">
+        <v>285</v>
+      </c>
       <c r="D33" t="n">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F33" t="s">
-        <v>254</v>
+        <v>286</v>
       </c>
       <c r="G33" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H33" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I33" t="s">
-        <v>255</v>
+        <v>287</v>
       </c>
       <c r="J33" t="s">
-        <v>256</v>
+        <v>288</v>
       </c>
       <c r="K33" t="s">
-        <v>257</v>
+        <v>289</v>
       </c>
       <c r="L33" t="s">
-        <v>258</v>
+        <v>290</v>
       </c>
       <c r="M33" t="n">
         <v>4</v>
       </c>
       <c r="N33" t="s">
-        <v>259</v>
+        <v>291</v>
       </c>
       <c r="O33" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P33" t="n">
         <v>4</v>
@@ -3943,50 +4251,54 @@
       <c r="W33" t="s"/>
       <c r="X33" t="s"/>
       <c r="Y33" t="s">
-        <v>260</v>
+        <v>292</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>161</v>
       </c>
-      <c r="B34" t="s"/>
-      <c r="C34" t="s"/>
+      <c r="B34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C34" t="s">
+        <v>293</v>
+      </c>
       <c r="D34" t="n">
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F34" t="s">
-        <v>261</v>
+        <v>294</v>
       </c>
       <c r="G34" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H34" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I34" t="s">
-        <v>262</v>
+        <v>295</v>
       </c>
       <c r="J34" t="s">
-        <v>263</v>
+        <v>296</v>
       </c>
       <c r="K34" t="s">
-        <v>264</v>
+        <v>297</v>
       </c>
       <c r="L34" t="s">
-        <v>265</v>
+        <v>298</v>
       </c>
       <c r="M34" t="n">
         <v>2</v>
       </c>
       <c r="N34" t="s">
-        <v>266</v>
+        <v>299</v>
       </c>
       <c r="O34" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="P34" t="n">
         <v>2</v>
@@ -4010,50 +4322,54 @@
       <c r="W34" t="s"/>
       <c r="X34" t="s"/>
       <c r="Y34" t="s">
-        <v>267</v>
+        <v>300</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>161</v>
       </c>
-      <c r="B35" t="s"/>
-      <c r="C35" t="s"/>
+      <c r="B35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C35" t="s">
+        <v>301</v>
+      </c>
       <c r="D35" t="n">
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F35" t="s">
-        <v>268</v>
+        <v>302</v>
       </c>
       <c r="G35" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H35" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I35" t="s">
-        <v>269</v>
+        <v>303</v>
       </c>
       <c r="J35" t="s">
-        <v>270</v>
+        <v>304</v>
       </c>
       <c r="K35" t="s">
-        <v>271</v>
+        <v>305</v>
       </c>
       <c r="L35" t="s">
-        <v>272</v>
+        <v>306</v>
       </c>
       <c r="M35" t="n">
         <v>1</v>
       </c>
       <c r="N35" t="s">
-        <v>273</v>
+        <v>307</v>
       </c>
       <c r="O35" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P35" t="n">
         <v>3</v>
@@ -4075,56 +4391,60 @@
         <v>0</v>
       </c>
       <c r="W35" t="s">
-        <v>274</v>
+        <v>308</v>
       </c>
       <c r="X35" t="s">
-        <v>275</v>
+        <v>309</v>
       </c>
       <c r="Y35" t="s">
-        <v>276</v>
+        <v>310</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>161</v>
       </c>
-      <c r="B36" t="s"/>
-      <c r="C36" t="s"/>
+      <c r="B36" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C36" t="s">
+        <v>311</v>
+      </c>
       <c r="D36" t="n">
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F36" t="s">
-        <v>277</v>
+        <v>312</v>
       </c>
       <c r="G36" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H36" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I36" t="s">
-        <v>278</v>
+        <v>313</v>
       </c>
       <c r="J36" t="s">
-        <v>279</v>
+        <v>314</v>
       </c>
       <c r="K36" t="s">
-        <v>280</v>
+        <v>315</v>
       </c>
       <c r="L36" t="s">
-        <v>281</v>
+        <v>316</v>
       </c>
       <c r="M36" t="n">
         <v>2</v>
       </c>
       <c r="N36" t="s">
-        <v>282</v>
+        <v>317</v>
       </c>
       <c r="O36" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P36" t="s"/>
       <c r="Q36" t="s"/>
@@ -4136,47 +4456,51 @@
         <v>0</v>
       </c>
       <c r="W36" t="s">
-        <v>283</v>
+        <v>318</v>
       </c>
       <c r="X36" t="s">
-        <v>284</v>
+        <v>319</v>
       </c>
       <c r="Y36" t="s">
-        <v>285</v>
+        <v>320</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>161</v>
       </c>
-      <c r="B37" t="s"/>
-      <c r="C37" t="s"/>
+      <c r="B37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C37" t="s">
+        <v>321</v>
+      </c>
       <c r="D37" t="n">
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F37" t="s">
-        <v>286</v>
+        <v>322</v>
       </c>
       <c r="G37" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H37" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I37" t="s">
-        <v>287</v>
+        <v>323</v>
       </c>
       <c r="J37" t="s">
-        <v>288</v>
+        <v>324</v>
       </c>
       <c r="K37" t="s">
-        <v>289</v>
+        <v>325</v>
       </c>
       <c r="L37" t="s">
-        <v>290</v>
+        <v>326</v>
       </c>
       <c r="M37" t="n">
         <v>1</v>
@@ -4203,47 +4527,51 @@
         <v>0</v>
       </c>
       <c r="W37" t="s">
-        <v>291</v>
+        <v>327</v>
       </c>
       <c r="X37" t="s">
-        <v>292</v>
+        <v>328</v>
       </c>
       <c r="Y37" t="s">
-        <v>293</v>
+        <v>329</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
         <v>161</v>
       </c>
-      <c r="B38" t="s"/>
-      <c r="C38" t="s"/>
+      <c r="B38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C38" t="s">
+        <v>330</v>
+      </c>
       <c r="D38" t="n">
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F38" t="s">
-        <v>294</v>
+        <v>331</v>
       </c>
       <c r="G38" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H38" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I38" t="s">
-        <v>295</v>
+        <v>332</v>
       </c>
       <c r="J38" t="s">
-        <v>296</v>
+        <v>333</v>
       </c>
       <c r="K38" t="s">
-        <v>297</v>
+        <v>334</v>
       </c>
       <c r="L38" t="s">
-        <v>298</v>
+        <v>335</v>
       </c>
       <c r="M38" t="n">
         <v>4</v>
@@ -4270,56 +4598,60 @@
         <v>0</v>
       </c>
       <c r="W38" t="s">
-        <v>299</v>
+        <v>336</v>
       </c>
       <c r="X38" t="s">
-        <v>300</v>
+        <v>337</v>
       </c>
       <c r="Y38" t="s">
-        <v>301</v>
+        <v>338</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
         <v>161</v>
       </c>
-      <c r="B39" t="s"/>
-      <c r="C39" t="s"/>
+      <c r="B39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C39" t="s">
+        <v>339</v>
+      </c>
       <c r="D39" t="n">
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F39" t="s">
-        <v>302</v>
+        <v>340</v>
       </c>
       <c r="G39" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H39" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I39" t="s">
-        <v>303</v>
+        <v>341</v>
       </c>
       <c r="J39" t="s">
-        <v>304</v>
+        <v>342</v>
       </c>
       <c r="K39" t="s">
-        <v>305</v>
+        <v>343</v>
       </c>
       <c r="L39" t="s">
-        <v>306</v>
+        <v>344</v>
       </c>
       <c r="M39" t="n">
         <v>1</v>
       </c>
       <c r="N39" t="s">
-        <v>307</v>
+        <v>345</v>
       </c>
       <c r="O39" t="s">
-        <v>140</v>
+        <v>154</v>
       </c>
       <c r="P39" t="n">
         <v>1</v>
@@ -4341,56 +4673,60 @@
         <v>0</v>
       </c>
       <c r="W39" t="s">
-        <v>308</v>
+        <v>346</v>
       </c>
       <c r="X39" t="s">
-        <v>309</v>
+        <v>347</v>
       </c>
       <c r="Y39" t="s">
-        <v>310</v>
+        <v>348</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
         <v>161</v>
       </c>
-      <c r="B40" t="s"/>
-      <c r="C40" t="s"/>
+      <c r="B40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C40" t="s">
+        <v>349</v>
+      </c>
       <c r="D40" t="n">
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F40" t="s">
-        <v>311</v>
+        <v>350</v>
       </c>
       <c r="G40" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H40" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I40" t="s">
-        <v>312</v>
+        <v>351</v>
       </c>
       <c r="J40" t="s">
-        <v>313</v>
+        <v>352</v>
       </c>
       <c r="K40" t="s">
-        <v>314</v>
+        <v>353</v>
       </c>
       <c r="L40" t="s">
-        <v>315</v>
+        <v>354</v>
       </c>
       <c r="M40" t="n">
         <v>5</v>
       </c>
       <c r="N40" t="s">
-        <v>316</v>
+        <v>355</v>
       </c>
       <c r="O40" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P40" t="n">
         <v>5</v>
@@ -4412,56 +4748,60 @@
         <v>0</v>
       </c>
       <c r="W40" t="s">
-        <v>308</v>
+        <v>346</v>
       </c>
       <c r="X40" t="s">
-        <v>309</v>
+        <v>347</v>
       </c>
       <c r="Y40" t="s">
-        <v>317</v>
+        <v>356</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
         <v>161</v>
       </c>
-      <c r="B41" t="s"/>
-      <c r="C41" t="s"/>
+      <c r="B41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C41" t="s">
+        <v>357</v>
+      </c>
       <c r="D41" t="n">
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F41" t="s">
-        <v>318</v>
+        <v>358</v>
       </c>
       <c r="G41" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H41" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I41" t="s">
-        <v>319</v>
+        <v>359</v>
       </c>
       <c r="J41" t="s">
-        <v>320</v>
+        <v>360</v>
       </c>
       <c r="K41" t="s">
-        <v>321</v>
+        <v>361</v>
       </c>
       <c r="L41" t="s">
-        <v>322</v>
+        <v>362</v>
       </c>
       <c r="M41" t="n">
         <v>3</v>
       </c>
       <c r="N41" t="s">
-        <v>323</v>
+        <v>363</v>
       </c>
       <c r="O41" t="s">
-        <v>154</v>
+        <v>170</v>
       </c>
       <c r="P41" t="s"/>
       <c r="Q41" t="s"/>
@@ -4473,47 +4813,51 @@
         <v>0</v>
       </c>
       <c r="W41" t="s">
-        <v>324</v>
+        <v>364</v>
       </c>
       <c r="X41" t="s">
-        <v>325</v>
+        <v>365</v>
       </c>
       <c r="Y41" t="s">
-        <v>326</v>
+        <v>366</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
         <v>161</v>
       </c>
-      <c r="B42" t="s"/>
-      <c r="C42" t="s"/>
+      <c r="B42" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C42" t="s">
+        <v>367</v>
+      </c>
       <c r="D42" t="n">
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F42" t="s">
-        <v>327</v>
+        <v>368</v>
       </c>
       <c r="G42" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H42" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I42" t="s">
-        <v>328</v>
+        <v>369</v>
       </c>
       <c r="J42" t="s">
-        <v>329</v>
+        <v>370</v>
       </c>
       <c r="K42" t="s">
-        <v>330</v>
+        <v>371</v>
       </c>
       <c r="L42" t="s">
-        <v>331</v>
+        <v>372</v>
       </c>
       <c r="M42" t="n">
         <v>1</v>
@@ -4540,47 +4884,51 @@
         <v>0</v>
       </c>
       <c r="W42" t="s">
-        <v>332</v>
+        <v>373</v>
       </c>
       <c r="X42" t="s">
-        <v>333</v>
+        <v>374</v>
       </c>
       <c r="Y42" t="s">
-        <v>334</v>
+        <v>375</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
         <v>161</v>
       </c>
-      <c r="B43" t="s"/>
-      <c r="C43" t="s"/>
+      <c r="B43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C43" t="s">
+        <v>376</v>
+      </c>
       <c r="D43" t="n">
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F43" t="s">
-        <v>335</v>
+        <v>377</v>
       </c>
       <c r="G43" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H43" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I43" t="s">
-        <v>336</v>
+        <v>378</v>
       </c>
       <c r="J43" t="s">
-        <v>337</v>
+        <v>379</v>
       </c>
       <c r="K43" t="s">
-        <v>338</v>
+        <v>380</v>
       </c>
       <c r="L43" t="s">
-        <v>339</v>
+        <v>381</v>
       </c>
       <c r="M43" t="n">
         <v>4</v>
@@ -4607,56 +4955,60 @@
         <v>0</v>
       </c>
       <c r="W43" t="s">
-        <v>332</v>
+        <v>373</v>
       </c>
       <c r="X43" t="s">
-        <v>333</v>
+        <v>374</v>
       </c>
       <c r="Y43" t="s">
-        <v>340</v>
+        <v>382</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
         <v>161</v>
       </c>
-      <c r="B44" t="s"/>
-      <c r="C44" t="s"/>
+      <c r="B44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C44" t="s">
+        <v>383</v>
+      </c>
       <c r="D44" t="n">
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F44" t="s">
-        <v>341</v>
+        <v>384</v>
       </c>
       <c r="G44" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H44" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I44" t="s">
-        <v>342</v>
+        <v>385</v>
       </c>
       <c r="J44" t="s">
-        <v>343</v>
+        <v>386</v>
       </c>
       <c r="K44" t="s">
-        <v>344</v>
+        <v>387</v>
       </c>
       <c r="L44" t="s">
-        <v>345</v>
+        <v>388</v>
       </c>
       <c r="M44" t="n">
         <v>4</v>
       </c>
       <c r="N44" t="s">
-        <v>346</v>
+        <v>389</v>
       </c>
       <c r="O44" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P44" t="n">
         <v>5</v>
@@ -4678,56 +5030,60 @@
         <v>0</v>
       </c>
       <c r="W44" t="s">
-        <v>347</v>
+        <v>390</v>
       </c>
       <c r="X44" t="s">
-        <v>348</v>
+        <v>391</v>
       </c>
       <c r="Y44" t="s">
-        <v>349</v>
+        <v>392</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
         <v>161</v>
       </c>
-      <c r="B45" t="s"/>
-      <c r="C45" t="s"/>
+      <c r="B45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C45" t="s">
+        <v>393</v>
+      </c>
       <c r="D45" t="n">
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F45" t="s">
-        <v>350</v>
+        <v>394</v>
       </c>
       <c r="G45" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H45" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I45" t="s">
-        <v>351</v>
+        <v>395</v>
       </c>
       <c r="J45" t="s">
-        <v>352</v>
+        <v>396</v>
       </c>
       <c r="K45" t="s">
-        <v>353</v>
+        <v>397</v>
       </c>
       <c r="L45" t="s">
-        <v>354</v>
+        <v>398</v>
       </c>
       <c r="M45" t="n">
         <v>4</v>
       </c>
       <c r="N45" t="s">
-        <v>355</v>
+        <v>399</v>
       </c>
       <c r="O45" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="P45" t="n">
         <v>4</v>
@@ -4749,56 +5105,60 @@
         <v>0</v>
       </c>
       <c r="W45" t="s">
-        <v>356</v>
+        <v>400</v>
       </c>
       <c r="X45" t="s">
-        <v>357</v>
+        <v>401</v>
       </c>
       <c r="Y45" t="s">
-        <v>358</v>
+        <v>402</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
         <v>161</v>
       </c>
-      <c r="B46" t="s"/>
-      <c r="C46" t="s"/>
+      <c r="B46" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C46" t="s">
+        <v>403</v>
+      </c>
       <c r="D46" t="n">
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F46" t="s">
-        <v>359</v>
+        <v>404</v>
       </c>
       <c r="G46" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H46" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I46" t="s">
-        <v>360</v>
+        <v>405</v>
       </c>
       <c r="J46" t="s">
-        <v>361</v>
+        <v>406</v>
       </c>
       <c r="K46" t="s">
-        <v>362</v>
+        <v>407</v>
       </c>
       <c r="L46" t="s">
-        <v>363</v>
+        <v>408</v>
       </c>
       <c r="M46" t="n">
         <v>4</v>
       </c>
       <c r="N46" t="s">
-        <v>364</v>
+        <v>409</v>
       </c>
       <c r="O46" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P46" t="n">
         <v>4</v>
@@ -4820,47 +5180,51 @@
         <v>0</v>
       </c>
       <c r="W46" t="s">
-        <v>365</v>
+        <v>410</v>
       </c>
       <c r="X46" t="s">
-        <v>366</v>
+        <v>411</v>
       </c>
       <c r="Y46" t="s">
-        <v>367</v>
+        <v>412</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
         <v>161</v>
       </c>
-      <c r="B47" t="s"/>
-      <c r="C47" t="s"/>
+      <c r="B47" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C47" t="s">
+        <v>413</v>
+      </c>
       <c r="D47" t="n">
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F47" t="s">
-        <v>368</v>
+        <v>414</v>
       </c>
       <c r="G47" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H47" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I47" t="s">
-        <v>369</v>
+        <v>415</v>
       </c>
       <c r="J47" t="s">
-        <v>370</v>
+        <v>416</v>
       </c>
       <c r="K47" t="s">
-        <v>371</v>
+        <v>417</v>
       </c>
       <c r="L47" t="s">
-        <v>372</v>
+        <v>418</v>
       </c>
       <c r="M47" t="n">
         <v>4</v>
@@ -4887,56 +5251,60 @@
         <v>0</v>
       </c>
       <c r="W47" t="s">
-        <v>373</v>
+        <v>419</v>
       </c>
       <c r="X47" t="s">
-        <v>374</v>
+        <v>420</v>
       </c>
       <c r="Y47" t="s">
-        <v>375</v>
+        <v>421</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
         <v>161</v>
       </c>
-      <c r="B48" t="s"/>
-      <c r="C48" t="s"/>
+      <c r="B48" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C48" t="s">
+        <v>422</v>
+      </c>
       <c r="D48" t="n">
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F48" t="s">
-        <v>376</v>
+        <v>423</v>
       </c>
       <c r="G48" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H48" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I48" t="s">
-        <v>377</v>
+        <v>424</v>
       </c>
       <c r="J48" t="s">
-        <v>370</v>
+        <v>416</v>
       </c>
       <c r="K48" t="s">
-        <v>378</v>
+        <v>425</v>
       </c>
       <c r="L48" t="s">
-        <v>379</v>
+        <v>426</v>
       </c>
       <c r="M48" t="n">
         <v>5</v>
       </c>
       <c r="N48" t="s">
-        <v>380</v>
+        <v>427</v>
       </c>
       <c r="O48" t="s">
-        <v>140</v>
+        <v>154</v>
       </c>
       <c r="P48" t="n">
         <v>4</v>
@@ -4958,56 +5326,60 @@
         <v>0</v>
       </c>
       <c r="W48" t="s">
-        <v>373</v>
+        <v>419</v>
       </c>
       <c r="X48" t="s">
-        <v>374</v>
+        <v>420</v>
       </c>
       <c r="Y48" t="s">
-        <v>381</v>
+        <v>428</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
         <v>161</v>
       </c>
-      <c r="B49" t="s"/>
-      <c r="C49" t="s"/>
+      <c r="B49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C49" t="s">
+        <v>429</v>
+      </c>
       <c r="D49" t="n">
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F49" t="s">
-        <v>382</v>
+        <v>430</v>
       </c>
       <c r="G49" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H49" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I49" t="s">
-        <v>383</v>
+        <v>431</v>
       </c>
       <c r="J49" t="s">
-        <v>384</v>
+        <v>432</v>
       </c>
       <c r="K49" t="s">
-        <v>385</v>
+        <v>433</v>
       </c>
       <c r="L49" t="s">
-        <v>386</v>
+        <v>434</v>
       </c>
       <c r="M49" t="n">
         <v>5</v>
       </c>
       <c r="N49" t="s">
-        <v>387</v>
+        <v>435</v>
       </c>
       <c r="O49" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="P49" t="n">
         <v>5</v>
@@ -5029,56 +5401,60 @@
         <v>0</v>
       </c>
       <c r="W49" t="s">
-        <v>373</v>
+        <v>419</v>
       </c>
       <c r="X49" t="s">
-        <v>374</v>
+        <v>420</v>
       </c>
       <c r="Y49" t="s">
-        <v>388</v>
+        <v>436</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
         <v>161</v>
       </c>
-      <c r="B50" t="s"/>
-      <c r="C50" t="s"/>
+      <c r="B50" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C50" t="s">
+        <v>437</v>
+      </c>
       <c r="D50" t="n">
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F50" t="s">
-        <v>389</v>
+        <v>438</v>
       </c>
       <c r="G50" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H50" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I50" t="s">
-        <v>390</v>
+        <v>439</v>
       </c>
       <c r="J50" t="s">
-        <v>391</v>
+        <v>440</v>
       </c>
       <c r="K50" t="s">
-        <v>392</v>
+        <v>441</v>
       </c>
       <c r="L50" t="s">
-        <v>393</v>
+        <v>442</v>
       </c>
       <c r="M50" t="n">
         <v>1</v>
       </c>
       <c r="N50" t="s">
-        <v>380</v>
+        <v>427</v>
       </c>
       <c r="O50" t="s">
-        <v>154</v>
+        <v>170</v>
       </c>
       <c r="P50" t="n">
         <v>1</v>
@@ -5100,56 +5476,60 @@
         <v>0</v>
       </c>
       <c r="W50" t="s">
-        <v>394</v>
+        <v>443</v>
       </c>
       <c r="X50" t="s">
-        <v>395</v>
+        <v>444</v>
       </c>
       <c r="Y50" t="s">
-        <v>396</v>
+        <v>445</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
         <v>161</v>
       </c>
-      <c r="B51" t="s"/>
-      <c r="C51" t="s"/>
+      <c r="B51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C51" t="s">
+        <v>446</v>
+      </c>
       <c r="D51" t="n">
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F51" t="s">
-        <v>397</v>
+        <v>447</v>
       </c>
       <c r="G51" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H51" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I51" t="s">
-        <v>398</v>
+        <v>448</v>
       </c>
       <c r="J51" t="s">
-        <v>399</v>
+        <v>449</v>
       </c>
       <c r="K51" t="s">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="L51" t="s">
-        <v>401</v>
+        <v>451</v>
       </c>
       <c r="M51" t="n">
         <v>1</v>
       </c>
       <c r="N51" t="s">
-        <v>387</v>
+        <v>435</v>
       </c>
       <c r="O51" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="P51" t="n">
         <v>2</v>
@@ -5171,56 +5551,60 @@
         <v>0</v>
       </c>
       <c r="W51" t="s">
-        <v>402</v>
+        <v>452</v>
       </c>
       <c r="X51" t="s">
-        <v>403</v>
+        <v>453</v>
       </c>
       <c r="Y51" t="s">
-        <v>404</v>
+        <v>454</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
         <v>161</v>
       </c>
-      <c r="B52" t="s"/>
-      <c r="C52" t="s"/>
+      <c r="B52" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C52" t="s">
+        <v>455</v>
+      </c>
       <c r="D52" t="n">
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F52" t="s">
-        <v>405</v>
+        <v>456</v>
       </c>
       <c r="G52" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H52" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I52" t="s">
-        <v>406</v>
+        <v>457</v>
       </c>
       <c r="J52" t="s">
-        <v>407</v>
+        <v>458</v>
       </c>
       <c r="K52" t="s">
-        <v>408</v>
+        <v>459</v>
       </c>
       <c r="L52" t="s">
-        <v>409</v>
+        <v>460</v>
       </c>
       <c r="M52" t="n">
         <v>1</v>
       </c>
       <c r="N52" t="s">
-        <v>387</v>
+        <v>435</v>
       </c>
       <c r="O52" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="P52" t="n">
         <v>1</v>
@@ -5242,56 +5626,60 @@
         <v>0</v>
       </c>
       <c r="W52" t="s">
-        <v>402</v>
+        <v>452</v>
       </c>
       <c r="X52" t="s">
-        <v>403</v>
+        <v>453</v>
       </c>
       <c r="Y52" t="s">
-        <v>410</v>
+        <v>461</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
         <v>161</v>
       </c>
-      <c r="B53" t="s"/>
-      <c r="C53" t="s"/>
+      <c r="B53" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C53" t="s">
+        <v>462</v>
+      </c>
       <c r="D53" t="n">
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F53" t="s">
-        <v>411</v>
+        <v>463</v>
       </c>
       <c r="G53" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H53" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I53" t="s">
-        <v>412</v>
+        <v>464</v>
       </c>
       <c r="J53" t="s">
-        <v>413</v>
+        <v>465</v>
       </c>
       <c r="K53" t="s">
-        <v>414</v>
+        <v>466</v>
       </c>
       <c r="L53" t="s">
-        <v>415</v>
+        <v>467</v>
       </c>
       <c r="M53" t="n">
         <v>1</v>
       </c>
       <c r="N53" t="s">
-        <v>416</v>
+        <v>468</v>
       </c>
       <c r="O53" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="P53" t="n">
         <v>1</v>
@@ -5313,47 +5701,51 @@
         <v>0</v>
       </c>
       <c r="W53" t="s">
-        <v>417</v>
+        <v>469</v>
       </c>
       <c r="X53" t="s">
-        <v>418</v>
+        <v>470</v>
       </c>
       <c r="Y53" t="s">
-        <v>419</v>
+        <v>471</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
         <v>161</v>
       </c>
-      <c r="B54" t="s"/>
-      <c r="C54" t="s"/>
+      <c r="B54" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C54" t="s">
+        <v>472</v>
+      </c>
       <c r="D54" t="n">
         <v>53</v>
       </c>
       <c r="E54" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F54" t="s">
-        <v>420</v>
+        <v>473</v>
       </c>
       <c r="G54" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H54" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I54" t="s">
-        <v>421</v>
+        <v>474</v>
       </c>
       <c r="J54" t="s">
-        <v>422</v>
+        <v>475</v>
       </c>
       <c r="K54" t="s">
-        <v>423</v>
+        <v>476</v>
       </c>
       <c r="L54" t="s">
-        <v>424</v>
+        <v>477</v>
       </c>
       <c r="M54" t="n">
         <v>4</v>
@@ -5380,56 +5772,60 @@
         <v>0</v>
       </c>
       <c r="W54" t="s">
-        <v>417</v>
+        <v>469</v>
       </c>
       <c r="X54" t="s">
-        <v>418</v>
+        <v>470</v>
       </c>
       <c r="Y54" t="s">
-        <v>425</v>
+        <v>478</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
         <v>161</v>
       </c>
-      <c r="B55" t="s"/>
-      <c r="C55" t="s"/>
+      <c r="B55" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C55" t="s">
+        <v>479</v>
+      </c>
       <c r="D55" t="n">
         <v>54</v>
       </c>
       <c r="E55" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F55" t="s">
-        <v>426</v>
+        <v>480</v>
       </c>
       <c r="G55" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H55" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I55" t="s">
-        <v>427</v>
+        <v>481</v>
       </c>
       <c r="J55" t="s">
-        <v>428</v>
+        <v>482</v>
       </c>
       <c r="K55" t="s">
-        <v>429</v>
+        <v>483</v>
       </c>
       <c r="L55" t="s">
-        <v>430</v>
+        <v>484</v>
       </c>
       <c r="M55" t="n">
         <v>5</v>
       </c>
       <c r="N55" t="s">
-        <v>431</v>
+        <v>485</v>
       </c>
       <c r="O55" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="P55" t="n">
         <v>5</v>
@@ -5447,56 +5843,60 @@
         <v>0</v>
       </c>
       <c r="W55" t="s">
-        <v>417</v>
+        <v>469</v>
       </c>
       <c r="X55" t="s">
-        <v>418</v>
+        <v>470</v>
       </c>
       <c r="Y55" t="s">
-        <v>432</v>
+        <v>486</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
         <v>161</v>
       </c>
-      <c r="B56" t="s"/>
-      <c r="C56" t="s"/>
+      <c r="B56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C56" t="s">
+        <v>487</v>
+      </c>
       <c r="D56" t="n">
         <v>55</v>
       </c>
       <c r="E56" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F56" t="s">
-        <v>433</v>
+        <v>488</v>
       </c>
       <c r="G56" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H56" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I56" t="s">
-        <v>434</v>
+        <v>489</v>
       </c>
       <c r="J56" t="s">
-        <v>435</v>
+        <v>490</v>
       </c>
       <c r="K56" t="s">
-        <v>436</v>
+        <v>491</v>
       </c>
       <c r="L56" t="s">
-        <v>437</v>
+        <v>492</v>
       </c>
       <c r="M56" t="n">
         <v>1</v>
       </c>
       <c r="N56" t="s">
-        <v>438</v>
+        <v>493</v>
       </c>
       <c r="O56" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P56" t="n">
         <v>1</v>
@@ -5518,56 +5918,60 @@
         <v>0</v>
       </c>
       <c r="W56" t="s">
-        <v>439</v>
+        <v>494</v>
       </c>
       <c r="X56" t="s">
-        <v>440</v>
+        <v>495</v>
       </c>
       <c r="Y56" t="s">
-        <v>441</v>
+        <v>496</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
         <v>161</v>
       </c>
-      <c r="B57" t="s"/>
-      <c r="C57" t="s"/>
+      <c r="B57" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C57" t="s">
+        <v>497</v>
+      </c>
       <c r="D57" t="n">
         <v>56</v>
       </c>
       <c r="E57" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F57" t="s">
-        <v>442</v>
+        <v>498</v>
       </c>
       <c r="G57" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H57" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I57" t="s">
-        <v>443</v>
+        <v>499</v>
       </c>
       <c r="J57" t="s">
-        <v>444</v>
+        <v>500</v>
       </c>
       <c r="K57" t="s">
-        <v>445</v>
+        <v>501</v>
       </c>
       <c r="L57" t="s">
-        <v>446</v>
+        <v>502</v>
       </c>
       <c r="M57" t="n">
         <v>3</v>
       </c>
       <c r="N57" t="s">
-        <v>447</v>
+        <v>503</v>
       </c>
       <c r="O57" t="s">
-        <v>227</v>
+        <v>254</v>
       </c>
       <c r="P57" t="n">
         <v>2</v>
@@ -5589,56 +5993,60 @@
         <v>0</v>
       </c>
       <c r="W57" t="s">
-        <v>448</v>
+        <v>504</v>
       </c>
       <c r="X57" t="s">
-        <v>449</v>
+        <v>505</v>
       </c>
       <c r="Y57" t="s">
-        <v>450</v>
+        <v>506</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
         <v>161</v>
       </c>
-      <c r="B58" t="s"/>
-      <c r="C58" t="s"/>
+      <c r="B58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C58" t="s">
+        <v>507</v>
+      </c>
       <c r="D58" t="n">
         <v>57</v>
       </c>
       <c r="E58" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F58" t="s">
-        <v>451</v>
+        <v>508</v>
       </c>
       <c r="G58" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H58" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I58" t="s">
-        <v>452</v>
+        <v>509</v>
       </c>
       <c r="J58" t="s">
-        <v>453</v>
+        <v>510</v>
       </c>
       <c r="K58" t="s">
-        <v>454</v>
+        <v>511</v>
       </c>
       <c r="L58" t="s">
-        <v>455</v>
+        <v>512</v>
       </c>
       <c r="M58" t="n">
         <v>5</v>
       </c>
       <c r="N58" t="s">
-        <v>456</v>
+        <v>513</v>
       </c>
       <c r="O58" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P58" t="n">
         <v>5</v>
@@ -5660,47 +6068,51 @@
         <v>0</v>
       </c>
       <c r="W58" t="s">
-        <v>457</v>
+        <v>514</v>
       </c>
       <c r="X58" t="s">
-        <v>458</v>
+        <v>515</v>
       </c>
       <c r="Y58" t="s">
-        <v>459</v>
+        <v>516</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
         <v>161</v>
       </c>
-      <c r="B59" t="s"/>
-      <c r="C59" t="s"/>
+      <c r="B59" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C59" t="s">
+        <v>517</v>
+      </c>
       <c r="D59" t="n">
         <v>58</v>
       </c>
       <c r="E59" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F59" t="s">
-        <v>460</v>
+        <v>518</v>
       </c>
       <c r="G59" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H59" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I59" t="s">
-        <v>461</v>
+        <v>519</v>
       </c>
       <c r="J59" t="s">
-        <v>462</v>
+        <v>520</v>
       </c>
       <c r="K59" t="s">
-        <v>463</v>
+        <v>521</v>
       </c>
       <c r="L59" t="s">
-        <v>464</v>
+        <v>522</v>
       </c>
       <c r="M59" t="n">
         <v>4</v>
@@ -5727,56 +6139,60 @@
         <v>0</v>
       </c>
       <c r="W59" t="s">
-        <v>465</v>
+        <v>523</v>
       </c>
       <c r="X59" t="s">
-        <v>466</v>
+        <v>524</v>
       </c>
       <c r="Y59" t="s">
-        <v>467</v>
+        <v>525</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
         <v>161</v>
       </c>
-      <c r="B60" t="s"/>
-      <c r="C60" t="s"/>
+      <c r="B60" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C60" t="s">
+        <v>526</v>
+      </c>
       <c r="D60" t="n">
         <v>59</v>
       </c>
       <c r="E60" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F60" t="s">
-        <v>468</v>
+        <v>527</v>
       </c>
       <c r="G60" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H60" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I60" t="s">
-        <v>469</v>
+        <v>528</v>
       </c>
       <c r="J60" t="s">
-        <v>470</v>
+        <v>529</v>
       </c>
       <c r="K60" t="s">
-        <v>471</v>
+        <v>530</v>
       </c>
       <c r="L60" t="s">
-        <v>472</v>
+        <v>531</v>
       </c>
       <c r="M60" t="n">
         <v>1</v>
       </c>
       <c r="N60" t="s">
-        <v>473</v>
+        <v>532</v>
       </c>
       <c r="O60" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P60" t="n">
         <v>1</v>
@@ -5796,56 +6212,60 @@
         <v>0</v>
       </c>
       <c r="W60" t="s">
-        <v>465</v>
+        <v>523</v>
       </c>
       <c r="X60" t="s">
-        <v>466</v>
+        <v>524</v>
       </c>
       <c r="Y60" t="s">
-        <v>474</v>
+        <v>533</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
         <v>161</v>
       </c>
-      <c r="B61" t="s"/>
-      <c r="C61" t="s"/>
+      <c r="B61" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C61" t="s">
+        <v>534</v>
+      </c>
       <c r="D61" t="n">
         <v>60</v>
       </c>
       <c r="E61" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F61" t="s">
-        <v>475</v>
+        <v>535</v>
       </c>
       <c r="G61" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H61" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I61" t="s">
-        <v>476</v>
+        <v>536</v>
       </c>
       <c r="J61" t="s">
-        <v>477</v>
+        <v>537</v>
       </c>
       <c r="K61" t="s">
-        <v>478</v>
+        <v>538</v>
       </c>
       <c r="L61" t="s">
-        <v>479</v>
+        <v>539</v>
       </c>
       <c r="M61" t="n">
         <v>4</v>
       </c>
       <c r="N61" t="s">
-        <v>480</v>
+        <v>540</v>
       </c>
       <c r="O61" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P61" t="n">
         <v>5</v>
@@ -5867,13 +6287,13 @@
         <v>0</v>
       </c>
       <c r="W61" t="s">
-        <v>481</v>
+        <v>541</v>
       </c>
       <c r="X61" t="s">
-        <v>482</v>
+        <v>542</v>
       </c>
       <c r="Y61" t="s">
-        <v>483</v>
+        <v>543</v>
       </c>
     </row>
   </sheetData>
